--- a/Art5_classified_v3.xlsx
+++ b/Art5_classified_v3.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The statement 'I'm a painter.' is a factual self-identification without emotional tone, judgment, or evaluation of quality or value.</t>
+          <t>The statement 'I'm a painter.' is a factual self-identification without emotional stance, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -521,7 +521,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The statement 'I'm a painter.' is a factual self-identification without emotional tone, judgment, or evaluation of quality or value.",
+  "justification": "The statement 'I'm a painter.' is a factual self-identification without emotional stance, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -539,7 +539,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The TARGET describes a personal artistic practice without expressing emotion, judgment, or value evaluation. It is a neutral, factual statement about the type of paintings the speaker creates.</t>
+          <t>The TARGET describes the speaker's artistic practice factually, without expressing emotion, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -554,7 +554,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET describes a personal artistic practice without expressing emotion, judgment, or value evaluation. It is a neutral, factual statement about the type of paintings the speaker creates.",
+  "justification": "The TARGET describes the speaker's artistic practice factually, without expressing emotion, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -586,22 +586,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>I'm here tonight to tell you about something personal ||| changed my work and my perspective</t>
+          <t>I'm here tonight to tell you about something personal that changed my work and my perspective. ||| my hope is that my experience may be helpful to somebody.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>The TARGET expresses a personal emotional shift, using 'personal' and 'changed my work and my perspective' to convey an internal emotional transformation. This aligns with Affect, as it reflects the speaker's inner emotional state and reaction to a life event, consistent with the definition of emotional reactions and dispositions.</t>
+          <t>The text expresses personal emotion and vulnerability, focusing on a transformative life experience. The emphasis on personal change and hope indicates emotional resonance, aligning with affect as the primary category.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -621,14 +621,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "I'm here tonight to tell you about something personal",
-    "changed my work and my perspective"
-  ],
-  "explanation": "The TARGET expresses a personal emotional shift, using 'personal' and 'changed my work and my perspective' to convey an internal emotional transformation. This aligns with Affect, as it reflects the speaker's inner emotional state and reaction to a life event, consistent with the definition of emotional reactions and dispositions."
+  "top_spans": ["I'm here tonight to tell you about something personal that changed my work and my perspective.", "my hope is that my experience may be helpful to somebody."],
+  "explanation": "The text expresses personal emotion and vulnerability, focusing on a transformative life experience. The emphasis on personal change and hope indicates emotional resonance, aligning with affect as the primary category."
 }</t>
         </is>
       </c>
@@ -644,7 +641,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The TARGET expresses a personal hope that the speaker's experience could be helpful, indicating a value judgment about the potential benefit of their story.</t>
+          <t>The TARGET expresses a personal hope and implies value in sharing the experience, indicating a judgment of its potential benefit to others.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -658,22 +655,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>my hope is that my experience may be helpful to somebody</t>
+          <t>It's something we all go through ||| my hope is that my experience may be helpful to somebody</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>The phrase expresses a personal emotional aspiration ('my hope') and a concern for others' well-being, aligning with Affect as it reflects the speaker's emotional stance and empathetic feeling. No clear evaluation of character (Judgment) or object quality (Appreciation) is present. The context supports a focus on emotional resonance.</t>
+          <t>The target expresses personal emotional resonance and empathetic concern, indicating shared human experience and emotional hope. These reflect affective stance rather than evaluation of behavior (judgment) or quality (appreciation).</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -681,7 +678,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses a personal hope that the speaker's experience could be helpful, indicating a value judgment about the potential benefit of their story.",
+  "justification": "The TARGET expresses a personal hope and implies value in sharing the experience, indicating a judgment of its potential benefit to others.",
   "evidence_span": "my hope is that my experience may be helpful to somebody"
 }</t>
         </is>
@@ -693,13 +690,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "my hope is that my experience may be helpful to somebody"
-  ],
-  "explanation": "The phrase expresses a personal emotional aspiration ('my hope') and a concern for others' well-being, aligning with Affect as it reflects the speaker's emotional stance and empathetic feeling. No clear evaluation of character (Judgment) or object quality (Appreciation) is present. The context supports a focus on emotional resonance."
+  "top_spans": ["It's something we all go through", "my hope is that my experience may be helpful to somebody"],
+  "explanation": "The target expresses personal emotional resonance and empathetic concern, indicating shared human experience and emotional hope. These reflect affective stance rather than evaluation of behavior (judgment) or quality (appreciation)."
 }</t>
         </is>
       </c>
@@ -715,7 +710,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The TARGET states a factual detail about family size without expressing emotion, judgment, or evaluation of quality or value.</t>
+          <t>The TARGET text states a factual detail about the speaker's family size and birth order without expressing emotion, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -730,7 +725,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET states a factual detail about family size without expressing emotion, judgment, or evaluation of quality or value.",
+  "justification": "The TARGET text states a factual detail about the speaker's family size and birth order without expressing emotion, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -814,7 +809,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The sentence states a factual detail about family vacation logistics without expressing emotion, judgment, or value evaluation.</t>
+          <t>The sentence states a factual detail about family vacation logistics without expressing emotion, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -829,7 +824,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The sentence states a factual detail about family vacation logistics without expressing emotion, judgment, or value evaluation.",
+  "justification": "The sentence states a factual detail about family vacation logistics without expressing emotion, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -847,7 +842,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The phrase 'My supermom' expresses a positive evaluation of the mother's role and capabilities, indicating an aesthetic and emotional judgment.</t>
+          <t>The phrase 'My supermom' expresses a positive evaluation of the person's character and role, indicating admiration and approval.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -861,22 +856,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H10" t="n">
         <v>0.05</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>My supermom ||| would drive us all over town</t>
+          <t>My supermom would drive us all over town</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>The phrase 'My supermom' expresses positive emotional regard, indicating affection and admiration. The use of 'super' conveys emotional enthusiasm and personal attachment, aligning with Affect (emotional reaction). No clear evaluation of behavior (Judgment) or object quality (Appreciation) is present. The context supports emotional tone, not social or aesthetic evaluation.</t>
+          <t>The phrase 'My supermom' expresses positive emotional regard, indicating affectionate feelings toward the mother. This is an expression of personal emotion, fitting the definition of affect. No evaluation of behavior or quality is present.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -884,7 +879,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The phrase 'My supermom' expresses a positive evaluation of the mother's role and capabilities, indicating an aesthetic and emotional judgment.",
+  "justification": "The phrase 'My supermom' expresses a positive evaluation of the person's character and role, indicating admiration and approval.",
   "evidence_span": "My supermom"
 }</t>
         </is>
@@ -896,14 +891,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "My supermom",
-    "would drive us all over town"
-  ],
-  "explanation": "The phrase 'My supermom' expresses positive emotional regard, indicating affection and admiration. The use of 'super' conveys emotional enthusiasm and personal attachment, aligning with Affect (emotional reaction). No clear evaluation of behavior (Judgment) or object quality (Appreciation) is present. The context supports emotional tone, not social or aesthetic evaluation."
+  "top_spans": ["My supermom would drive us all over town"],
+  "explanation": "The phrase 'My supermom' expresses positive emotional regard, indicating affectionate feelings toward the mother. This is an expression of personal emotion, fitting the definition of affect. No evaluation of behavior or quality is present."
 }</t>
         </is>
       </c>
@@ -962,26 +954,26 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>appreciation</t>
+          <t>affect</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>She would take me to art classes ||| not just one or two</t>
+          <t>She would take me to art classes, and not just one or two. ||| She took me to every available art class from when I was eight to 16, because that's all I wanted to do.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>The TARGET evaluates the quality and extent of an action (taking art classes), highlighting its significance and value. The phrase 'not just one or two' suggests appreciation for the generosity and consistency of the action, fitting Appreciation (evaluation of a process/event). No clear emotional reaction (Affect) or moral evaluation of character (Judgment) is present.</t>
+          <t>The text conveys emotional warmth and personal significance through repeated acts of support, indicating deep personal feeling. The focus is on the emotional impact of the mother's actions, not social evaluation or quality assessment. Thus, affect is dominant.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -995,591 +987,578 @@
         </is>
       </c>
       <c r="L12" t="inlineStr">
+        <is>
+          <t>{
+  "label": "affect",
+  "affect": 1,
+  "judgment": 0,
+  "appreciation": 0,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
+  "top_spans": [
+    "She would take me to art classes, and not just one or two.",
+    "She took me to every available art class from when I was eight to 16, because that's all I wanted to do."
+  ],
+  "explanation": "The text conveys emotional warmth and personal significance through repeated acts of support, indicating deep personal feeling. The focus is on the emotional impact of the mother's actions, not social evaluation or quality assessment. Thus, affect is dominant."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>She took me to every available art class from when I was eight to 16, because that's all I wanted to do.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The statement expresses a personal value and emotional significance, indicating that the action was meaningful and aligned with the speaker's desires, suggesting evaluative judgment of the mother's support.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>because that's all I wanted to do</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>She took me to every available art class from when I was eight to 16 ||| because that's all I wanted to do</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>The text evaluates the value and significance of the repeated act of attending art classes, highlighting its importance and positive impact. This reflects appreciation of a process and its personal value, not emotional expression or moral evaluation.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement expresses a personal value and emotional significance, indicating that the action was meaningful and aligned with the speaker's desires, suggesting evaluative judgment of the mother's support.",
+  "evidence_span": "because that's all I wanted to do"
+}</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>{
   "label": "appreciation",
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
   "top_spans": [
-    "She would take me to art classes",
-    "not just one or two"
+    "She took me to every available art class from when I was eight to 16",
+    "because that's all I wanted to do"
   ],
-  "explanation": "The TARGET evaluates the quality and extent of an action (taking art classes), highlighting its significance and value. The phrase 'not just one or two' suggests appreciation for the generosity and consistency of the action, fitting Appreciation (evaluation of a process/event). No clear emotional reaction (Affect) or moral evaluation of character (Judgment) is present."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>She took me to every available art class from when I was eight to 16, because that's all I wanted to do.</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>The statement expresses a personal value and emotional significance, indicating that the action was meaningful and desired, reflecting a positive evaluation of the mother's support.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>that's all I wanted to do</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+  "explanation": "The text evaluates the value and significance of the repeated act of attending art classes, highlighting its importance and positive impact. This reflects appreciation of a process and its personal value, not emotional expression or moral evaluation."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>She even took a class with me in New York City.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The statement expresses a personal, emotionally significant action, indicating dedication and support, which reflects a positive judgment of the person's behavior.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>She even took a class with me in New York City.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>judgment</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>She even took a class with me in New York City.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>The statement evaluates the mother's behavior as supportive and committed, reflecting a positive judgment of her actions against social norms of parental involvement. No emotional expression or evaluation of quality/value is present.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement expresses a personal, emotionally significant action, indicating dedication and support, which reflects a positive judgment of the person's behavior.",
+  "evidence_span": "She even took a class with me in New York City."
+}</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>{
+  "label": "judgment",
+  "affect": 0,
+  "judgment": 1,
+  "appreciation": 0,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.90,
+  "probability_appreciation": 0.05,
+  "top_spans": ["She even took a class with me in New York City."],
+  "explanation": "The statement evaluates the mother's behavior as supportive and committed, reflecting a positive judgment of her actions against social norms of parental involvement. No emotional expression or evaluation of quality/value is present."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Now, being the youngest of eight, I learned a few survival skills.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The statement reflects a personal judgment about life experiences and implies value in the 'survival skills' acquired, indicating evaluative content about personal development.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>I learned a few survival skills</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>judgment</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>don't let your big brother see you do anything stupid</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>The statement evaluates behavior (avoiding being seen doing something foolish) in terms of social norms and expected conduct, reflecting a judgment about appropriate actions. No emotional expression or evaluation of quality/value is present.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement reflects a personal judgment about life experiences and implies value in the 'survival skills' acquired, indicating evaluative content about personal development.",
+  "evidence_span": "I learned a few survival skills"
+}</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>{
+  "label": "judgment",
+  "affect": 0,
+  "judgment": 1,
+  "appreciation": 0,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.85,
+  "probability_appreciation": 0.10,
+  "top_spans": ["don't let your big brother see you do anything stupid"],
+  "explanation": "The statement evaluates behavior (avoiding being seen doing something foolish) in terms of social norms and expected conduct, reflecting a judgment about appropriate actions. No emotional expression or evaluation of quality/value is present."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rule number one: don't let your big brother see you do anything stupid.</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>The statement expresses a judgment about behavior, implying that 'doing anything stupid' is undesirable and should be avoided, reflecting a value-based evaluation of actions.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>don't let your big brother see you do anything stupid</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>judgment</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>don't let your big brother see you do anything stupid ||| stay in line</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>The text evaluates behavior (avoiding stupidity, following rules) against social expectations within a family hierarchy, indicating judgment. No emotional expression or evaluation of quality/value is present.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement expresses a judgment about behavior, implying that 'doing anything stupid' is undesirable and should be avoided, reflecting a value-based evaluation of actions.",
+  "evidence_span": "don't let your big brother see you do anything stupid"
+}</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>{
+  "label": "judgment",
+  "affect": 0,
+  "judgment": 1,
+  "appreciation": 0,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.90,
+  "probability_appreciation": 0.05,
+  "top_spans": ["don't let your big brother see you do anything stupid", "stay in line"],
+  "explanation": "The text evaluates behavior (avoiding stupidity, following rules) against social expectations within a family hierarchy, indicating judgment. No emotional expression or evaluation of quality/value is present."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>So I learned to be quiet and neat and careful to follow the rules and stay in line.</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The TARGET expresses a personal judgment about behavior—being quiet, neat, and careful—as a learned response to avoid consequences, indicating value evaluation of conduct.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>I learned to be quiet and neat and careful to follow the rules and stay in line</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>stay in line ||| painting was where I made the rules</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>The text evaluates the value and quality of behavior and creative expression, particularly highlighting the significance of rule-following versus creative autonomy. The focus is on the worth of staying orderly versus the value of self-determined creation, aligning with appreciation of processes and phenomena.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The TARGET expresses a personal judgment about behavior—being quiet, neat, and careful—as a learned response to avoid consequences, indicating value evaluation of conduct.",
+  "evidence_span": "I learned to be quiet and neat and careful to follow the rules and stay in line"
+}</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>{
+  "label": "appreciation",
+  "affect": 0,
+  "judgment": 0,
+  "appreciation": 1,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": [
+    "stay in line",
+    "painting was where I made the rules"
+  ],
+  "explanation": "The text evaluates the value and quality of behavior and creative expression, particularly highlighting the significance of rule-following versus creative autonomy. The focus is on the worth of staying orderly versus the value of self-determined creation, aligning with appreciation of processes and phenomena."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>But painting was where I made the rules.</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The statement expresses a personal value judgment about creativity and autonomy, framing painting as a space of self-determined rules, indicating evaluative significance.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>But painting was where I made the rules.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>painting was where I made the rules ||| That was my private world</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>The text evaluates the value and significance of painting as a personal, rule-defining space. This reflects appreciation of an activity's intrinsic worth and quality, not emotion or social evaluation.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement expresses a personal value judgment about creativity and autonomy, framing painting as a space of self-determined rules, indicating evaluative significance.",
+  "evidence_span": "But painting was where I made the rules."
+}</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>{
+  "label": "appreciation",
+  "affect": 0,
+  "judgment": 0,
+  "appreciation": 1,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["painting was where I made the rules", "That was my private world"],
+  "explanation": "The text evaluates the value and significance of painting as a personal, rule-defining space. This reflects appreciation of an activity's intrinsic worth and quality, not emotion or social evaluation."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>That was my private world.</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>The phrase 'my private world' implies a personal, emotional significance and value attached to the space, indicating a subjective, evaluative stance.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>my private world</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>affect</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>that's all I wanted to do</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>The phrase 'that's all I wanted to do' expresses a personal emotional desire and fulfillment, aligning with Affect as it reflects the speaker's internal emotional state and attachment to the experience. No explicit evaluation of character (Judgment) or object quality (Appreciation) is present. The context supports emotional significance, not social or aesthetic evaluation.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses a personal value and emotional significance, indicating that the action was meaningful and desired, reflecting a positive evaluation of the mother's support.",
-  "evidence_span": "that's all I wanted to do"
-}</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="F19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>That was my private world.</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>The phrase expresses personal emotional significance and intimacy, reflecting a private, emotionally charged space. This aligns with affect as the primary category, as it conveys inner feeling rather than evaluation of behavior or quality.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The phrase 'my private world' implies a personal, emotional significance and value attached to the space, indicating a subjective, evaluative stance.",
+  "evidence_span": "my private world"
+}</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>{
   "label": "affect",
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "that's all I wanted to do"
-  ],
-  "explanation": "The phrase 'that's all I wanted to do' expresses a personal emotional desire and fulfillment, aligning with Affect as it reflects the speaker's internal emotional state and attachment to the experience. No explicit evaluation of character (Judgment) or object quality (Appreciation) is present. The context supports emotional significance, not social or aesthetic evaluation."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>She even took a class with me in New York City.</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>The statement expresses a personal, emotionally significant action, implying dedication and support, which reflects a positive judgment of the mother's behavior.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>She even took a class with me in New York City.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>judgment</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G14" t="n">
+  "top_spans": ["That was my private world."],
+  "explanation": "The phrase expresses personal emotional significance and intimacy, reflecting a private, emotionally charged space. This aligns with affect as the primary category, as it conveys inner feeling rather than evaluation of behavior or quality."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>By 14, I knew I really wanted to be an artist.</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The statement expresses a personal aspiration and self-identification as an artist, indicating a value judgment about one's identity and goals.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>I really wanted to be an artist</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>affect</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>0.9</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>She even took a class with me in New York City</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>The sentence evaluates the mother's behavior as supportive and committed, aligning with Judgment (social esteem). It implies she went beyond expectations, suggesting qualities like dedication and care. No clear emotional expression (Affect) or evaluation of a thing/event (Appreciation) is present. The context supports a normative evaluation of her actions.</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses a personal, emotionally significant action, implying dedication and support, which reflects a positive judgment of the mother's behavior.",
-  "evidence_span": "She even took a class with me in New York City."
-}</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>{
-  "label": "judgment",
-  "affect": 0,
-  "judgment": 1,
-  "appreciation": 0,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.9,
-  "probability_appreciation": 0.1,
-  "top_spans": [
-    "She even took a class with me in New York City"
-  ],
-  "explanation": "The sentence evaluates the mother's behavior as supportive and committed, aligning with Judgment (social esteem). It implies she went beyond expectations, suggesting qualities like dedication and care. No clear emotional expression (Affect) or evaluation of a thing/event (Appreciation) is present. The context supports a normative evaluation of her actions."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Now, being the youngest of eight, I learned a few survival skills.</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>The statement reflects a judgment about personal experience and implies value in the 'survival skills' acquired, suggesting evaluative insight into life lessons from family dynamics.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>I learned a few survival skills</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>judgment</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>learned a few survival skills</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>The phrase 'learned a few survival skills' evaluates the speaker's behavior and character in response to social circumstances (being the youngest of eight). This reflects a judgment of competence and adaptability, aligning with social norms. No clear emotional state or evaluation of things/events is present, ruling out affect and appreciation.</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement reflects a judgment about personal experience and implies value in the 'survival skills' acquired, suggesting evaluative insight into life lessons from family dynamics.",
-  "evidence_span": "I learned a few survival skills"
-}</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>{
-  "label": "judgment",
-  "affect": 0,
-  "judgment": 1,
-  "appreciation": 0,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.9,
-  "probability_appreciation": 0.1,
-  "top_spans": [
-    "learned a few survival skills"
-  ],
-  "explanation": "The phrase 'learned a few survival skills' evaluates the speaker's behavior and character in response to social circumstances (being the youngest of eight). This reflects a judgment of competence and adaptability, aligning with social norms. No clear emotional state or evaluation of things/events is present, ruling out affect and appreciation."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Rule number one: don't let your big brother see you do anything stupid.</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>The statement expresses a judgment about behavior, implying that doing 'stupid' things is undesirable and should be avoided, indicating a value evaluation of actions.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>don't let your big brother see you do anything stupid</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>judgment</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>don't let your big brother see you do anything stupid</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>The TARGET evaluates behaviour (avoiding stupidity) in relation to social norms and expectations, reflecting a judgment about appropriate conduct. It implies a moral or social standard (e.g., being careful, avoiding shame), fitting Judgment. No emotional expression or evaluation of things/events is present, ruling out Affect and Appreciation.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses a judgment about behavior, implying that doing 'stupid' things is undesirable and should be avoided, indicating a value evaluation of actions.",
-  "evidence_span": "don't let your big brother see you do anything stupid"
-}</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>{
-  "label": "judgment",
-  "affect": 0,
-  "judgment": 1,
-  "appreciation": 0,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.9,
-  "probability_appreciation": 0.1,
-  "top_spans": [
-    "don't let your big brother see you do anything stupid"
-  ],
-  "explanation": "The TARGET evaluates behaviour (avoiding stupidity) in relation to social norms and expectations, reflecting a judgment about appropriate conduct. It implies a moral or social standard (e.g., being careful, avoiding shame), fitting Judgment. No emotional expression or evaluation of things/events is present, ruling out Affect and Appreciation."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>So I learned to be quiet and neat and careful to follow the rules and stay in line.</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>The TARGET expresses a judgment of behavior (being quiet, neat, careful) and adherence to rules, indicating a value-laden evaluation of conduct and self-regulation.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>I learned to be quiet and neat and careful to follow the rules and stay in line</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>judgment</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>be quiet and neat and careful ||| follow the rules ||| stay in line</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>The TARGET evaluates behavior in terms of social norms—'quiet', 'neat', 'careful', 'follow the rules', and 'stay in line'—which align with Judgment (evaluation of conduct). No emotional states (Affect) or evaluations of things/events (Appreciation) are present. The focus is on socially appropriate behavior, fitting Judgment.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The TARGET expresses a judgment of behavior (being quiet, neat, careful) and adherence to rules, indicating a value-laden evaluation of conduct and self-regulation.",
-  "evidence_span": "I learned to be quiet and neat and careful to follow the rules and stay in line"
-}</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>{
-  "label": "judgment",
-  "affect": 0,
-  "judgment": 1,
-  "appreciation": 0,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.9,
-  "probability_appreciation": 0.1,
-  "top_spans": [
-    "be quiet and neat and careful",
-    "follow the rules",
-    "stay in line"
-  ],
-  "explanation": "The TARGET evaluates behavior in terms of social norms—'quiet', 'neat', 'careful', 'follow the rules', and 'stay in line'—which align with Judgment (evaluation of conduct). No emotional states (Affect) or evaluations of things/events (Appreciation) are present. The focus is on socially appropriate behavior, fitting Judgment."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>But painting was where I made the rules.</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>The statement expresses a personal value judgment about creativity and autonomy in painting, implying a positive evaluation of rule-breaking as self-expression.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>But painting was where I made the rules.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>appreciation</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>painting was where I made the rules ||| my private world</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>The TARGET evaluates painting as a domain of personal agency and creative freedom, aligning with Appreciation (evaluation of a process/event). 'Made the rules' implies a valued, self-directed creative space. 'Private world' reinforces this as a significant, personally meaningful domain. No clear emotional state (Affect) or character evaluation (Judgment) is expressed.</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses a personal value judgment about creativity and autonomy in painting, implying a positive evaluation of rule-breaking as self-expression.",
-  "evidence_span": "But painting was where I made the rules."
-}</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>{
-  "label": "appreciation",
-  "affect": 0,
-  "judgment": 0,
-  "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "painting was where I made the rules",
-    "my private world"
-  ],
-  "explanation": "The TARGET evaluates painting as a domain of personal agency and creative freedom, aligning with Appreciation (evaluation of a process/event). 'Made the rules' implies a valued, self-directed creative space. 'Private world' reinforces this as a significant, personally meaningful domain. No clear emotional state (Affect) or character evaluation (Judgment) is expressed."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>That was my private world.</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>The phrase 'my private world' implies a personal, emotional significance and value attached to the space, indicating a subjective, evaluative stance on its importance.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>my private world</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>my private world</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>The phrase 'my private world' expresses a personal, emotional connection to painting, reflecting inner feelings and identity. It aligns with Affect as it conveys a subjective emotional space, consistent with the speaker's sense of belonging and intimacy. No clear evaluation of character (Judgment) or object quality (Appreciation) is present.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The phrase 'my private world' implies a personal, emotional significance and value attached to the space, indicating a subjective, evaluative stance on its importance.",
-  "evidence_span": "my private world"
-}</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="G20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>I knew I really wanted to be an artist.</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>The statement expresses a strong personal emotional commitment and inner conviction, reflecting internal feelings and desires. This aligns with 'affect' as the primary category, as it conveys a deep emotional state rather than evaluation of behavior or quality.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement expresses a personal aspiration and self-identification as an artist, indicating a value judgment about one's identity and goals.",
+  "evidence_span": "I really wanted to be an artist"
+}</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>{
   "label": "affect",
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "my private world"
-  ],
-  "explanation": "The phrase 'my private world' expresses a personal, emotional connection to painting, reflecting inner feelings and identity. It aligns with Affect as it conveys a subjective emotional space, consistent with the speaker's sense of belonging and intimacy. No clear evaluation of character (Judgment) or object quality (Appreciation) is present."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>By 14, I knew I really wanted to be an artist.</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>The statement expresses a personal aspiration and self-identification as an artist, indicating a value judgment about one's identity and goals.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>I really wanted to be an artist</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>I really wanted to be an artist</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>The statement expresses a strong personal emotional desire and identity formation, aligning with Affect as it reflects an internal emotional state (passion, aspiration) rather than evaluation of behavior (Judgment) or objects (Appreciation). The phrase 'really wanted' indicates affective intensity.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses a personal aspiration and self-identification as an artist, indicating a value judgment about one's identity and goals.",
-  "evidence_span": "I really wanted to be an artist"
-}</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>{
-  "label": "affect",
-  "affect": 1,
-  "judgment": 0,
-  "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
-  "probability_appreciation": 0.05,
-  "top_spans": [
-    "I really wanted to be an artist"
-  ],
-  "explanation": "The statement expresses a strong personal emotional desire and identity formation, aligning with Affect as it reflects an internal emotional state (passion, aspiration) rather than evaluation of behavior (Judgment) or objects (Appreciation). The phrase 'really wanted' indicates affective intensity."
+  "top_spans": ["I knew I really wanted to be an artist."],
+  "explanation": "The statement expresses a strong personal emotional commitment and inner conviction, reflecting internal feelings and desires. This aligns with 'affect' as the primary category, as it conveys a deep emotional state rather than evaluation of behavior or quality."
 }</t>
         </is>
       </c>
@@ -1595,7 +1574,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>The TARGET states a practical plan without expressing emotion, judgment, or evaluation of quality or value.</t>
+          <t>The TARGET states a practical plan without expressing emotion, judgment, or value evaluation. It describes a career choice to support art, not an evaluation of the person, behavior, or quality.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1610,7 +1589,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET states a practical plan without expressing emotion, judgment, or evaluation of quality or value.",
+  "justification": "The TARGET states a practical plan without expressing emotion, judgment, or value evaluation. It describes a career choice to support art, not an evaluation of the person, behavior, or quality.",
   "evidence_span": ""
 }</t>
         </is>
@@ -1628,7 +1607,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The TARGET describes an ongoing action of improving skills without expressing emotion, judgment, or evaluation of quality or value.</t>
+          <t>The TARGET describes an ongoing action of improving skills without expressing emotion, judgment, or value evaluation.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1643,7 +1622,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET describes an ongoing action of improving skills without expressing emotion, judgment, or evaluation of quality or value.",
+  "justification": "The TARGET describes an ongoing action of improving skills without expressing emotion, judgment, or value evaluation.",
   "evidence_span": ""
 }</t>
         </is>
@@ -1661,7 +1640,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>The TARGET text is a factual recounting of events and a question from the brother. It contains no emotional expression, judgment, or evaluation of people, behavior, or quality.</t>
+          <t>The TARGET text is a factual recounting of events and a question about artwork, with no explicit emotional stance, judgment, or evaluation of quality or behavior.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1676,7 +1655,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET text is a factual recounting of events and a question from the brother. It contains no emotional expression, judgment, or evaluation of people, behavior, or quality.",
+  "justification": "The TARGET text is a factual recounting of events and a question about artwork, with no explicit emotional stance, judgment, or evaluation of quality or behavior.",
   "evidence_span": ""
 }</t>
         </is>
@@ -1694,7 +1673,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>The statement expresses personal emotional surprise, indicating an internal emotional reaction to an unexpected situation.</t>
+          <t>The statement expresses a personal emotional reaction, indicating surprise, which reflects an internal emotional evaluation of the situation.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1708,35 +1687,210 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Nobody was more surprised than me.</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>The phrase expresses a personal emotional reaction (surprise) to an unexpected event, aligning with the definition of affect. No evaluation of behavior, social norms, or object quality is present.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement expresses a personal emotional reaction, indicating surprise, which reflects an internal emotional evaluation of the situation.",
+  "evidence_span": "Nobody was more surprised than me."
+}</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>{
+  "label": "affect",
+  "affect": 1,
+  "judgment": 0,
+  "appreciation": 0,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
+  "top_spans": ["Nobody was more surprised than me."],
+  "explanation": "The phrase expresses a personal emotional reaction (surprise) to an unexpected event, aligning with the definition of affect. No evaluation of behavior, social norms, or object quality is present."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The red dots meant that the paintings were sold and that I'd be able to pay my rent with painting.</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The statement expresses relief and positive emotional significance regarding financial stability through the sale of paintings, indicating evaluative emotional content.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>that I'd be able to pay my rent with painting</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>The red dots meant that the paintings were sold ||| I'd be able to pay my rent with painting ||| I could pay my rent</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>The text evaluates the value and significance of the red dots and their outcome—financial relief through sales. This reflects an assessment of quality and worth (appreciation), not emotions (affect), social evaluation (judgment), or personal feelings. The focus is on the functional and economic value of the situation.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement expresses relief and positive emotional significance regarding financial stability through the sale of paintings, indicating evaluative emotional content.",
+  "evidence_span": "that I'd be able to pay my rent with painting"
+}</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>{
+  "label": "appreciation",
+  "affect": 0,
+  "judgment": 0,
+  "appreciation": 1,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": [
+    "The red dots meant that the paintings were sold",
+    "I'd be able to pay my rent with painting",
+    "I could pay my rent"
+  ],
+  "explanation": "The text evaluates the value and significance of the red dots and their outcome—financial relief through sales. This reflects an assessment of quality and worth (appreciation), not emotions (affect), social evaluation (judgment), or personal feelings. The focus is on the functional and economic value of the situation."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Now, my apartment had four electrical outlets, and I couldn't use a microwave and a toaster at the same time, but still, I could pay my rent.</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>The TARGET describes a factual situation about electrical outlets and appliance usage without expressing emotion, judgment, or value evaluation.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 0,
+  "label": "no_eval",
+  "justification": "The TARGET describes a factual situation about electrical outlets and appliance usage without expressing emotion, judgment, or value evaluation.",
+  "evidence_span": ""
+}</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>So I was very happy.</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>The statement expresses a personal emotional state, 'very happy,' indicating a clear emotional evaluation of the situation.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>So I was very happy.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>affect</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
         <v>0.95</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Nobody was more surprised than me</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>The phrase expresses a personal emotional reaction (surprise) to an unexpected outcome, aligning with Affect as defined by emotional states. The speaker's internal feeling of astonishment is central, with no clear evaluation of character (Judgment) or object quality (Appreciation). The context confirms the surprise was about an unforeseen result, reinforcing its emotional nature.</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses personal emotional surprise, indicating an internal emotional reaction to an unexpected situation.",
-  "evidence_span": "Nobody was more surprised than me."
-}</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="G27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>So I was very happy.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>The phrase expresses a personal emotional state (happiness), which aligns with the definition of affect. No evaluation of behavior, people, or things is present, making affect the primary category.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement expresses a personal emotional state, 'very happy,' indicating a clear emotional evaluation of the situation.",
+  "evidence_span": "So I was very happy."
+}</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>{
   "label": "affect",
@@ -1744,226 +1898,10 @@
   "judgment": 0,
   "appreciation": 0,
   "probability_affect": 0.95,
-  "probability_judgment": 0.10,
-  "probability_appreciation": 0.05,
-  "top_spans": [
-    "Nobody was more surprised than me"
-  ],
-  "explanation": "The phrase expresses a personal emotional reaction (surprise) to an unexpected outcome, aligning with Affect as defined by emotional states. The speaker's internal feeling of astonishment is central, with no clear evaluation of character (Judgment) or object quality (Appreciation). The context confirms the surprise was about an unforeseen result, reinforcing its emotional nature."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>The red dots meant that the paintings were sold and that I'd be able to pay my rent with painting.</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>The statement expresses a positive emotional outcome (being able to pay rent) linked to the sale of paintings, indicating a value judgment on the situation's significance.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>that I'd be able to pay my rent with painting</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>appreciation</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>The red dots meant that the paintings were sold ||| I'd be able to pay my rent with painting</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>The sentence evaluates the outcome of the paintings being sold in terms of its practical value and significance (paying rent), which aligns with Appreciation—evaluating a situation's worth and utility. No emotional reaction or character judgment is expressed, making Appreciation the dominant category.</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses a positive emotional outcome (being able to pay rent) linked to the sale of paintings, indicating a value judgment on the situation's significance.",
-  "evidence_span": "that I'd be able to pay my rent with painting"
-}</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>{
-  "label": "appreciation",
-  "affect": 0,
-  "judgment": 0,
-  "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "The red dots meant that the paintings were sold",
-    "I'd be able to pay my rent with painting"
-  ],
-  "explanation": "The sentence evaluates the outcome of the paintings being sold in terms of its practical value and significance (paying rent), which aligns with Appreciation—evaluating a situation's worth and utility. No emotional reaction or character judgment is expressed, making Appreciation the dominant category."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Now, my apartment had four electrical outlets, and I couldn't use a microwave and a toaster at the same time, but still, I could pay my rent.</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>The statement expresses a positive emotional response to the ability to pay rent, implied by the context and the following sentence 'So I was very happy.'</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>but still, I could pay my rent</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>I could pay my rent</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>The TARGET expresses a positive emotional state through the relief of being able to pay rent, which aligns with Affect (emotional reaction). The mention of practical limitations (outlets) is factual, not evaluative of character or quality. NEXT confirms 'very happy', reinforcing the affective tone. No judgment of people or appreciation of things is present.</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses a positive emotional response to the ability to pay rent, implied by the context and the following sentence 'So I was very happy.'",
-  "evidence_span": "but still, I could pay my rent"
-}</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>{
-  "label": "affect",
-  "affect": 1,
-  "judgment": 0,
-  "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.05,
-  "top_spans": [
-    "I could pay my rent"
-  ],
-  "explanation": "The TARGET expresses a positive emotional state through the relief of being able to pay rent, which aligns with Affect (emotional reaction). The mention of practical limitations (outlets) is factual, not evaluative of character or quality. NEXT confirms 'very happy', reinforcing the affective tone. No judgment of people or appreciation of things is present."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>So I was very happy.</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>The statement expresses a personal emotional state of happiness, indicating a clear emotional evaluation of the situation.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>So I was very happy.</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>very happy</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>The phrase 'very happy' directly expresses an emotional state, aligning with Affect as defined by Appraisal Theory. It reflects the speaker's personal feeling, with no clear evaluation of behavior (Judgment) or objects/events (Appreciation). The context confirms this is a subjective emotional reaction.</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses a personal emotional state of happiness, indicating a clear emotional evaluation of the situation.",
-  "evidence_span": "So I was very happy."
-}</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>{
-  "label": "affect",
-  "affect": 1,
-  "judgment": 0,
-  "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.05,
-  "probability_appreciation": 0.0,
-  "top_spans": [
-    "very happy"
-  ],
-  "explanation": "The phrase 'very happy' directly expresses an emotional state, aligning with Affect as defined by Appraisal Theory. It reflects the speaker's personal feeling, with no clear evaluation of behavior (Judgment) or objects/events (Appreciation). The context confirms this is a subjective emotional reaction."
+  "probability_judgment": 0.02,
+  "probability_appreciation": 0.03,
+  "top_spans": ["So I was very happy."],
+  "explanation": "The phrase expresses a personal emotional state (happiness), which aligns with the definition of affect. No evaluation of behavior, people, or things is present, making affect the primary category."
 }</t>
         </is>
       </c>
@@ -1979,7 +1917,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The TARGET is a neutral description of a painting's origin in time, with no emotional stance, judgment, or quality evaluation.</t>
+          <t>The TARGET is a neutral description of a painting's origin, with no emotional stance, judgment, or quality evaluation.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1994,7 +1932,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET is a neutral description of a painting's origin in time, with no emotional stance, judgment, or quality evaluation.",
+  "justification": "The TARGET is a neutral description of a painting's origin, with no emotional stance, judgment, or quality evaluation.",
   "evidence_span": ""
 }</t>
         </is>
@@ -2012,7 +1950,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>The statement expresses a value judgment about the desired quality of the painting, emphasizing realism as a key evaluative criterion.</t>
+          <t>The statement expresses a value judgment about the required quality of realism, indicating an evaluative stance on the artwork's standard.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2026,13 +1964,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2041,7 +1979,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>The TARGET evaluates the painting's quality in terms of realism, specificity, and believability—key aspects of Appreciation. These terms assess the work's design and effectiveness, aligning with evaluations of things and their qualities. No emotional reaction or moral judgment of people is present.</t>
+          <t>The target evaluates the quality and value of the painting's representation, focusing on realism, specificity, and believability—key aspects of appreciation of phenomena and processes.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2049,7 +1987,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement expresses a value judgment about the desired quality of the painting, emphasizing realism as a key evaluative criterion.",
+  "justification": "The statement expresses a value judgment about the required quality of realism, indicating an evaluative stance on the artwork's standard.",
   "evidence_span": "I needed it to be as realistic as possible."
 }</t>
         </is>
@@ -2061,14 +1999,11 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "as realistic as possible",
-    "specific and believable"
-  ],
-  "explanation": "The TARGET evaluates the painting's quality in terms of realism, specificity, and believability—key aspects of Appreciation. These terms assess the work's design and effectiveness, aligning with evaluations of things and their qualities. No emotional reaction or moral judgment of people is present."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["as realistic as possible", "specific and believable"],
+  "explanation": "The target evaluates the quality and value of the painting's representation, focusing on realism, specificity, and believability—key aspects of appreciation of phenomena and processes."
 }</t>
         </is>
       </c>
@@ -2084,7 +2019,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The phrase 'specific and believable' expresses a value judgment about the required qualities of something, indicating an evaluation of quality and authenticity.</t>
+          <t>The phrase 'specific and believable' expresses a value judgment about the required qualities of something, indicating an evaluative stance on its authenticity and precision.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2098,22 +2033,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>specific ||| believable</t>
+          <t>specific and believable</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>The TARGET evaluates the quality and credibility of a situation or representation, focusing on its realism and precision. 'Specific' and 'believable' are evaluative terms assessing the worth and effectiveness of the described context, aligning with Appreciation (evaluation of phenomena). No emotional reaction or moral judgment is expressed.</t>
+          <t>The target evaluates the quality and value of something in terms of its realism and credibility, which aligns with appreciation. No emotional expression or social evaluation is present.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2121,7 +2056,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The phrase 'specific and believable' expresses a value judgment about the required qualities of something, indicating an evaluation of quality and authenticity.",
+  "justification": "The phrase 'specific and believable' expresses a value judgment about the required qualities of something, indicating an evaluative stance on its authenticity and precision.",
   "evidence_span": "specific and believable"
 }</t>
         </is>
@@ -2133,14 +2068,11 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "specific",
-    "believable"
-  ],
-  "explanation": "The TARGET evaluates the quality and credibility of a situation or representation, focusing on its realism and precision. 'Specific' and 'believable' are evaluative terms assessing the worth and effectiveness of the described context, aligning with Appreciation (evaluation of phenomena). No emotional reaction or moral judgment is expressed."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["specific and believable"],
+  "explanation": "The target evaluates the quality and value of something in terms of its realism and credibility, which aligns with appreciation. No emotional expression or social evaluation is present."
 }</t>
         </is>
       </c>
@@ -2156,36 +2088,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The phrase expresses a personal emotional state and subjective experience of isolation and control, indicating a judgment of the situation's psychological impact.</t>
+          <t>The phrase 'in total control' implies a judgment of personal power or dominance, suggesting a value-laden evaluation of the speaker's state or experience.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>in total control</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>This was the place where I was isolated and in total control.</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>I was isolated ||| in total control</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>The TARGET expresses emotional states related to isolation and control, aligning with Affect (emotional reactions). 'Isolated' conveys a sense of emotional detachment, while 'in total control' suggests a feeling of power or autonomy. No clear evaluation of character (Judgment) or object quality (Appreciation) is present. The focus is on internal emotional experience.</t>
+          <t>The statement evaluates a setting or condition in terms of its significance and quality, focusing on the nature of the experience. It reflects a value-laden assessment of a personal environment, aligning with appreciation as the primary category.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2193,98 +2125,92 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The phrase expresses a personal emotional state and subjective experience of isolation and control, indicating a judgment of the situation's psychological impact.",
-  "evidence_span": "This was the place where I was isolated and in total control."
+  "justification": "The phrase 'in total control' implies a judgment of personal power or dominance, suggesting a value-laden evaluation of the speaker's state or experience.",
+  "evidence_span": "in total control"
 }</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
-        <is>
-          <t>{
-  "label": "affect",
-  "affect": 1,
-  "judgment": 0,
-  "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
-  "probability_appreciation": 0.05,
-  "top_spans": [
-    "I was isolated",
-    "in total control"
-  ],
-  "explanation": "The TARGET expresses emotional states related to isolation and control, aligning with Affect (emotional reactions). 'Isolated' conveys a sense of emotional detachment, while 'in total control' suggests a feeling of power or autonomy. No clear evaluation of character (Judgment) or object quality (Appreciation) is present. The focus is on internal emotional experience."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Since then, I've made a career of painting people in water.</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>The statement expresses a personal career choice with implied value and aesthetic judgment, suggesting a meaningful or artistic evaluation of painting people in water.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Since then, I've made a career of painting people in water.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>appreciation</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>made a career of painting people in water ||| perfect enclosed environment</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>The TARGET evaluates the speaker's choice of subject (painting people in water) as a meaningful, creative pursuit, aligning with Appreciation (evaluation of a process/artistic practice). The phrase 'perfect enclosed environment' in NEXT reinforces this, suggesting aesthetic and functional value. No clear emotional state (Affect) or moral evaluation of character (Judgment) is expressed.</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses a personal career choice with implied value and aesthetic judgment, suggesting a meaningful or artistic evaluation of painting people in water.",
-  "evidence_span": "Since then, I've made a career of painting people in water."
-}</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
         <is>
           <t>{
   "label": "appreciation",
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "made a career of painting people in water",
-    "perfect enclosed environment"
-  ],
-  "explanation": "The TARGET evaluates the speaker's choice of subject (painting people in water) as a meaningful, creative pursuit, aligning with Appreciation (evaluation of a process/artistic practice). The phrase 'perfect enclosed environment' in NEXT reinforces this, suggesting aesthetic and functional value. No clear emotional state (Affect) or moral evaluation of character (Judgment) is expressed."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["This was the place where I was isolated and in total control."],
+  "explanation": "The statement evaluates a setting or condition in terms of its significance and quality, focusing on the nature of the experience. It reflects a value-laden assessment of a personal environment, aligning with appreciation as the primary category."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Since then, I've made a career of painting people in water.</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The statement expresses a personal career choice with implied value and aesthetic judgment, suggesting a meaningful or artistic evaluation of painting people in water.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Since then, I've made a career of painting people in water.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>painting people in water ||| perfect enclosed environment</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>The text evaluates the quality and value of a creative practice and setting, focusing on aesthetic and functional suitability. No emotional expression or moral evaluation of people is present, making appreciation the primary category.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement expresses a personal career choice with implied value and aesthetic judgment, suggesting a meaningful or artistic evaluation of painting people in water.",
+  "evidence_span": "Since then, I've made a career of painting people in water."
+}</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>{
+  "label": "appreciation",
+  "affect": 0,
+  "judgment": 0,
+  "appreciation": 1,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["painting people in water", "perfect enclosed environment"],
+  "explanation": "The text evaluates the quality and value of a creative practice and setting, focusing on aesthetic and functional suitability. No emotional expression or moral evaluation of people is present, making appreciation the primary category."
 }</t>
         </is>
       </c>
@@ -2333,12 +2259,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The TARGET expresses subjective emotional qualities ('intimate and private') and frames water as a 'complicated challenge,' indicating personal evaluation and emotional engagement.</t>
+          <t>The TARGET expresses subjective feelings of intimacy and privacy, and frames water as a challenging, personally significant task, indicating evaluative emotional and experiential judgment.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>It was intimate and private, and water was this complicated challenge</t>
+          <t>It was intimate and private, and water was this complicated challenge that kept me busy for a decade.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2347,13 +2273,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G34" t="n">
         <v>0.1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2362,7 +2288,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>The TARGET evaluates the experience of bathing as personally meaningful and engaging, focusing on the quality of the environment ('intimate and private') and the complexity of the challenge posed by water. This aligns with Appreciation, as it assesses the nature of the experience and its impact, not emotions (Affect) or character (Judgment).</t>
+          <t>The text evaluates the quality and value of the experience (intimacy, complexity, duration), aligning with appreciation. Affect is present (intimacy), but the focus is on the phenomenon's significance and depth, making appreciation dominant.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2370,8 +2296,8 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses subjective emotional qualities ('intimate and private') and frames water as a 'complicated challenge,' indicating personal evaluation and emotional engagement.",
-  "evidence_span": "It was intimate and private, and water was this complicated challenge"
+  "justification": "The TARGET expresses subjective feelings of intimacy and privacy, and frames water as a challenging, personally significant task, indicating evaluative emotional and experiential judgment.",
+  "evidence_span": "It was intimate and private, and water was this complicated challenge that kept me busy for a decade."
 }</t>
         </is>
       </c>
@@ -2379,18 +2305,18 @@
         <is>
           <t>{
   "label": "appreciation",
-  "affect": 0,
+  "affect": 1,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
+  "probability_affect": 0.30,
+  "probability_judgment": 0.10,
+  "probability_appreciation": 0.60,
   "top_spans": [
     "It was intimate and private",
     "water was this complicated challenge",
     "kept me busy for a decade"
   ],
-  "explanation": "The TARGET evaluates the experience of bathing as personally meaningful and engaging, focusing on the quality of the environment ('intimate and private') and the complexity of the challenge posed by water. This aligns with Appreciation, as it assesses the nature of the experience and its impact, not emotions (Affect) or character (Judgment)."
+  "explanation": "The text evaluates the quality and value of the experience (intimacy, complexity, duration), aligning with appreciation. Affect is present (intimacy), but the focus is on the phenomenon's significance and depth, making appreciation dominant."
 }</t>
         </is>
       </c>
@@ -2406,7 +2332,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The TARGET text is purely factual and descriptive, stating the quantity and size of paintings made, without expressing emotion, judgment, or value evaluation.</t>
+          <t>The TARGET text states a factual count and size of paintings made, without expressing emotion, judgment, or value evaluation.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2421,7 +2347,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET text is purely factual and descriptive, stating the quantity and size of paintings made, without expressing emotion, judgment, or value evaluation.",
+  "justification": "The TARGET text states a factual count and size of paintings made, without expressing emotion, judgment, or value evaluation.",
   "evidence_span": ""
 }</t>
         </is>
@@ -2439,7 +2365,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The TARGET expresses a strong emotional reaction ('so beautiful I couldn't wait') and aesthetic evaluation of the painting's visual effect, indicating evaluative content.</t>
+          <t>The TARGET expresses a positive emotional reaction ('so beautiful I couldn't wait') and aesthetic evaluation of the painting's visual effect, indicating evaluative content.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2453,22 +2379,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>it was so beautiful ||| I couldn't wait to paint it</t>
+          <t>when I lit it up, it was so beautiful I couldn't wait to paint it ||| I mixed flour in with the bathwater to make it cloudy ||| I floated cooking oil on the surface and stuck a girl in it</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>The text expresses strong positive reaction to the visual outcome of the painting ('so beautiful'), which aligns with Appreciation (evaluation of an artistic process and result). The emotional response ('couldn't wait') reflects Affect, but the primary focus is on the aesthetic quality of the artwork. Judgment is absent as no character or behavior is evaluated.</t>
+          <t>The text primarily expresses aesthetic evaluation of a creative process and outcome, focusing on sensory and visual qualities. 'So beautiful' reflects appreciation of the artwork's appearance, while the detailed description of materials and effects supports appreciation of the process and its value. Affect is present but secondary to the appreciation of the artistic result.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2476,7 +2402,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses a strong emotional reaction ('so beautiful I couldn't wait') and aesthetic evaluation of the painting's visual effect, indicating evaluative content.",
+  "justification": "The TARGET expresses a positive emotional reaction ('so beautiful I couldn't wait') and aesthetic evaluation of the painting's visual effect, indicating evaluative content.",
   "evidence_span": "it was so beautiful I couldn't wait to paint it"
 }</t>
         </is>
@@ -2488,14 +2414,15 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.4,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.9,
+  "probability_affect": 0.30,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.65,
   "top_spans": [
-    "it was so beautiful",
-    "I couldn't wait to paint it"
+    "when I lit it up, it was so beautiful I couldn't wait to paint it",
+    "I mixed flour in with the bathwater to make it cloudy",
+    "I floated cooking oil on the surface and stuck a girl in it"
   ],
-  "explanation": "The text expresses strong positive reaction to the visual outcome of the painting ('so beautiful'), which aligns with Appreciation (evaluation of an artistic process and result). The emotional response ('couldn't wait') reflects Affect, but the primary focus is on the aesthetic quality of the artwork. Judgment is absent as no character or behavior is evaluated."
+  "explanation": "The text primarily expresses aesthetic evaluation of a creative process and outcome, focusing on sensory and visual qualities. 'So beautiful' reflects appreciation of the artwork's appearance, while the detailed description of materials and effects supports appreciation of the process and its value. Affect is present but secondary to the appreciation of the artistic result."
 }</t>
         </is>
       </c>
@@ -2511,7 +2438,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The TARGET expresses a personal, emotional drive ('impulsive curiosity') and values novelty ('always looking for something new'), indicating evaluative judgment of behavior and aesthetic motivation.</t>
+          <t>The TARGET expresses a personal, subjective motivation ('impulsive curiosity') and values experimentation ('looking for something new'), indicating evaluative judgment of behavior and aesthetic pursuit.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2525,22 +2452,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>driven by this kind of impulsive curiosity ||| always looking for something new to add</t>
+          <t>I was driven by this kind of impulsive curiosity ||| always looking for something new to add</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>The TARGET expresses an emotional state of being driven by curiosity, which aligns with Affect (emotional reaction). The phrase 'impulsive curiosity' reflects an internal emotional disposition. No clear evaluation of people (Judgment) or things (Appreciation) is present. The context supports an emotional motivation behind artistic experimentation.</t>
+          <t>The text expresses internal emotional drive and passion through phrases like 'impulsive curiosity' and 'looking for something new,' indicating personal emotional states. No evaluation of people, social norms, or object qualities is present, making affect the primary category.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2548,7 +2475,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses a personal, emotional drive ('impulsive curiosity') and values novelty ('always looking for something new'), indicating evaluative judgment of behavior and aesthetic motivation.",
+  "justification": "The TARGET expresses a personal, subjective motivation ('impulsive curiosity') and values experimentation ('looking for something new'), indicating evaluative judgment of behavior and aesthetic pursuit.",
   "evidence_span": "I was driven by this kind of impulsive curiosity, always looking for something new to add"
 }</t>
         </is>
@@ -2560,14 +2487,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.1,
-  "top_spans": [
-    "driven by this kind of impulsive curiosity",
-    "always looking for something new to add"
-  ],
-  "explanation": "The TARGET expresses an emotional state of being driven by curiosity, which aligns with Affect (emotional reaction). The phrase 'impulsive curiosity' reflects an internal emotional disposition. No clear evaluation of people (Judgment) or things (Appreciation) is present. The context supports an emotional motivation behind artistic experimentation."
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
+  "top_spans": ["I was driven by this kind of impulsive curiosity", "always looking for something new to add"],
+  "explanation": "The text expresses internal emotional drive and passion through phrases like 'impulsive curiosity' and 'looking for something new,' indicating personal emotional states. No evaluation of people, social norms, or object qualities is present, making affect the primary category."
 }</t>
         </is>
       </c>
@@ -2583,7 +2507,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The TARGET describes an unusual and potentially self-harmful action with a tone of experimentation, implying judgment of the behavior as reckless or extreme.</t>
+          <t>The TARGET describes an impulsive, unusual action with a subjective intent to observe the visual outcome, indicating a judgment of the act's novelty and aesthetic appeal.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2593,26 +2517,26 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ambiguous</t>
+          <t>affect</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>I once put all this Vaseline in my head and hair just to see what that would look like</t>
+          <t>I once put all this Vaseline in my head and hair just to see what that would look like.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>The statement expresses a personal, impulsive action (Affect: emotional curiosity, self-expression) and implies a judgment of the behavior as reckless or foolish (Judgment: socially inappropriate, irresponsible). The context of 'Don't do that' reinforces the evaluative tone. Appreciation is not relevant as no object or outcome is evaluated for quality or value.</t>
+          <t>The statement expresses personal, impulsive behavior driven by curiosity and sensory exploration, reflecting internal emotional states. No evaluation of social norms or object value is present, making affect the primary category.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2620,7 +2544,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET describes an unusual and potentially self-harmful action with a tone of experimentation, implying judgment of the behavior as reckless or extreme.",
+  "justification": "The TARGET describes an impulsive, unusual action with a subjective intent to observe the visual outcome, indicating a judgment of the act's novelty and aesthetic appeal.",
   "evidence_span": "I once put all this Vaseline in my head and hair just to see what that would look like."
 }</t>
         </is>
@@ -2628,17 +2552,17 @@
       <c r="L38" t="inlineStr">
         <is>
           <t>{
-  "label": "ambiguous",
+  "label": "affect",
   "affect": 1,
-  "judgment": 1,
+  "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.6,
-  "probability_judgment": 0.7,
-  "probability_appreciation": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
   "top_spans": [
-    "I once put all this Vaseline in my head and hair just to see what that would look like"
+    "I once put all this Vaseline in my head and hair just to see what that would look like."
   ],
-  "explanation": "The statement expresses a personal, impulsive action (Affect: emotional curiosity, self-expression) and implies a judgment of the behavior as reckless or foolish (Judgment: socially inappropriate, irresponsible). The context of 'Don't do that' reinforces the evaluative tone. Appreciation is not relevant as no object or outcome is evaluated for quality or value."
+  "explanation": "The statement expresses personal, impulsive behavior driven by curiosity and sensory exploration, reflecting internal emotional states. No evaluation of social norms or object value is present, making affect the primary category."
 }</t>
         </is>
       </c>
@@ -2668,22 +2592,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G39" t="n">
         <v>0.9</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Don't do that</t>
+          <t>Don't do that.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>The utterance 'Don't do that' evaluates a behavior as inappropriate or undesirable, aligning with Judgment (social norms). It expresses disapproval of an action, fitting the definition of judgment of behavior. No emotional state (Affect) or evaluation of an object/event (Appreciation) is present. The context supports a normative evaluation.</t>
+          <t>The utterance 'Don't do that' evaluates a behavior as inappropriate according to social norms, indicating judgment. No emotional expression or evaluation of quality/value is present, making judgment the primary category.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2703,13 +2627,11 @@
   "affect": 0,
   "judgment": 1,
   "appreciation": 0,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.9,
-  "probability_appreciation": 0.1,
-  "top_spans": [
-    "Don't do that"
-  ],
-  "explanation": "The utterance 'Don't do that' evaluates a behavior as inappropriate or undesirable, aligning with Judgment (social norms). It expresses disapproval of an action, fitting the definition of judgment of behavior. No emotional state (Affect) or evaluation of an object/event (Appreciation) is present. The context supports a normative evaluation."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.90,
+  "probability_appreciation": 0.05,
+  "top_spans": ["Don't do that."],
+  "explanation": "The utterance 'Don't do that' evaluates a behavior as inappropriate according to social norms, indicating judgment. No emotional expression or evaluation of quality/value is present, making judgment the primary category."
 }</t>
         </is>
       </c>
@@ -2742,19 +2664,19 @@
         <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>So it was going well</t>
+          <t>So it was going well.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>The phrase 'So it was going well' evaluates the ongoing situation positively in terms of progress or outcome, aligning with Appreciation—judging the process or event as successful or favorable. No clear emotional state (Affect) or evaluation of character (Judgment) is expressed. The context supports a general assessment of the situation's quality.</t>
+          <t>The phrase evaluates a process or situation as successful or positive in quality, aligning with appreciation of phenomena or outcomes. No emotional expression or social evaluation is present.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2774,13 +2696,11 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "So it was going well"
-  ],
-  "explanation": "The phrase 'So it was going well' evaluates the ongoing situation positively in terms of progress or outcome, aligning with Appreciation—judging the process or event as successful or favorable. No clear emotional state (Affect) or evaluation of character (Judgment) is expressed. The context supports a general assessment of the situation's quality."
+  "probability_affect": 0.10,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.85,
+  "top_spans": ["So it was going well."],
+  "explanation": "The phrase evaluates a process or situation as successful or positive in quality, aligning with appreciation of phenomena or outcomes. No emotional expression or social evaluation is present."
 }</t>
         </is>
       </c>
@@ -2796,7 +2716,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The TARGET text describes a personal experience of navigation without expressing emotion, judgment, or evaluation of quality or value.</t>
+          <t>The TARGET text is descriptive and neutral, stating a personal experience of navigation without expressing emotion, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2811,7 +2731,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET text describes a personal experience of navigation without expressing emotion, judgment, or evaluation of quality or value.",
+  "justification": "The TARGET text is descriptive and neutral, stating a personal experience of navigation without expressing emotion, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -2843,22 +2763,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H42" t="n">
         <v>0.05</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>eager ||| motivated ||| surrounded by artists</t>
+          <t>I was eager and motivated ||| surrounded by artists ||| always going to openings and events</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>The TARGET expresses emotional states (eager, motivated) reflecting internal feelings and enthusiasm. 'Surrounded by artists' suggests a context that reinforces positive emotional engagement. These are clear indicators of Affect, as defined by emotional reactions and dispositions. No evaluation of character (Judgment) or objects/events (Appreciation) is present.</t>
+          <t>The text expresses personal emotional states ('eager and motivated') and positive feelings tied to social engagement. These reflect internal emotional experiences, aligning with 'affect' as the primary category.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2878,15 +2798,15 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
   "top_spans": [
-    "eager",
-    "motivated",
-    "surrounded by artists"
+    "I was eager and motivated",
+    "surrounded by artists",
+    "always going to openings and events"
   ],
-  "explanation": "The TARGET expresses emotional states (eager, motivated) reflecting internal feelings and enthusiasm. 'Surrounded by artists' suggests a context that reinforces positive emotional engagement. These are clear indicators of Affect, as defined by emotional reactions and dispositions. No evaluation of character (Judgment) or objects/events (Appreciation) is present."
+  "explanation": "The text expresses personal emotional states ('eager and motivated') and positive feelings tied to social engagement. These reflect internal emotional experiences, aligning with 'affect' as the primary category."
 }</t>
         </is>
       </c>
@@ -2898,31 +2818,67 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>The TARGET describes factual circumstances—success, recognition, and a living arrangement—without expressing emotion, judgment, or value evaluation.</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+          <t>The phrase 'some success and recognition' expresses a positive evaluation of personal achievement, indicating a value judgment about the speaker's situation.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>I was having some success and recognition</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>I was having some success and recognition ||| moved into an apartment with more than four outlets</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>The text evaluates circumstances and conditions (success, recognition, apartment features) in terms of value and quality, aligning with appreciation. No emotional expression or moral evaluation of people is present.</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>{
-  "binary": 0,
-  "label": "no_eval",
-  "justification": "The TARGET describes factual circumstances—success, recognition, and a living arrangement—without expressing emotion, judgment, or value evaluation.",
-  "evidence_span": ""
-}</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+  "binary": 1,
+  "label": "eval",
+  "justification": "The phrase 'some success and recognition' expresses a positive evaluation of personal achievement, indicating a value judgment about the speaker's situation.",
+  "evidence_span": "I was having some success and recognition"
+}</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>{
+  "label": "appreciation",
+  "affect": 0,
+  "judgment": 0,
+  "appreciation": 1,
+  "probability_affect": 0.10,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.85,
+  "top_spans": ["I was having some success and recognition", "moved into an apartment with more than four outlets"],
+  "explanation": "The text evaluates circumstances and conditions (success, recognition, apartment features) in terms of value and quality, aligning with appreciation. No emotional expression or moral evaluation of people is present."
+}</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2935,7 +2891,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>The TARGET expresses a positive emotional and relational experience, indicating mutual inspiration and connection, which reflects evaluative content regarding the quality of the interaction.</t>
+          <t>The TARGET expresses a positive emotional and relational experience, indicating mutual inspiration and meaningful interaction, which reflects evaluative content regarding the quality of the relationship and emotional exchange.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2949,22 +2905,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H44" t="n">
         <v>0.05</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>stay up very late talking ||| inspiring each other</t>
+          <t>My mom and I would stay up very late talking about our latest ideas and inspiring each other.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>The TARGET expresses emotional connection and positive feelings through shared late-night conversations and mutual inspiration. This aligns with Affect, as it reflects emotional states and interpersonal warmth. No clear evaluation of character (Judgment) or objects/events (Appreciation) is present. The context supports emotional closeness, not assessment.</t>
+          <t>The statement expresses emotional connection and shared enthusiasm, reflecting personal feelings and relational warmth. This aligns with 'affect' as the primary category, as it conveys emotional states through intimate, affective interaction.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2972,7 +2928,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses a positive emotional and relational experience, indicating mutual inspiration and connection, which reflects evaluative content regarding the quality of the interaction.",
+  "justification": "The TARGET expresses a positive emotional and relational experience, indicating mutual inspiration and meaningful interaction, which reflects evaluative content regarding the quality of the relationship and emotional exchange.",
   "evidence_span": "My mom and I would stay up very late talking about our latest ideas and inspiring each other."
 }</t>
         </is>
@@ -2984,14 +2940,13 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
   "top_spans": [
-    "stay up very late talking",
-    "inspiring each other"
+    "My mom and I would stay up very late talking about our latest ideas and inspiring each other."
   ],
-  "explanation": "The TARGET expresses emotional connection and positive feelings through shared late-night conversations and mutual inspiration. This aligns with Affect, as it reflects emotional states and interpersonal warmth. No clear evaluation of character (Judgment) or objects/events (Appreciation) is present. The context supports emotional closeness, not assessment."
+  "explanation": "The statement expresses emotional connection and shared enthusiasm, reflecting personal feelings and relational warmth. This aligns with 'affect' as the primary category, as it conveys emotional states through intimate, affective interaction."
 }</t>
         </is>
       </c>
@@ -3007,12 +2962,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>The statement 'She made beautiful pottery' contains an aesthetic evaluation of the pottery, expressing a positive quality judgment.</t>
+          <t>The statement expresses an aesthetic evaluation of the pottery, describing it as 'beautiful', which reflects a value judgment on the quality of the object.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>beautiful pottery</t>
+          <t>She made beautiful pottery.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3021,22 +2976,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>She made beautiful pottery</t>
+          <t>She made beautiful pottery.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>The sentence evaluates the quality and aesthetic value of the pottery, aligning with Appreciation. 'Beautiful' is a clear evaluative term for an artifact, indicating positive valuation of the object's design and craftsmanship. No emotional reaction (Affect) or character judgment (Judgment) is expressed.</t>
+          <t>The phrase evaluates the quality and value of the pottery, focusing on its aesthetic merit. This aligns with appreciation, which concerns evaluations of things, processes, or phenomena based on quality or value.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3044,8 +2999,8 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement 'She made beautiful pottery' contains an aesthetic evaluation of the pottery, expressing a positive quality judgment.",
-  "evidence_span": "beautiful pottery"
+  "justification": "The statement expresses an aesthetic evaluation of the pottery, describing it as 'beautiful', which reflects a value judgment on the quality of the object.",
+  "evidence_span": "She made beautiful pottery."
 }</t>
         </is>
       </c>
@@ -3056,13 +3011,11 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "She made beautiful pottery"
-  ],
-  "explanation": "The sentence evaluates the quality and aesthetic value of the pottery, aligning with Appreciation. 'Beautiful' is a clear evaluative term for an artifact, indicating positive valuation of the object's design and craftsmanship. No emotional reaction (Affect) or character judgment (Judgment) is expressed."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["She made beautiful pottery."],
+  "explanation": "The phrase evaluates the quality and value of the pottery, focusing on its aesthetic merit. This aligns with appreciation, which concerns evaluations of things, processes, or phenomena based on quality or value."
 }</t>
         </is>
       </c>
@@ -3078,7 +3031,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The TARGET describes a personal anecdote about a painting and its title without expressing emotion, judgment, or evaluation of quality, behavior, or value.</t>
+          <t>The TARGET describes a personal anecdote about a painting and its title without expressing emotion, judgment, or evaluation of the artwork's quality or the person's behavior.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -3093,7 +3046,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET describes a personal anecdote about a painting and its title without expressing emotion, judgment, or evaluation of quality, behavior, or value.",
+  "justification": "The TARGET describes a personal anecdote about a painting and its title without expressing emotion, judgment, or evaluation of the artwork's quality or the person's behavior.",
   "evidence_span": ""
 }</t>
         </is>
@@ -3111,7 +3064,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>The statement expresses a subjective interpretation of a life stage, evaluating the transition from childhood to adulthood in emotional and existential terms.</t>
+          <t>The statement expresses a subjective interpretation of adulthood and emotional maturity, evaluating the transitional phase between childhood and full responsibility.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3125,22 +3078,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>you're no longer a child, but you're not yet weighed down by the responsibilities of life</t>
+          <t>you're no longer a child, but you're not yet weighed down by the responsibilities of life ||| That was it. It was the light years.</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>The TARGET evaluates the concept of 'the light years' as a meaningful, nuanced stage of life. This reflects an appreciation of a life phase in terms of its emotional and existential value, fitting the Appreciation category. No clear affective or judgmental evaluation of people or behavior is present.</t>
+          <t>The passage evaluates a conceptual phase of life (adulthood transition) in terms of its quality and significance, reflecting a value-laden assessment of a life stage. This aligns with appreciation, as it judges the nature and worth of a phenomenon, not emotions or social conduct.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3148,7 +3101,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement expresses a subjective interpretation of a life stage, evaluating the transition from childhood to adulthood in emotional and existential terms.",
+  "justification": "The statement expresses a subjective interpretation of adulthood and emotional maturity, evaluating the transitional phase between childhood and full responsibility.",
   "evidence_span": "\"Well, that's when you've stepped into adulthood, you're no longer a child, but you're not yet weighed down by the responsibilities of life.\""
 }</t>
         </is>
@@ -3160,13 +3113,14 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
   "top_spans": [
-    "you're no longer a child, but you're not yet weighed down by the responsibilities of life"
+    "you're no longer a child, but you're not yet weighed down by the responsibilities of life",
+    "That was it. It was the light years."
   ],
-  "explanation": "The TARGET evaluates the concept of 'the light years' as a meaningful, nuanced stage of life. This reflects an appreciation of a life phase in terms of its emotional and existential value, fitting the Appreciation category. No clear affective or judgmental evaluation of people or behavior is present."
+  "explanation": "The passage evaluates a conceptual phase of life (adulthood transition) in terms of its quality and significance, reflecting a value-laden assessment of a life stage. This aligns with appreciation, as it judges the nature and worth of a phenomenon, not emotions or social conduct."
 }</t>
         </is>
       </c>
@@ -3182,7 +3136,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The phrase 'light years' is used metaphorically to convey a significant emotional or developmental distance, implying a judgment or evaluation of a life stage or experience.</t>
+          <t>The phrase 'light years' is used metaphorically to express a significant emotional or developmental distance, implying a judgment of personal growth or emotional state.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3196,22 +3150,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>the light years</t>
+          <t>That was it. It was the light years. ||| the light years came to an end.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>The phrase 'the light years' functions as a metaphorical evaluation of a significant life transition, expressing its vastness and importance. It evaluates the period or state as profound and meaningful, aligning with Appreciation (valuation of a life stage). No clear emotional reaction (Affect) or moral judgment of behavior (Judgment) is present.</t>
+          <t>The phrase 'light years' is used metaphorically to convey a vast difference or distance, evaluating the quality and significance of a transition. The expression reflects a qualitative assessment of a life stage, fitting appreciation as the primary category.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3219,7 +3173,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The phrase 'light years' is used metaphorically to convey a significant emotional or developmental distance, implying a judgment or evaluation of a life stage or experience.",
+  "justification": "The phrase 'light years' is used metaphorically to express a significant emotional or developmental distance, implying a judgment of personal growth or emotional state.",
   "evidence_span": "That was it. It was the light years."
 }</t>
         </is>
@@ -3231,13 +3185,11 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "the light years"
-  ],
-  "explanation": "The phrase 'the light years' functions as a metaphorical evaluation of a significant life transition, expressing its vastness and importance. It evaluates the period or state as profound and meaningful, aligning with Appreciation (valuation of a life stage). No clear emotional reaction (Affect) or moral judgment of behavior (Judgment) is present."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["That was it. It was the light years.", "the light years came to an end."],
+  "explanation": "The phrase 'light years' is used metaphorically to convey a vast difference or distance, evaluating the quality and significance of a transition. The expression reflects a qualitative assessment of a life stage, fitting appreciation as the primary category."
 }</t>
         </is>
       </c>
@@ -3253,7 +3205,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>The phrase 'light years came to an end' metaphorically conveys emotional weight and significance, suggesting a profound personal or emotional conclusion, indicating evaluative content.</t>
+          <t>The phrase 'light years came to an end' metaphorically conveys emotional significance, suggesting a profound personal or emotional conclusion, indicating evaluative weight.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3267,13 +3219,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3282,7 +3234,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>The phrase 'the light years came to an end' evaluates a temporal or emotional state as concluding, suggesting a significant, impactful event. It reflects a judgment on the duration or significance of a period, fitting Appreciation (evaluation of a phenomenon's value or impact). No clear emotional reaction (Affect) or moral evaluation of behavior (Judgment) is present.</t>
+          <t>The phrase evaluates a temporal or existential phenomenon (light years) as having concluded, reflecting a judgment on its duration or significance. This aligns with appreciation, which assesses phenomena, processes, or qualities, not emotions or social behavior.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3290,7 +3242,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The phrase 'light years came to an end' metaphorically conveys emotional weight and significance, suggesting a profound personal or emotional conclusion, indicating evaluative content.",
+  "justification": "The phrase 'light years came to an end' metaphorically conveys emotional significance, suggesting a profound personal or emotional conclusion, indicating evaluative weight.",
   "evidence_span": "the light years came to an end"
 }</t>
         </is>
@@ -3302,13 +3254,11 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "the light years came to an end"
-  ],
-  "explanation": "The phrase 'the light years came to an end' evaluates a temporal or emotional state as concluding, suggesting a significant, impactful event. It reflects a judgment on the duration or significance of a period, fitting Appreciation (evaluation of a phenomenon's value or impact). No clear emotional reaction (Affect) or moral evaluation of behavior (Judgment) is present."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["the light years came to an end"],
+  "explanation": "The phrase evaluates a temporal or existential phenomenon (light years) as having concluded, reflecting a judgment on its duration or significance. This aligns with appreciation, which assesses phenomena, processes, or qualities, not emotions or social behavior."
 }</t>
         </is>
       </c>
@@ -3324,7 +3274,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>The statement expresses a significant personal health crisis, conveying emotional weight and implying a negative evaluation of the situation, though not explicitly judgmental.</t>
+          <t>The statement expresses a personal, emotionally charged health diagnosis, conveying distress and significance, which constitutes an evaluative stance.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3338,22 +3288,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H50" t="n">
         <v>0.05</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>My mom was diagnosed with lung cancer</t>
+          <t>My mom was diagnosed with lung cancer.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>The sentence expresses a personal emotional reaction to a significant health event involving a close family member. It aligns with Affect as it conveys a deep emotional state tied to the speaker's relationship with their mother, consistent with the definition of emotional reactions to events. No clear evaluation of character (Judgment) or object quality (Appreciation) is present.</t>
+          <t>The statement expresses personal emotional distress through the diagnosis of a close family member, aligning with affect as the primary category. No evaluation of behavior (judgment) or quality/value (appreciation) is present.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3361,7 +3311,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement expresses a significant personal health crisis, conveying emotional weight and implying a negative evaluation of the situation, though not explicitly judgmental.",
+  "justification": "The statement expresses a personal, emotionally charged health diagnosis, conveying distress and significance, which constitutes an evaluative stance.",
   "evidence_span": "My mom was diagnosed with lung cancer."
 }</t>
         </is>
@@ -3373,13 +3323,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "My mom was diagnosed with lung cancer"
-  ],
-  "explanation": "The sentence expresses a personal emotional reaction to a significant health event involving a close family member. It aligns with Affect as it conveys a deep emotional state tied to the speaker's relationship with their mother, consistent with the definition of emotional reactions to events. No clear evaluation of character (Judgment) or object quality (Appreciation) is present."
+  "top_spans": ["My mom was diagnosed with lung cancer."],
+  "explanation": "The statement expresses personal emotional distress through the diagnosis of a close family member, aligning with affect as the primary category. No evaluation of behavior (judgment) or quality/value (appreciation) is present."
 }</t>
         </is>
       </c>
@@ -3398,7 +3346,11 @@
           <t>The TARGET text describes medical progression factually, without expressing emotion, judgment, or value evaluation. It states clinical facts about the disease's spread.</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>It had spread to her bones, and it was in her brain.</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -3411,7 +3363,7 @@
   "binary": 0,
   "label": "no_eval",
   "justification": "The TARGET text describes medical progression factually, without expressing emotion, judgment, or value evaluation. It states clinical facts about the disease's spread.",
-  "evidence_span": ""
+  "evidence_span": "It had spread to her bones, and it was in her brain."
 }</t>
         </is>
       </c>
@@ -3428,7 +3380,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>The statement expresses a strong emotional reaction, indicating deep personal distress or shock, which constitutes an evaluative emotional response.</t>
+          <t>The statement expresses a strong emotional reaction, indicating deep personal distress or shock, which constitutes an emotional evaluation.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3445,10 +3397,10 @@
         <v>0.95</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="H52" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3457,7 +3409,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>The TARGET expresses a strong emotional reaction (falling to knees) consistent with Affect, as defined by emotional states and reactions. The context (NEXT) reinforces this with 'I totally lost it,' indicating overwhelming emotion. No evaluation of character (Judgment) or object quality (Appreciation) is present. The response is purely affective.</t>
+          <t>The expressions 'fell to my knees' and 'totally lost it' convey intense emotional reactions, indicating personal feelings or distress. These are clear indicators of affect, as they reflect internal emotional states rather than evaluations of behavior or quality.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3465,7 +3417,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement expresses a strong emotional reaction, indicating deep personal distress or shock, which constitutes an evaluative emotional response.",
+  "justification": "The statement expresses a strong emotional reaction, indicating deep personal distress or shock, which constitutes an emotional evaluation.",
   "evidence_span": "I fell to my knees"
 }</t>
         </is>
@@ -3478,13 +3430,10 @@
   "judgment": 0,
   "appreciation": 0,
   "probability_affect": 0.95,
-  "probability_judgment": 0.10,
-  "probability_appreciation": 0.05,
-  "top_spans": [
-    "I fell to my knees",
-    "I totally lost it"
-  ],
-  "explanation": "The TARGET expresses a strong emotional reaction (falling to knees) consistent with Affect, as defined by emotional states and reactions. The context (NEXT) reinforces this with 'I totally lost it,' indicating overwhelming emotion. No evaluation of character (Judgment) or object quality (Appreciation) is present. The response is purely affective."
+  "probability_judgment": 0.02,
+  "probability_appreciation": 0.03,
+  "top_spans": ["I fell to my knees", "I totally lost it"],
+  "explanation": "The expressions 'fell to my knees' and 'totally lost it' convey intense emotional reactions, indicating personal feelings or distress. These are clear indicators of affect, as they reflect internal emotional states rather than evaluations of behavior or quality."
 }</t>
         </is>
       </c>
@@ -3517,19 +3466,19 @@
         <v>0.95</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="H53" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>I totally lost it</t>
+          <t>I totally lost it.</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>The phrase 'I totally lost it' expresses a strong emotional reaction, aligning with Affect as defined by Appraisal Theory. It conveys an intense, uncontrolled emotional state (e.g., grief, shock), consistent with emotional responses to events. No clear evaluation of character (Judgment) or object quality (Appreciation) is present. The context supports an emotional breakdown, not moral or aesthetic assessment.</t>
+          <t>The phrase 'I totally lost it' expresses a strong emotional reaction, indicating a loss of self-control, which aligns with the definition of affect as expressions of feelings/emotions.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3550,12 +3499,10 @@
   "judgment": 0,
   "appreciation": 0,
   "probability_affect": 0.95,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.05,
-  "top_spans": [
-    "I totally lost it"
-  ],
-  "explanation": "The phrase 'I totally lost it' expresses a strong emotional reaction, aligning with Affect as defined by Appraisal Theory. It conveys an intense, uncontrolled emotional state (e.g., grief, shock), consistent with emotional responses to events. No clear evaluation of character (Judgment) or object quality (Appreciation) is present. The context supports an emotional breakdown, not moral or aesthetic assessment."
+  "probability_judgment": 0.02,
+  "probability_appreciation": 0.03,
+  "top_spans": ["I totally lost it."],
+  "explanation": "The phrase 'I totally lost it' expresses a strong emotional reaction, indicating a loss of self-control, which aligns with the definition of affect as expressions of feelings/emotions."
 }</t>
         </is>
       </c>
@@ -3571,12 +3518,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>The TARGET expresses a personal realization involving emotional self-awareness and a shift in focus from self to another, indicating an evaluative reflection on the situation and interpersonal dynamics.</t>
+          <t>The statement expresses a personal realization involving emotional reflection and a shift in focus from self to another, indicating an evaluative stance on the situation and interpersonal dynamics.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>I realized, this isn't about me.</t>
+          <t>this isn't about me</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3585,22 +3532,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H54" t="n">
         <v>0.05</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>I realized, this isn't about me</t>
+          <t>I totally lost it ||| I realized, this isn't about me</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>The phrase expresses an emotional shift from loss of control to self-reflection, indicating an internal emotional state. 'I realized' signals a personal affective insight, aligning with Affect as it reflects a change in emotional awareness. No clear evaluation of character (Judgment) or object quality (Appreciation) is present.</t>
+          <t>The phrases express internal emotional states—loss of composure and a shift in self-awareness—indicating personal emotional reaction. No evaluation of behavior (judgment) or quality (appreciation) is present. Thus, affect is dominant.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3608,8 +3555,8 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses a personal realization involving emotional self-awareness and a shift in focus from self to another, indicating an evaluative reflection on the situation and interpersonal dynamics.",
-  "evidence_span": "I realized, this isn't about me."
+  "justification": "The statement expresses a personal realization involving emotional reflection and a shift in focus from self to another, indicating an evaluative stance on the situation and interpersonal dynamics.",
+  "evidence_span": "this isn't about me"
 }</t>
         </is>
       </c>
@@ -3620,13 +3567,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "I realized, this isn't about me"
-  ],
-  "explanation": "The phrase expresses an emotional shift from loss of control to self-reflection, indicating an internal emotional state. 'I realized' signals a personal affective insight, aligning with Affect as it reflects a change in emotional awareness. No clear evaluation of character (Judgment) or object quality (Appreciation) is present."
+  "top_spans": ["I totally lost it", "I realized, this isn't about me"],
+  "explanation": "The phrases express internal emotional states—loss of composure and a shift in self-awareness—indicating personal emotional reaction. No evaluation of behavior (judgment) or quality (appreciation) is present. Thus, affect is dominant."
 }</t>
         </is>
       </c>
@@ -3675,12 +3620,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>The phrase 'did a beautiful job' expresses a positive evaluation of the father's performance, indicating an aesthetic and value judgment of his actions.</t>
+          <t>The phrase 'beautiful job' expresses a positive evaluation of the father's performance, indicating a value judgment on his care.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>did a beautiful job</t>
+          <t>he did a beautiful job taking care of her</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3689,22 +3634,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>he did a beautiful job taking care of her</t>
+          <t>we had a great advantage having him in charge ||| he did a beautiful job taking care of her</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>The phrase 'did a beautiful job' evaluates the quality and effectiveness of the father's care, aligning with Appreciation—judging the performance or action as excellent. No clear emotional state (Affect) or character evaluation (Judgment) is expressed. The focus is on the value and quality of the care provided.</t>
+          <t>The text evaluates the quality and value of a situation and action (advantage, beautiful job), focusing on the worth and effectiveness of the father's care. This aligns with appreciation, which assesses phenomena and processes based on quality and value.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3712,8 +3657,8 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The phrase 'did a beautiful job' expresses a positive evaluation of the father's performance, indicating an aesthetic and value judgment of his actions.",
-  "evidence_span": "did a beautiful job"
+  "justification": "The phrase 'beautiful job' expresses a positive evaluation of the father's performance, indicating a value judgment on his care.",
+  "evidence_span": "he did a beautiful job taking care of her"
 }</t>
         </is>
       </c>
@@ -3724,13 +3669,14 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
   "top_spans": [
+    "we had a great advantage having him in charge",
     "he did a beautiful job taking care of her"
   ],
-  "explanation": "The phrase 'did a beautiful job' evaluates the quality and effectiveness of the father's care, aligning with Appreciation—judging the performance or action as excellent. No clear emotional state (Affect) or character evaluation (Judgment) is expressed. The focus is on the value and quality of the care provided."
+  "explanation": "The text evaluates the quality and value of a situation and action (advantage, beautiful job), focusing on the worth and effectiveness of the father's care. This aligns with appreciation, which assesses phenomena and processes based on quality and value."
 }</t>
         </is>
       </c>
@@ -3746,7 +3692,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>The statement expresses a personal desire to contribute and do one's best, indicating a value judgment about effort and responsibility in a challenging situation.</t>
+          <t>The statement expresses a personal desire to contribute and do everything possible, indicating a value-laden intention and emotional investment in helping.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3760,10 +3706,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H57" t="n">
         <v>0.05</v>
@@ -3775,7 +3721,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>The TARGET expresses a personal emotional drive and inner motivation to assist, reflecting a desire to contribute. This aligns with Affect, as it conveys an emotional state (willingness, empathy) rather than judgment of character or evaluation of an object/event. The focus is on internal feeling and intent, not social norms or quality assessment.</t>
+          <t>The expressions convey personal emotional motivation and desire to contribute, reflecting inner feelings and concern. No evaluation of behavior, people, or things is present, making affect the primary category.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3783,7 +3729,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement expresses a personal desire to contribute and do one's best, indicating a value judgment about effort and responsibility in a challenging situation.",
+  "justification": "The statement expresses a personal desire to contribute and do everything possible, indicating a value-laden intention and emotional investment in helping.",
   "evidence_span": "I wanted to try everything"
 }</t>
         </is>
@@ -3795,14 +3741,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "I, too, wanted to do everything I could to help",
-    "so I wanted to try everything"
-  ],
-  "explanation": "The TARGET expresses a personal emotional drive and inner motivation to assist, reflecting a desire to contribute. This aligns with Affect, as it conveys an emotional state (willingness, empathy) rather than judgment of character or evaluation of an object/event. The focus is on internal feeling and intent, not social norms or quality assessment."
+  "top_spans": ["I, too, wanted to do everything I could to help", "so I wanted to try everything"],
+  "explanation": "The expressions convey personal emotional motivation and desire to contribute, reflecting inner feelings and concern. No evaluation of behavior, people, or things is present, making affect the primary category."
 }</t>
         </is>
       </c>
@@ -3851,7 +3794,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>The TARGET lists activities without expressing emotion, judgment, or evaluation of quality or value.</t>
+          <t>The TARGET text lists activities without expressing emotion, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -3866,7 +3809,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET lists activities without expressing emotion, judgment, or evaluation of quality or value.",
+  "justification": "The TARGET text lists activities without expressing emotion, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -3884,7 +3827,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>The TARGET is a neutral quotation expressing a question about someone's desire. It does not express emotion, judgment, or evaluation of quality or value.</t>
+          <t>The TARGET is a neutral quotation expressing a question about someone's desire or intention, with no emotional stance, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -3899,7 +3842,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET is a neutral quotation expressing a question about someone's desire. It does not express emotion, judgment, or evaluation of quality or value.",
+  "justification": "The TARGET is a neutral quotation expressing a question about someone's desire or intention, with no emotional stance, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -3964,13 +3907,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G62" t="n">
         <v>0.9</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3979,7 +3922,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>The phrase 'Pace yourself' evaluates behavior in relation to social norms, suggesting a judgment about appropriate conduct (e.g., restraint, self-control). It implies a moral or practical assessment of someone's actions, fitting Judgment. No emotional state or evaluation of things/events is present, ruling out Affect and Appreciation.</t>
+          <t>The phrase 'Pace yourself' evaluates behavior in terms of social norms (self-control, moderation), indicating judgment. It does not express emotion or assess quality/value directly, ruling out affect and appreciation.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3999,13 +3942,11 @@
   "affect": 0,
   "judgment": 1,
   "appreciation": 0,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.9,
-  "probability_appreciation": 0.1,
-  "top_spans": [
-    "Pace yourself"
-  ],
-  "explanation": "The phrase 'Pace yourself' evaluates behavior in relation to social norms, suggesting a judgment about appropriate conduct (e.g., restraint, self-control). It implies a moral or practical assessment of someone's actions, fitting Judgment. No emotional state or evaluation of things/events is present, ruling out Affect and Appreciation."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.90,
+  "probability_appreciation": 0.05,
+  "top_spans": ["Pace yourself"],
+  "explanation": "The phrase 'Pace yourself' evaluates behavior in terms of social norms (self-control, moderation), indicating judgment. It does not express emotion or assess quality/value directly, ruling out affect and appreciation."
 }</t>
         </is>
       </c>
@@ -4021,7 +3962,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>The statement expresses a personal need and emotional reliance, indicating a value judgment about future dependency and emotional significance.</t>
+          <t>The statement expresses a personal need and emotional reliance, indicating a value judgment about future dependency and interpersonal connection.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4035,22 +3976,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H63" t="n">
         <v>0.05</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>I'm going to need you later</t>
+          <t>I'm going to need you later.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>The statement expresses an emotional dependency and personal vulnerability, reflecting inner feelings of reliance and emotional need. It aligns with Affect as it conveys a subjective emotional state (need for support) rather than evaluating behavior (Judgment) or an object/event (Appreciation). Context suggests emotional intimacy, reinforcing affective meaning.</t>
+          <t>The statement expresses a personal emotional dependency and vulnerability, indicating inner feelings about future reliance on someone. This aligns with affect as the primary category, reflecting emotional state rather than evaluation of behavior or quality.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4058,7 +3999,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement expresses a personal need and emotional reliance, indicating a value judgment about future dependency and emotional significance.",
+  "justification": "The statement expresses a personal need and emotional reliance, indicating a value judgment about future dependency and interpersonal connection.",
   "evidence_span": "I'm going to need you later."
 }</t>
         </is>
@@ -4070,13 +4011,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "I'm going to need you later"
-  ],
-  "explanation": "The statement expresses an emotional dependency and personal vulnerability, reflecting inner feelings of reliance and emotional need. It aligns with Affect as it conveys a subjective emotional state (need for support) rather than evaluating behavior (Judgment) or an object/event (Appreciation). Context suggests emotional intimacy, reinforcing affective meaning."
+  "top_spans": ["I'm going to need you later."],
+  "explanation": "The statement expresses a personal emotional dependency and vulnerability, indicating inner feelings about future reliance on someone. This aligns with affect as the primary category, reflecting emotional state rather than evaluation of behavior or quality."
 }</t>
         </is>
       </c>
@@ -4092,7 +4031,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>The TARGET expresses a personal, subjective desire about how she wants to face a situation, indicating a value judgment and emotional stance.</t>
+          <t>The TARGET expresses a personal value judgment about how the speaker wants to face a situation, indicating a subjective evaluation of her own choices and desires.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4106,10 +4045,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H64" t="n">
         <v>0.05</v>
@@ -4121,7 +4060,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>The TARGET expresses an internal emotional state and personal resolve, reflecting the speaker's feelings about her own experience. The focus is on her awareness and inner desire, aligning with Affect as defined by emotional reactions and personal dispositions. No clear evaluation of character (Judgment) or object quality (Appreciation) is present.</t>
+          <t>The text expresses internal emotional awareness and personal emotional stance toward a difficult experience. The focus is on her inner feelings and desires, aligning with affect as the primary category.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4129,7 +4068,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses a personal, subjective desire about how she wants to face a situation, indicating a value judgment and emotional stance.",
+  "justification": "The TARGET expresses a personal value judgment about how the speaker wants to face a situation, indicating a subjective evaluation of her own choices and desires.",
   "evidence_span": "how she wanted to go through this"
 }</t>
         </is>
@@ -4141,14 +4080,14 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
   "top_spans": [
     "She knew what was happening",
     "how she wanted to go through this"
   ],
-  "explanation": "The TARGET expresses an internal emotional state and personal resolve, reflecting the speaker's feelings about her own experience. The focus is on her awareness and inner desire, aligning with Affect as defined by emotional reactions and personal dispositions. No clear evaluation of character (Judgment) or object quality (Appreciation) is present."
+  "explanation": "The text expresses internal emotional awareness and personal emotional stance toward a difficult experience. The focus is on her inner feelings and desires, aligning with affect as the primary category."
 }</t>
         </is>
       </c>
@@ -4197,7 +4136,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>The statement expresses a personal realization involving emotional significance and value judgment about the consequences of action versus inaction.</t>
+          <t>The statement expresses a personal emotional realization about missing something valuable, indicating an evaluative stance on the significance of the relationship or experience.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4211,22 +4150,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H66" t="n">
         <v>0.05</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>I realized that ||| I would miss it</t>
+          <t>I realized that if I tried to fix it, I would miss it.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>The TARGET expresses an emotional realization about potential loss, aligning with Affect (emotional reaction to a situation). The phrase 'I would miss it' conveys a personal, affective response to the prospect of change or absence, consistent with emotional states. No clear evaluation of character (Judgment) or object quality (Appreciation) is present.</t>
+          <t>The statement expresses a personal emotional insight about loss and presence, reflecting internal feelings about connection and absence. This aligns with affect as the primary category, as it centers on emotional experience rather than evaluation of behavior or quality.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4234,7 +4173,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement expresses a personal realization involving emotional significance and value judgment about the consequences of action versus inaction.",
+  "justification": "The statement expresses a personal emotional realization about missing something valuable, indicating an evaluative stance on the significance of the relationship or experience.",
   "evidence_span": "I realized that if I tried to fix it, I would miss it."
 }</t>
         </is>
@@ -4246,14 +4185,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "I realized that",
-    "I would miss it"
-  ],
-  "explanation": "The TARGET expresses an emotional realization about potential loss, aligning with Affect (emotional reaction to a situation). The phrase 'I would miss it' conveys a personal, affective response to the prospect of change or absence, consistent with emotional states. No clear evaluation of character (Judgment) or object quality (Appreciation) is present."
+  "top_spans": ["I realized that if I tried to fix it, I would miss it."],
+  "explanation": "The statement expresses a personal emotional insight about loss and presence, reflecting internal feelings about connection and absence. This aligns with affect as the primary category, as it centers on emotional experience rather than evaluation of behavior or quality."
 }</t>
         </is>
       </c>
@@ -4269,7 +4205,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>The TARGET expresses a personal, value-laden choice to be present and listen, indicating emotional engagement and moral judgment about prior resistance, thus conveying evaluative content.</t>
+          <t>The TARGET expresses a personal, emotionally charged decision to be present and listen, indicating a value judgment about emotional engagement and acceptance.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4283,22 +4219,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H67" t="n">
         <v>0.05</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>just really listen to her ||| whatever that meant ||| whatever situation came up</t>
+          <t>just really listen to her ||| surrendering, giving up trying to control the uncontrollable ||| just being there in it with her</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>The TARGET expresses an emotional stance of openness and presence, reflecting inner feelings and a shift in emotional response. Phrases like 'just really listen to her' indicate a personal, affective engagement. While there is a behavioral choice, it is framed as an emotional response to the relationship, aligning with Affect (emotional states/reactions) rather than judgment of character or appreciation of an object/event.</t>
+          <t>The text expresses emotional states such as surrender and presence, reflecting inner feelings and emotional engagement. The focus is on personal emotional response and inner experience, aligning with affect as the primary category.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4306,7 +4242,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses a personal, value-laden choice to be present and listen, indicating emotional engagement and moral judgment about prior resistance, thus conveying evaluative content.",
+  "justification": "The TARGET expresses a personal, emotionally charged decision to be present and listen, indicating a value judgment about emotional engagement and acceptance.",
   "evidence_span": "just really listen to her"
 }</t>
         </is>
@@ -4318,15 +4254,15 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
   "top_spans": [
     "just really listen to her",
-    "whatever that meant",
-    "whatever situation came up"
+    "surrendering, giving up trying to control the uncontrollable",
+    "just being there in it with her"
   ],
-  "explanation": "The TARGET expresses an emotional stance of openness and presence, reflecting inner feelings and a shift in emotional response. Phrases like 'just really listen to her' indicate a personal, affective engagement. While there is a behavioral choice, it is framed as an emotional response to the relationship, aligning with Affect (emotional states/reactions) rather than judgment of character or appreciation of an object/event."
+  "explanation": "The text expresses emotional states such as surrender and presence, reflecting inner feelings and emotional engagement. The focus is on personal emotional response and inner experience, aligning with affect as the primary category."
 }</t>
         </is>
       </c>
@@ -4342,7 +4278,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>The TARGET expresses a personal emotional shift and judgment of self-behavior, indicating surrender and acceptance, which reflects an internal evaluation of emotional state and conduct.</t>
+          <t>The TARGET expresses a personal emotional and psychological shift, indicating surrender and acceptance, which reflects an internal evaluation of one's state and behavior.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4356,22 +4292,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H68" t="n">
         <v>0.05</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>surrendering ||| giving up trying to control the uncontrollable ||| just being there in it with her</t>
+          <t>now I was surrendering ||| giving up trying to control the uncontrollable ||| just being there in it with her</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>The TARGET expresses emotional states of release and emotional presence. 'Surrendering' and 'giving up trying to control' reflect internal emotional shifts, aligning with Affect as it captures a personal emotional reaction to the situation. The focus is on inner experience rather than evaluating character (Judgment) or objects/events (Appreciation).</t>
+          <t>The text expresses internal emotional states—surrender, release from control, presence—indicating a shift in personal feeling. These reflect subjective emotional experience, aligning with 'affect' as the primary category.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4379,7 +4315,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses a personal emotional shift and judgment of self-behavior, indicating surrender and acceptance, which reflects an internal evaluation of emotional state and conduct.",
+  "justification": "The TARGET expresses a personal emotional and psychological shift, indicating surrender and acceptance, which reflects an internal evaluation of one's state and behavior.",
   "evidence_span": "then now I was surrendering, giving up trying to control the uncontrollable and just being there in it with her"
 }</t>
         </is>
@@ -4391,15 +4327,15 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
   "top_spans": [
-    "surrendering",
+    "now I was surrendering",
     "giving up trying to control the uncontrollable",
     "just being there in it with her"
   ],
-  "explanation": "The TARGET expresses emotional states of release and emotional presence. 'Surrendering' and 'giving up trying to control' reflect internal emotional shifts, aligning with Affect as it captures a personal emotional reaction to the situation. The focus is on inner experience rather than evaluating character (Judgment) or objects/events (Appreciation)."
+  "explanation": "The text expresses internal emotional states—surrender, release from control, presence—indicating a shift in personal feeling. These reflect subjective emotional experience, aligning with 'affect' as the primary category."
 }</t>
         </is>
       </c>
@@ -4415,7 +4351,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>The sentence states a temporal perception and dismisses the relevance of a date, but contains no emotional expression, judgment, or value evaluation.</t>
+          <t>The sentence states a temporal observation and a neutral fact about the date, with no emotional stance, judgment, or value evaluation.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4430,7 +4366,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The sentence states a temporal perception and dismisses the relevance of a date, but contains no emotional expression, judgment, or value evaluation.",
+  "justification": "The sentence states a temporal observation and a neutral fact about the date, with no emotional stance, judgment, or value evaluation.",
   "evidence_span": ""
 }</t>
         </is>
@@ -4448,7 +4384,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>The sentence describes a habitual action without expressing emotion, judgment, or value evaluation. It is a neutral statement of routine.</t>
+          <t>The sentence describes a habitual action without expressing emotion, judgment, or value evaluation. It is a neutral, factual statement about developing a routine.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -4463,7 +4399,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The sentence describes a habitual action without expressing emotion, judgment, or value evaluation. It is a neutral statement of routine.",
+  "justification": "The sentence describes a habitual action without expressing emotion, judgment, or value evaluation. It is a neutral, factual statement about developing a routine.",
   "evidence_span": ""
 }</t>
         </is>
@@ -4528,10 +4464,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H72" t="n">
         <v>0.05</v>
@@ -4543,7 +4479,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>The phrase 'so glad' expresses a clear emotional reaction (Affect), indicating positive feelings toward the brother's arrival. No evaluation of character (Judgment) or object quality (Appreciation) is present. The emotional state is central to the evaluative meaning, aligning with Appraisal Theory's definition of Affect as emotional response.</t>
+          <t>The phrase 'so glad' expresses a clear emotional response, indicating positive affect. No evaluation of behavior (judgment) or quality/value (appreciation) is present. Affect is the dominant category.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4563,13 +4499,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "we'd be so glad to hear his car coming up the driveway"
-  ],
-  "explanation": "The phrase 'so glad' expresses a clear emotional reaction (Affect), indicating positive feelings toward the brother's arrival. No evaluation of character (Judgment) or object quality (Appreciation) is present. The emotional state is central to the evaluative meaning, aligning with Appraisal Theory's definition of Affect as emotional response."
+  "top_spans": ["we'd be so glad to hear his car coming up the driveway"],
+  "explanation": "The phrase 'so glad' expresses a clear emotional response, indicating positive affect. No evaluation of behavior (judgment) or quality/value (appreciation) is present. Affect is the dominant category."
 }</t>
         </is>
       </c>
@@ -4585,7 +4519,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>The TARGET describes a physical action of assisting someone without expressing emotion, judgment, or evaluation of quality or value.</t>
+          <t>The TARGET describes a physical action of assisting someone without expressing emotion, judgment, or value evaluation. It is purely descriptive and neutral.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -4600,7 +4534,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET describes a physical action of assisting someone without expressing emotion, judgment, or evaluation of quality or value.",
+  "justification": "The TARGET describes a physical action of assisting someone without expressing emotion, judgment, or value evaluation. It is purely descriptive and neutral.",
   "evidence_span": ""
 }</t>
         </is>
@@ -4632,22 +4566,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G74" t="n">
         <v>0.1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>she loved to drink her coffee out of ||| she loved Irish soda bread for breakfast</t>
+          <t>she loved to drink her coffee out of ||| she loved Irish soda bread for breakfast ||| she loved this part</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>The TARGET evaluates objects (mug, bread) and routines through the speaker's emotional attachment, expressing positive reactions to specific items and practices. This aligns with Appreciation, as it assesses the value and appeal of things and experiences, not people's character (Judgment) or emotions per se (Affect).</t>
+          <t>The text expresses positive emotional attachment to objects and routines, indicating appreciation for qualities and experiences. While affect is present, the focus is on valuing specific items and activities, making appreciation the primary category.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4664,17 +4598,18 @@
         <is>
           <t>{
   "label": "appreciation",
-  "affect": 0,
+  "affect": 1,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
+  "probability_affect": 0.20,
+  "probability_judgment": 0.10,
+  "probability_appreciation": 0.70,
   "top_spans": [
     "she loved to drink her coffee out of",
-    "she loved Irish soda bread for breakfast"
+    "she loved Irish soda bread for breakfast",
+    "she loved this part"
   ],
-  "explanation": "The TARGET evaluates objects (mug, bread) and routines through the speaker's emotional attachment, expressing positive reactions to specific items and practices. This aligns with Appreciation, as it assesses the value and appeal of things and experiences, not people's character (Judgment) or emotions per se (Affect)."
+  "explanation": "The text expresses positive emotional attachment to objects and routines, indicating appreciation for qualities and experiences. While affect is present, the focus is on valuing specific items and activities, making appreciation the primary category."
 }</t>
         </is>
       </c>
@@ -4690,7 +4625,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>The phrase 'she loved this part' expresses a positive emotional evaluation of the shower experience, indicating personal enjoyment and preference.</t>
+          <t>The phrase 'she loved this part' expresses a positive emotional evaluation of the shower experience, indicating personal enjoyment and value.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4704,22 +4639,22 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G75" t="n">
         <v>0.05</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>she loved this part</t>
+          <t>she loved this part ||| she loved the warm water</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>The phrase 'she loved this part' expresses a positive emotional reaction to an experience, aligning with Affect as defined by Appraisal Theory. The evaluation centers on personal feeling rather than judgment of character or appreciation of an object's quality. The context confirms this is about emotional enjoyment, not social evaluation or aesthetic assessment.</t>
+          <t>The repeated use of 'loved' expresses personal emotional attachment and positive feelings toward the shower experience, aligning with the definition of affect as expressions of emotions.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4727,7 +4662,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The phrase 'she loved this part' expresses a positive emotional evaluation of the shower experience, indicating personal enjoyment and preference.",
+  "justification": "The phrase 'she loved this part' expresses a positive emotional evaluation of the shower experience, indicating personal enjoyment and value.",
   "evidence_span": "she loved this part"
 }</t>
         </is>
@@ -4739,13 +4674,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
+  "probability_affect": 0.90,
   "probability_judgment": 0.05,
-  "probability_appreciation": 0.0,
-  "top_spans": [
-    "she loved this part"
-  ],
-  "explanation": "The phrase 'she loved this part' expresses a positive emotional reaction to an experience, aligning with Affect as defined by Appraisal Theory. The evaluation centers on personal feeling rather than judgment of character or appreciation of an object's quality. The context confirms this is about emotional enjoyment, not social evaluation or aesthetic assessment."
+  "probability_appreciation": 0.05,
+  "top_spans": ["she loved this part", "she loved the warm water"],
+  "explanation": "The repeated use of 'loved' expresses personal emotional attachment and positive feelings toward the shower experience, aligning with the definition of affect as expressions of emotions."
 }</t>
         </is>
       </c>
@@ -4775,22 +4708,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>She loved the warm water ||| like a spa ||| as indulgent as I could</t>
+          <t>She loved the warm water ||| made this as indulgent as I could ||| like a spa</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>The text evaluates the experience of the shower as pleasurable and luxurious. 'She loved the warm water' reflects affect, but the focus is on the quality and design of the experience ('indulgent', 'like a spa'), which aligns with Appreciation—evaluating a situation's value and sensory appeal. Affect is present but secondary to the appreciation of the experience's richness.</t>
+          <t>The text expresses positive emotional response (affect) and evaluates the experience as valuable and luxurious (appreciation). The dominant focus is on the sensory and experiential quality of the shower, aligning with appreciation of a phenomenon's value and quality.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4810,15 +4743,15 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.6,
-  "probability_judgment": 0.2,
-  "probability_appreciation": 0.8,
+  "probability_affect": 0.20,
+  "probability_judgment": 0.10,
+  "probability_appreciation": 0.70,
   "top_spans": [
     "She loved the warm water",
-    "like a spa",
-    "as indulgent as I could"
+    "made this as indulgent as I could",
+    "like a spa"
   ],
-  "explanation": "The text evaluates the experience of the shower as pleasurable and luxurious. 'She loved the warm water' reflects affect, but the focus is on the quality and design of the experience ('indulgent', 'like a spa'), which aligns with Appreciation—evaluating a situation's value and sensory appeal. Affect is present but secondary to the appreciation of the experience's richness."
+  "explanation": "The text expresses positive emotional response (affect) and evaluates the experience as valuable and luxurious (appreciation). The dominant focus is on the sensory and experiential quality of the shower, aligning with appreciation of a phenomenon's value and quality."
 }</t>
         </is>
       </c>
@@ -4867,7 +4800,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>The text expresses a positive evaluation of the care provided, emphasizing comfort and attentiveness through 'warm towels', 'slippers', and immediate action to prevent coldness.</t>
+          <t>The text expresses a positive evaluation of the care provided, implying quality and attentiveness in response to the sister's needs.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4881,22 +4814,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>warm towels and slippers ready immediately ||| she never got cold for a second</t>
+          <t>We had warm towels and slippers ready immediately ||| so she never got cold for a second</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>The TARGET evaluates the quality and effectiveness of the care provided (warm towels, slippers, promptness), focusing on the outcome (no cold). This aligns with Appreciation, as it assesses the arrangement and its impact. No clear emotional reaction (Affect) or evaluation of character (Judgment) is present.</t>
+          <t>The text evaluates the quality and value of preparedness and care in a situation, focusing on the effectiveness and comfort provided. This reflects appreciation of a process and its outcomes, not emotions or moral evaluation.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4904,7 +4837,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The text expresses a positive evaluation of the care provided, emphasizing comfort and attentiveness through 'warm towels', 'slippers', and immediate action to prevent coldness.",
+  "justification": "The text expresses a positive evaluation of the care provided, implying quality and attentiveness in response to the sister's needs.",
   "evidence_span": "We had warm towels and slippers ready immediately so she never got cold for a second."
 }</t>
         </is>
@@ -4916,14 +4849,14 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
   "top_spans": [
-    "warm towels and slippers ready immediately",
-    "she never got cold for a second"
+    "We had warm towels and slippers ready immediately",
+    "so she never got cold for a second"
   ],
-  "explanation": "The TARGET evaluates the quality and effectiveness of the care provided (warm towels, slippers, promptness), focusing on the outcome (no cold). This aligns with Appreciation, as it assesses the arrangement and its impact. No clear emotional reaction (Affect) or evaluation of character (Judgment) is present."
+  "explanation": "The text evaluates the quality and value of preparedness and care in a situation, focusing on the effectiveness and comfort provided. This reflects appreciation of a process and its outcomes, not emotions or moral evaluation."
 }</t>
         </is>
       </c>
@@ -4972,7 +4905,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>The phrase 'that was the highlight of her day' expresses a positive emotional evaluation of the brothers' visits, indicating value and affective significance.</t>
+          <t>The phrase 'that was the highlight of her day' expresses a positive emotional evaluation of the brothers' visits, indicating their significance and value to her.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4986,10 +4919,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H80" t="n">
         <v>0.05</v>
@@ -5001,7 +4934,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>The phrase 'highlight of her day' expresses a positive emotional reaction, indicating joy or deep personal significance. This aligns with Affect, as it reflects the speaker's emotional evaluation of the event. No clear judgment of character or appreciation of an object/event is present. The emotional tone is central to the evaluative meaning.</t>
+          <t>The phrase 'highlight of her day' expresses a strong positive emotional experience, indicating affect. No evaluation of behavior (judgment) or quality/value (appreciation) is present. Affect is clearly dominant.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5009,7 +4942,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The phrase 'that was the highlight of her day' expresses a positive emotional evaluation of the brothers' visits, indicating value and affective significance.",
+  "justification": "The phrase 'that was the highlight of her day' expresses a positive emotional evaluation of the brothers' visits, indicating their significance and value to her.",
   "evidence_span": "that was the highlight of her day"
 }</t>
         </is>
@@ -5021,13 +4954,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "that was the highlight of her day"
-  ],
-  "explanation": "The phrase 'highlight of her day' expresses a positive emotional reaction, indicating joy or deep personal significance. This aligns with Affect, as it reflects the speaker's emotional evaluation of the event. No clear judgment of character or appreciation of an object/event is present. The emotional tone is central to the evaluative meaning."
+  "top_spans": ["that was the highlight of her day"],
+  "explanation": "The phrase 'highlight of her day' expresses a strong positive emotional experience, indicating affect. No evaluation of behavior (judgment) or quality/value (appreciation) is present. Affect is clearly dominant."
 }</t>
         </is>
       </c>
@@ -5076,12 +5007,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>The statement expresses emotional and moral weight regarding the inability to support someone, indicating a personal judgment and emotional burden related to caregiving.</t>
+          <t>The statement expresses a personal limitation and emotional burden in caring for someone, indicating a judgment of the situation and emotional strain.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>I couldn't support her myself anymore, so we hired an aide to help me with the showers.</t>
+          <t>I couldn't support her myself anymore</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5090,22 +5021,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G82" t="n">
         <v>0.9</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>I couldn't support her myself anymore ||| so we hired an aide to help me with the showers</t>
+          <t>I couldn't support her myself anymore, so we hired an aide to help me with the showers.</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>The statement evaluates the speaker's capacity and decision-making in a caregiving context, reflecting a social judgment about personal limitations and responsible action. While emotional strain is implied, the focus is on the speaker's assessment of their own ability and the ethical choice to seek help, aligning with Judgment (evaluation of behavior and responsibility).</t>
+          <t>The statement evaluates the speaker's capacity and decision to hire help, reflecting a moral and social evaluation of responsibility and care, aligning with judgment. No emotional expression or quality assessment is present.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5113,8 +5044,8 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement expresses emotional and moral weight regarding the inability to support someone, indicating a personal judgment and emotional burden related to caregiving.",
-  "evidence_span": "I couldn't support her myself anymore, so we hired an aide to help me with the showers."
+  "justification": "The statement expresses a personal limitation and emotional burden in caring for someone, indicating a judgment of the situation and emotional strain.",
+  "evidence_span": "I couldn't support her myself anymore"
 }</t>
         </is>
       </c>
@@ -5125,14 +5056,11 @@
   "affect": 0,
   "judgment": 1,
   "appreciation": 0,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.9,
-  "probability_appreciation": 0.1,
-  "top_spans": [
-    "I couldn't support her myself anymore",
-    "so we hired an aide to help me with the showers"
-  ],
-  "explanation": "The statement evaluates the speaker's capacity and decision-making in a caregiving context, reflecting a social judgment about personal limitations and responsible action. While emotional strain is implied, the focus is on the speaker's assessment of their own ability and the ethical choice to seek help, aligning with Judgment (evaluation of behavior and responsibility)."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.90,
+  "probability_appreciation": 0.05,
+  "top_spans": ["I couldn't support her myself anymore, so we hired an aide to help me with the showers."],
+  "explanation": "The statement evaluates the speaker's capacity and decision to hire help, reflecting a moral and social evaluation of responsibility and care, aligning with judgment. No emotional expression or quality assessment is present."
 }</t>
         </is>
       </c>
@@ -5148,7 +5076,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>The TARGET expresses emotional and value-laden language ('sacred ritual') indicating a positive evaluation of the daily activities, reflecting personal significance and emotional weight.</t>
+          <t>The TARGET expresses emotional and value-laden language ('sacred ritual') reflecting a positive evaluation of daily activities, indicating personal significance and emotional depth.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5158,200 +5086,194 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>affect</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>It was humbling and painful ||| exactly where I wanted to be</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>The text expresses personal emotional states—humility, pain, and deep personal satisfaction—centered on inner feelings. 'Humbling and painful' reflects affective response, while 'exactly where I wanted to be' reinforces emotional significance. No evaluation of people or social norms (judgment), nor of things' qualities (appreciation), so affect is dominant.</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The TARGET expresses emotional and value-laden language ('sacred ritual') reflecting a positive evaluation of daily activities, indicating personal significance and emotional depth.",
+  "evidence_span": "These simple daily activities became our sacred ritual"
+}</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>{
+  "label": "affect",
+  "affect": 1,
+  "judgment": 0,
+  "appreciation": 0,
+  "probability_affect": 0.85,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.10,
+  "top_spans": [
+    "It was humbling and painful",
+    "exactly where I wanted to be"
+  ],
+  "explanation": "The text expresses personal emotional states—humility, pain, and deep personal satisfaction—centered on inner feelings. 'Humbling and painful' reflects affective response, while 'exactly where I wanted to be' reinforces emotional significance. No evaluation of people or social norms (judgment), nor of things' qualities (appreciation), so affect is dominant."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>It was humbling and painful and exactly where I wanted to be.</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>The statement expresses personal emotional response ('humbling and painful') and a value judgment ('exactly where I wanted to be'), indicating evaluative content.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>It was humbling and painful and exactly where I wanted to be.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>affect</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>It was humbling and painful ||| exactly where I wanted to be</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>The text expresses personal emotional states—'humble,' 'painful'—indicating internal feelings. 'Exactly where I wanted to be' reflects emotional resonance with the situation, aligning with affect. No evaluation of behavior (judgment) or quality of things (appreciation) is present.</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement expresses personal emotional response ('humbling and painful') and a value judgment ('exactly where I wanted to be'), indicating evaluative content.",
+  "evidence_span": "It was humbling and painful and exactly where I wanted to be."
+}</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>{
+  "label": "affect",
+  "affect": 1,
+  "judgment": 0,
+  "appreciation": 0,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
+  "top_spans": [
+    "It was humbling and painful",
+    "exactly where I wanted to be"
+  ],
+  "explanation": "The text expresses personal emotional states—'humble,' 'painful'—indicating internal feelings. 'Exactly where I wanted to be' reflects emotional resonance with the situation, aligning with affect. No evaluation of behavior (judgment) or quality of things (appreciation) is present."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>We called this time "the beautiful awful."</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>The phrase 'the beautiful awful' combines positive and negative evaluative terms, expressing a complex judgment about the emotional quality of the experience.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>the beautiful awful</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>appreciation</t>
         </is>
       </c>
-      <c r="F83" t="n">
+      <c r="F85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.6</v>
       </c>
-      <c r="G83" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>sacred ritual ||| repeated them day after day ||| as the cancer grew</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>The phrase 'sacred ritual' reflects a high-value, meaningful appreciation of daily activities, aligning with Appreciation. 'Repeated them day after day' conveys emotional significance, indicating Affect. The context of enduring hardship without judgment of the person or behavior supports Appreciation as dominant. Affect is present but secondary.</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The TARGET expresses emotional and value-laden language ('sacred ritual') indicating a positive evaluation of the daily activities, reflecting personal significance and emotional weight.",
-  "evidence_span": "These simple daily activities became our sacred ritual"
-}</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>the beautiful awful</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>The phrase 'the beautiful awful' evaluates the quality and value of a complex experience, reflecting appreciation of its dual nature. While affect is present, the primary focus is on the evaluative quality of the time, aligning with appreciation.</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The phrase 'the beautiful awful' combines positive and negative evaluative terms, expressing a complex judgment about the emotional quality of the experience.",
+  "evidence_span": "the beautiful awful"
+}</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>{
   "label": "appreciation",
   "affect": 1,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.6,
-  "probability_judgment": 0.2,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "sacred ritual",
-    "repeated them day after day",
-    "as the cancer grew"
-  ],
-  "explanation": "The phrase 'sacred ritual' reflects a high-value, meaningful appreciation of daily activities, aligning with Appreciation. 'Repeated them day after day' conveys emotional significance, indicating Affect. The context of enduring hardship without judgment of the person or behavior supports Appreciation as dominant. Affect is present but secondary."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>It was humbling and painful and exactly where I wanted to be.</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>The statement expresses personal emotional response ('humbling and painful') and subjective value judgment ('exactly where I wanted to be'), indicating evaluative content.</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>It was humbling and painful and exactly where I wanted to be.</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>ambiguous</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>humbling ||| painful ||| exactly where I wanted to be</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>The text expresses emotional states (affect: 'humbling', 'painful'), evaluates personal choice and stance (judgment: 'exactly where I wanted to be' implies moral or personal integrity), and assesses the situation's value (appreciation: 'exactly where I wanted to be' implies high personal significance). All three types are plausibly present, with no clear dominance, hence ambiguous.</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses personal emotional response ('humbling and painful') and subjective value judgment ('exactly where I wanted to be'), indicating evaluative content.",
-  "evidence_span": "It was humbling and painful and exactly where I wanted to be."
-}</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>{
-  "label": "ambiguous",
-  "affect": 1,
-  "judgment": 1,
-  "appreciation": 1,
-  "probability_affect": 0.8,
-  "probability_judgment": 0.7,
-  "probability_appreciation": 0.7,
-  "top_spans": [
-    "humbling",
-    "painful",
-    "exactly where I wanted to be"
-  ],
-  "explanation": "The text expresses emotional states (affect: 'humbling', 'painful'), evaluates personal choice and stance (judgment: 'exactly where I wanted to be' implies moral or personal integrity), and assesses the situation's value (appreciation: 'exactly where I wanted to be' implies high personal significance). All three types are plausibly present, with no clear dominance, hence ambiguous."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>We called this time "the beautiful awful."</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>The phrase 'the beautiful awful' combines positive and negative evaluative terms, expressing a complex emotional judgment about a deeply personal experience.</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>the beautiful awful</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>ambiguous</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>beautiful ||| awful ||| the beautiful awful</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>The phrase 'beautiful awful' expresses mixed emotional reaction (Affect), evaluates the experience as both positive and negative (Judgment), and assesses the nature of the time as complex and significant (Appreciation). All three types are equally plausible, with no clear dominance, hence ambiguous.</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The phrase 'the beautiful awful' combines positive and negative evaluative terms, expressing a complex emotional judgment about a deeply personal experience.",
-  "evidence_span": "the beautiful awful"
-}</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>{
-  "label": "ambiguous",
-  "affect": 1,
-  "judgment": 1,
-  "appreciation": 1,
-  "probability_affect": 0.7,
-  "probability_judgment": 0.6,
-  "probability_appreciation": 0.7,
-  "top_spans": [
-    "beautiful",
-    "awful",
-    "the beautiful awful"
-  ],
-  "explanation": "The phrase 'beautiful awful' expresses mixed emotional reaction (Affect), evaluates the experience as both positive and negative (Judgment), and assesses the nature of the time as complex and significant (Appreciation). All three types are equally plausible, with no clear dominance, hence ambiguous."
+  "probability_affect": 0.30,
+  "probability_judgment": 0.10,
+  "probability_appreciation": 0.60,
+  "top_spans": ["the beautiful awful"],
+  "explanation": "The phrase 'the beautiful awful' evaluates the quality and value of a complex experience, reflecting appreciation of its dual nature. While affect is present, the primary focus is on the evaluative quality of the time, aligning with appreciation."
 }</t>
         </is>
       </c>
@@ -5367,7 +5289,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>The TARGET states a factual date of death and time elapsed since diagnosis, with no emotional expression, judgment, or value evaluation.</t>
+          <t>The TARGET text states a factual date of death and a time interval after diagnosis, with no emotional, judgmental, or evaluative language.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -5382,7 +5304,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET states a factual date of death and time elapsed since diagnosis, with no emotional expression, judgment, or value evaluation.",
+  "justification": "The TARGET text states a factual date of death and a time interval after diagnosis, with no emotional, judgmental, or evaluative language.",
   "evidence_span": ""
 }</t>
         </is>
@@ -5414,10 +5336,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H87" t="n">
         <v>0.05</v>
@@ -5429,7 +5351,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>The phrase 'She was gone' expresses emotional loss and grief, aligning with Affect as it conveys a personal emotional reaction to the death of a person. It reflects a feeling state rather than judgment of character or evaluation of an object/event. The brevity and context of bereavement support this interpretation.</t>
+          <t>The phrase expresses emotional loss and sorrow, reflecting personal feelings about the death. It aligns with affect as it conveys emotional response rather than evaluation of behavior (judgment) or quality (appreciation).</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5449,13 +5371,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "She was gone."
-  ],
-  "explanation": "The phrase 'She was gone' expresses emotional loss and grief, aligning with Affect as it conveys a personal emotional reaction to the death of a person. It reflects a feeling state rather than judgment of character or evaluation of an object/event. The brevity and context of bereavement support this interpretation."
+  "top_spans": ["She was gone."],
+  "explanation": "The phrase expresses emotional loss and sorrow, reflecting personal feelings about the death. It aligns with affect as it conveys emotional response rather than evaluation of behavior (judgment) or quality (appreciation)."
 }</t>
         </is>
       </c>
@@ -5481,26 +5401,26 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>appreciation</t>
+          <t>affect</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>supportive and attentive way ||| all together in this unknown ||| taking care of each other</t>
+          <t>we were just all together in this unknown, feeling the same thing and taking care of each other</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>The TARGET evaluates the family's collective behavior as 'supportive and attentive', which reflects appreciation of the group's interaction quality. The emotional tone ('together', 'taking care') suggests affect, but the primary focus is on the positive quality of the shared experience, aligning with Appreciation. Judgment is not evident, as no character evaluation occurs.</t>
+          <t>The passage expresses shared emotional experience and connection, emphasizing collective feeling and emotional unity. This aligns with affect, as it focuses on internal emotional states rather than evaluations of behavior (judgment) or qualities of things (appreciation).</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5514,94 +5434,92 @@
         </is>
       </c>
       <c r="L88" t="inlineStr">
-        <is>
-          <t>{
-  "label": "appreciation",
-  "affect": 1,
-  "judgment": 0,
-  "appreciation": 1,
-  "probability_affect": 0.6,
-  "probability_judgment": 0.2,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "supportive and attentive way",
-    "all together in this unknown",
-    "taking care of each other"
-  ],
-  "explanation": "The TARGET evaluates the family's collective behavior as 'supportive and attentive', which reflects appreciation of the group's interaction quality. The emotional tone ('together', 'taking care') suggests affect, but the primary focus is on the positive quality of the shared experience, aligning with Appreciation. Judgment is not evident, as no character evaluation occurs."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>It was as though our whole family dynamic and all our established roles vanished and we were just all together in this unknown, feeling the same thing and taking care of each other.</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>The TARGET expresses a reflective, emotionally charged interpretation of a shared family experience, implying a positive evaluation of unity and emotional connection.</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>we were just all together in this unknown, feeling the same thing and taking care of each other</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>feeling the same thing ||| taking care of each other ||| unknown</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>The TARGET expresses shared emotional states ('feeling the same thing') and a collective emotional experience in a vulnerable, undefined context. This aligns with Affect as defined: emotional reactions to a situation. The focus is on internal feelings rather than evaluation of character (Judgment) or objects/events (Appreciation). The NEXT sentence confirms gratitude, reinforcing the affective tone.</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The TARGET expresses a reflective, emotionally charged interpretation of a shared family experience, implying a positive evaluation of unity and emotional connection.",
-  "evidence_span": "we were just all together in this unknown, feeling the same thing and taking care of each other"
-}</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
         <is>
           <t>{
   "label": "affect",
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
+  "top_spans": [
+    "we were just all together in this unknown, feeling the same thing and taking care of each other"
+  ],
+  "explanation": "The passage expresses shared emotional experience and connection, emphasizing collective feeling and emotional unity. This aligns with affect, as it focuses on internal emotional states rather than evaluations of behavior (judgment) or qualities of things (appreciation)."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>It was as though our whole family dynamic and all our established roles vanished and we were just all together in this unknown, feeling the same thing and taking care of each other.</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>The TARGET expresses a reflective, emotionally charged interpretation of a shared family experience, implying a positive evaluation of unity and emotional connection.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>we were just all together in this unknown, feeling the same thing and taking care of each other</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>affect</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>feeling the same thing ||| taking care of each other ||| I'm so grateful for them</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>The text expresses shared emotional states and personal gratitude, aligning with affect. 'Feeling the same thing' and 'grateful' indicate emotional experience, not evaluation of behavior (judgment) or quality (appreciation). Thus, affect is dominant.</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The TARGET expresses a reflective, emotionally charged interpretation of a shared family experience, implying a positive evaluation of unity and emotional connection.",
+  "evidence_span": "we were just all together in this unknown, feeling the same thing and taking care of each other"
+}</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>{
+  "label": "affect",
+  "affect": 1,
+  "judgment": 0,
+  "appreciation": 0,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
   "top_spans": [
     "feeling the same thing",
     "taking care of each other",
-    "unknown"
+    "I'm so grateful for them"
   ],
-  "explanation": "The TARGET expresses shared emotional states ('feeling the same thing') and a collective emotional experience in a vulnerable, undefined context. This aligns with Affect as defined: emotional reactions to a situation. The focus is on internal feelings rather than evaluation of character (Judgment) or objects/events (Appreciation). The NEXT sentence confirms gratitude, reinforcing the affective tone."
+  "explanation": "The text expresses shared emotional states and personal gratitude, aligning with affect. 'Feeling the same thing' and 'grateful' indicate emotional experience, not evaluation of behavior (judgment) or quality (appreciation). Thus, affect is dominant."
 }</t>
         </is>
       </c>
@@ -5617,7 +5535,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>The statement expresses a strong positive emotional response ('so grateful'), indicating an evaluative stance toward the people mentioned.</t>
+          <t>The statement expresses a personal emotional response of gratitude, indicating a positive evaluation of the people involved.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -5631,22 +5549,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H90" t="n">
         <v>0.05</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>I'm so grateful for them</t>
+          <t>I'm so grateful for them.</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>The phrase 'I'm so grateful for them' expresses a personal emotional state (gratitude), which aligns with Affect as defined—emotional reactions to people or events. The word 'grateful' is a clear emotion word indicating positive affect. No evaluation of character (Judgment) or quality of things (Appreciation) is present. Context supports this as a direct emotional response.</t>
+          <t>The phrase expresses a personal emotional response (gratitude), which aligns with affect—feelings/emotions. No evaluation of behavior (judgment) or quality/value (appreciation) is present. Gratitude is a core affective state.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5654,7 +5572,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement expresses a strong positive emotional response ('so grateful'), indicating an evaluative stance toward the people mentioned.",
+  "justification": "The statement expresses a personal emotional response of gratitude, indicating a positive evaluation of the people involved.",
   "evidence_span": "I'm so grateful for them."
 }</t>
         </is>
@@ -5666,13 +5584,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "I'm so grateful for them"
-  ],
-  "explanation": "The phrase 'I'm so grateful for them' expresses a personal emotional state (gratitude), which aligns with Affect as defined—emotional reactions to people or events. The word 'grateful' is a clear emotion word indicating positive affect. No evaluation of character (Judgment) or quality of things (Appreciation) is present. Context supports this as a direct emotional response."
+  "top_spans": ["I'm so grateful for them."],
+  "explanation": "The phrase expresses a personal emotional response (gratitude), which aligns with affect—feelings/emotions. No evaluation of behavior (judgment) or quality/value (appreciation) is present. Gratitude is a core affective state."
 }</t>
         </is>
       </c>
@@ -5702,22 +5618,22 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>so important ||| so healing</t>
+          <t>I had no idea that this kind of connection could be so important, so healing ||| This was the most important thing ||| It was what I always wanted</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>The TARGET expresses emotional reactions to a connection, using 'so important' and 'so healing' to convey deep personal feeling. These phrases reflect internal emotional states (affect), aligning with the definition of Affect as emotional responses. No evaluation of character (judgment) or object quality (appreciation) is dominant. The context supports emotional significance, not social or aesthetic evaluation.</t>
+          <t>The text expresses personal emotional states—surprise, emotional significance, and deep personal fulfillment—centered on inner feelings and emotional impact. These align with 'affect' as the primary category, reflecting subjective emotional experience rather than evaluation of behavior or quality.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5737,14 +5653,15 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
   "top_spans": [
-    "so important",
-    "so healing"
+    "I had no idea that this kind of connection could be so important, so healing",
+    "This was the most important thing",
+    "It was what I always wanted"
   ],
-  "explanation": "The TARGET expresses emotional reactions to a connection, using 'so important' and 'so healing' to convey deep personal feeling. These phrases reflect internal emotional states (affect), aligning with the definition of Affect as emotional responses. No evaluation of character (judgment) or object quality (appreciation) is dominant. The context supports emotional significance, not social or aesthetic evaluation."
+  "explanation": "The text expresses personal emotional states—surprise, emotional significance, and deep personal fulfillment—centered on inner feelings and emotional impact. These align with 'affect' as the primary category, reflecting subjective emotional experience rather than evaluation of behavior or quality."
 }</t>
         </is>
       </c>
@@ -5770,17 +5687,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>appreciation</t>
+          <t>affect</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -5789,7 +5706,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>The TARGET evaluates a personal experience or state as highly significant ('most important') and fulfilling ('what I always wanted'), aligning with Appreciation—evaluating a situation or outcome in terms of value and significance. No clear emotional expression (Affect) or character evaluation (Judgment) is present. The focus is on the perceived worth of the experience.</t>
+          <t>The statements express deep personal emotional significance and longing, reflecting inner feelings and subjective value. No evaluation of behavior or social norms is present, and the focus is on personal emotional weight, aligning with affect.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5805,18 +5722,18 @@
       <c r="L92" t="inlineStr">
         <is>
           <t>{
-  "label": "appreciation",
-  "affect": 0,
+  "label": "affect",
+  "affect": 1,
   "judgment": 0,
-  "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
+  "appreciation": 0,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
   "top_spans": [
     "This was the most important thing",
     "It was what I always wanted"
   ],
-  "explanation": "The TARGET evaluates a personal experience or state as highly significant ('most important') and fulfilling ('what I always wanted'), aligning with Appreciation—evaluating a situation or outcome in terms of value and significance. No clear emotional expression (Affect) or character evaluation (Judgment) is present. The focus is on the perceived worth of the experience."
+  "explanation": "The statements express deep personal emotional significance and longing, reflecting inner feelings and subjective value. No evaluation of behavior or social norms is present, and the focus is on personal emotional weight, aligning with affect."
 }</t>
         </is>
       </c>
@@ -5832,7 +5749,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>The TARGET describes a sequence of actions without expressing emotion, judgment, or evaluation of quality, behavior, or value.</t>
+          <t>The TARGET describes a sequence of actions without expressing emotion, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -5847,7 +5764,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET describes a sequence of actions without expressing emotion, judgment, or evaluation of quality, behavior, or value.",
+  "justification": "The TARGET describes a sequence of actions without expressing emotion, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -5861,70 +5778,31 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>The statement 'painting is what I've always done, so that's what I did' implies a personal value or identity tied to painting, indicating a positive evaluation of the activity.</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>painting is what I've always done, so that's what I did</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>appreciation</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>painting is what I've always done ||| that's what I did</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>The TARGET evaluates the act of painting as a consistent, defining practice. This reflects appreciation of painting as a valued, meaningful activity. No emotional reaction (affect) or evaluation of character (judgment) is present. The focus is on the significance and continuity of the activity, fitting Appreciation.</t>
-        </is>
-      </c>
+          <t>The TARGET describes routine actions and a personal habit without expressing emotion, judgment, or value evaluation. It is factual and descriptive.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement 'painting is what I've always done, so that's what I did' implies a personal value or identity tied to painting, indicating a positive evaluation of the activity.",
-  "evidence_span": "painting is what I've always done, so that's what I did"
-}</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>{
-  "label": "appreciation",
-  "affect": 0,
-  "judgment": 0,
-  "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "painting is what I've always done",
-    "that's what I did"
-  ],
-  "explanation": "The TARGET evaluates the act of painting as a consistent, defining practice. This reflects appreciation of painting as a valued, meaningful activity. No emotional reaction (affect) or evaluation of character (judgment) is present. The focus is on the significance and continuity of the activity, fitting Appreciation."
-}</t>
-        </is>
-      </c>
+  "binary": 0,
+  "label": "no_eval",
+  "justification": "The TARGET describes routine actions and a personal habit without expressing emotion, judgment, or value evaluation. It is factual and descriptive.",
+  "evidence_span": ""
+}</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5937,7 +5815,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>The target text is a neutral transition statement describing an upcoming event without expressing emotion, judgment, or evaluation.</t>
+          <t>The TARGET text is a neutral transition statement describing an upcoming event without expressing emotion, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -5952,7 +5830,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The target text is a neutral transition statement describing an upcoming event without expressing emotion, judgment, or evaluation.",
+  "justification": "The TARGET text is a neutral transition statement describing an upcoming event without expressing emotion, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -5970,7 +5848,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>The statement expresses a personal emotional release and inner turmoil, indicating a subjective emotional evaluation of internal experience.</t>
+          <t>The TARGET expresses a personal emotional release, indicating an internal emotional state and subjective experience, which constitutes an evaluative judgment of inner feelings.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5984,22 +5862,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H96" t="n">
         <v>0.05</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>It's like a release of everything that was unraveling in me</t>
+          <t>It's like a release of everything that was unraveling in me.</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>The TARGET expresses an emotional state—relief and release—consistent with Affect. The phrase 'unraveling in me' conveys internal emotional tension being released, aligning with emotional reactions to personal experience. No evaluation of character (Judgment) or object quality (Appreciation) is present. The focus is on subjective feeling.</t>
+          <t>The phrase expresses a deep emotional release and internal turmoil, aligning with affect as the primary category. No evaluation of behavior (judgment) or quality/value (appreciation) is present.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6007,7 +5885,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement expresses a personal emotional release and inner turmoil, indicating a subjective emotional evaluation of internal experience.",
+  "justification": "The TARGET expresses a personal emotional release, indicating an internal emotional state and subjective experience, which constitutes an evaluative judgment of inner feelings.",
   "evidence_span": "It's like a release of everything that was unraveling in me."
 }</t>
         </is>
@@ -6019,13 +5897,13 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
   "top_spans": [
-    "It's like a release of everything that was unraveling in me"
+    "It's like a release of everything that was unraveling in me."
   ],
-  "explanation": "The TARGET expresses an emotional state—relief and release—consistent with Affect. The phrase 'unraveling in me' conveys internal emotional tension being released, aligning with emotional reactions to personal experience. No evaluation of character (Judgment) or object quality (Appreciation) is present. The focus is on subjective feeling."
+  "explanation": "The phrase expresses a deep emotional release and internal turmoil, aligning with affect as the primary category. No evaluation of behavior (judgment) or quality/value (appreciation) is present."
 }</t>
         </is>
       </c>
@@ -6055,22 +5933,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>very, very carefully rendered safe place ||| it was a myth</t>
+          <t>That safe, very, very carefully rendered safe place ||| it was a myth ||| It didn't work</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>The TARGET evaluates the artistic creation ('safe place') as meticulously crafted ('carefully rendered') and ultimately flawed ('a myth'), reflecting an assessment of quality and value. This aligns with Appreciation, as it judges the artwork's construction and effectiveness. No clear emotional state (Affect) or moral evaluation of a person (Judgment) is expressed.</t>
+          <t>The text evaluates the quality and value of a constructed artistic space, assessing its effectiveness and authenticity. The focus is on the nature and outcome of the created place, fitting appreciation as the primary category.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6090,14 +5968,15 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
   "top_spans": [
-    "very, very carefully rendered safe place",
-    "it was a myth"
+    "That safe, very, very carefully rendered safe place",
+    "it was a myth",
+    "It didn't work"
   ],
-  "explanation": "The TARGET evaluates the artistic creation ('safe place') as meticulously crafted ('carefully rendered') and ultimately flawed ('a myth'), reflecting an assessment of quality and value. This aligns with Appreciation, as it judges the artwork's construction and effectiveness. No clear emotional state (Affect) or moral evaluation of a person (Judgment) is expressed."
+  "explanation": "The text evaluates the quality and value of a constructed artistic space, assessing its effectiveness and authenticity. The focus is on the nature and outcome of the created place, fitting appreciation as the primary category."
 }</t>
         </is>
       </c>
@@ -6113,7 +5992,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>The statement 'It didn't work.' expresses a negative evaluation of a previously created artistic safe space, implying failure or lack of effectiveness in achieving its intended purpose.</t>
+          <t>The statement 'It didn't work' implies a negative evaluation of a previously created artistic safe space, suggesting failure or inadequacy in achieving its intended purpose.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6123,26 +6002,26 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>appreciation</t>
+          <t>affect</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>It didn't work.</t>
+          <t>I was afraid ||| I didn't want to paint anymore</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>The statement evaluates the effectiveness of a previously created artistic 'safe place'—a conceptual and aesthetic construct. It expresses a judgment on the outcome of the artistic process, aligning with Appreciation (evaluation of a creative product's success). While fear is mentioned in the next sentence, 'It didn't work' itself is a direct assessment of a creative endeavor’s failure, fitting Appreciation rather than Affect or Judgment.</t>
+          <t>The phrases express personal emotional states—fear and reluctance—indicating internal feelings. These are clear markers of affect, as they reflect emotional responses rather than evaluations of behavior (judgment) or qualities (appreciation).</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6150,97 +6029,92 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement 'It didn't work.' expresses a negative evaluation of a previously created artistic safe space, implying failure or lack of effectiveness in achieving its intended purpose.",
+  "justification": "The statement 'It didn't work' implies a negative evaluation of a previously created artistic safe space, suggesting failure or inadequacy in achieving its intended purpose.",
   "evidence_span": "It didn't work."
 }</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
-        <is>
-          <t>{
-  "label": "appreciation",
-  "affect": 0,
-  "judgment": 0,
-  "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "It didn't work."
-  ],
-  "explanation": "The statement evaluates the effectiveness of a previously created artistic 'safe place'—a conceptual and aesthetic construct. It expresses a judgment on the outcome of the artistic process, aligning with Appreciation (evaluation of a creative product's success). While fear is mentioned in the next sentence, 'It didn't work' itself is a direct assessment of a creative endeavor’s failure, fitting Appreciation rather than Affect or Judgment."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>And I was afraid, because I didn't want to paint anymore.</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>The statement expresses fear and a change in desire, indicating an emotional reaction and personal evaluation of the painting activity.</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>And I was afraid, because I didn't want to paint anymore.</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>I was afraid ||| I didn't want to paint anymore</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>The TARGET expresses emotional distress ('afraid') and a change in emotional state toward an activity ('didn't want to paint anymore'), aligning with Affect as defined by emotional reactions and dispositions. No evaluation of character (Judgment) or object quality (Appreciation) is present. The context confirms a personal emotional response.</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses fear and a change in desire, indicating an emotional reaction and personal evaluation of the painting activity.",
-  "evidence_span": "And I was afraid, because I didn't want to paint anymore."
-}</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
         <is>
           <t>{
   "label": "affect",
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "I was afraid",
-    "I didn't want to paint anymore"
-  ],
-  "explanation": "The TARGET expresses emotional distress ('afraid') and a change in emotional state toward an activity ('didn't want to paint anymore'), aligning with Affect as defined by emotional reactions and dispositions. No evaluation of character (Judgment) or object quality (Appreciation) is present. The context confirms a personal emotional response."
+  "top_spans": ["I was afraid", "I didn't want to paint anymore"],
+  "explanation": "The phrases express personal emotional states—fear and reluctance—indicating internal feelings. These are clear markers of affect, as they reflect emotional responses rather than evaluations of behavior (judgment) or qualities (appreciation)."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>And I was afraid, because I didn't want to paint anymore.</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>The statement expresses fear and a change in desire, indicating an emotional reaction and personal evaluation of the painting activity.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>And I was afraid, because I didn't want to paint anymore.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>affect</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>I was afraid ||| I didn't want to paint anymore</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>The target expresses personal fear and emotional reluctance, which are core aspects of affect. No evaluation of behavior (judgment) or quality/value (appreciation) is present. The focus is on internal emotional states.</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement expresses fear and a change in desire, indicating an emotional reaction and personal evaluation of the painting activity.",
+  "evidence_span": "And I was afraid, because I didn't want to paint anymore."
+}</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>{
+  "label": "affect",
+  "affect": 1,
+  "judgment": 0,
+  "appreciation": 0,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
+  "top_spans": ["I was afraid", "I didn't want to paint anymore"],
+  "explanation": "The target expresses personal fear and emotional reluctance, which are core aspects of affect. No evaluation of behavior (judgment) or quality/value (appreciation) is present. The focus is on internal emotional states."
 }</t>
         </is>
       </c>
@@ -6289,7 +6163,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>The TARGET text expresses a thought about trying an action but contains no emotional stance, judgment, or evaluation of people, behavior, or quality of things.</t>
+          <t>The TARGET text expresses a thought about trying an action but contains no emotional stance, judgment, or evaluation of quality, behavior, or value.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -6304,7 +6178,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET text expresses a thought about trying an action but contains no emotional stance, judgment, or evaluation of people, behavior, or quality of things.",
+  "justification": "The TARGET text expresses a thought about trying an action but contains no emotional stance, judgment, or evaluation of quality, behavior, or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -6322,7 +6196,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>The TARGET expresses a personal reflection on lack of attachment and expectation, framing it as enabling freedom and recklessness, which reflects a value judgment about artistic approach and emotional state.</t>
+          <t>The TARGET expresses a personal reflection on lack of attachment and expectation, framing it as enabling 'reckless and free' action, indicating a value judgment about artistic approach and emotional state.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -6332,26 +6206,26 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>appreciation</t>
+          <t>affect</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H102" t="n">
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>I wasn't really much of any kind of painter at all ||| no attachment, no expectation ||| allowed me to be reckless and free</t>
+          <t>I wasn't really much of any kind of painter at all ||| which allowed me to be reckless and free</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>The text evaluates the speaker's state of mind and creative process. 'No attachment, no expectation' and 'allowed me to be reckless and free' reflect an appreciation of the creative freedom achieved through lack of skill or investment. While affect (freedom, release) is present, the core evaluation centers on the value of this state for creativity, fitting Appreciation. Affect is secondary.</t>
+          <t>The text expresses a personal emotional state—freedom and lack of self-imposed constraints—through self-deprecating reflection and the sense of liberation. This aligns with 'affect' as the primary category, reflecting internal emotional experience rather than evaluation of behavior (judgment) or things (appreciation).</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6359,7 +6233,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses a personal reflection on lack of attachment and expectation, framing it as enabling freedom and recklessness, which reflects a value judgment about artistic approach and emotional state.",
+  "justification": "The TARGET expresses a personal reflection on lack of attachment and expectation, framing it as enabling 'reckless and free' action, indicating a value judgment about artistic approach and emotional state.",
   "evidence_span": "which allowed me to be reckless and free"
 }</t>
         </is>
@@ -6367,19 +6241,18 @@
       <c r="L102" t="inlineStr">
         <is>
           <t>{
-  "label": "appreciation",
+  "label": "affect",
   "affect": 1,
   "judgment": 0,
-  "appreciation": 1,
-  "probability_affect": 0.6,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.9,
+  "appreciation": 0,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
   "top_spans": [
     "I wasn't really much of any kind of painter at all",
-    "no attachment, no expectation",
-    "allowed me to be reckless and free"
+    "which allowed me to be reckless and free"
   ],
-  "explanation": "The text evaluates the speaker's state of mind and creative process. 'No attachment, no expectation' and 'allowed me to be reckless and free' reflect an appreciation of the creative freedom achieved through lack of skill or investment. While affect (freedom, release) is present, the core evaluation centers on the value of this state for creativity, fitting Appreciation. Affect is secondary."
+  "explanation": "The text expresses a personal emotional state—freedom and lack of self-imposed constraints—through self-deprecating reflection and the sense of liberation. This aligns with 'affect' as the primary category, reflecting internal emotional experience rather than evaluation of behavior (judgment) or things (appreciation)."
 }</t>
         </is>
       </c>
@@ -6442,22 +6315,22 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>lacquered with bugs</t>
+          <t>By the morning it was lacquered with bugs.</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>The phrase 'lacquered with bugs' evaluates the visual and material transformation of the painting, focusing on its aesthetic and physical state. This aligns with Appreciation, as it assesses the outcome's quality and appearance. No clear emotional reaction or moral evaluation of people is present, ruling out Affect and Judgment.</t>
+          <t>The phrase describes a transformation in quality and appearance of the painting, focusing on its emergent aesthetic and material state. This reflects an evaluation of the phenomenon's value and quality, fitting appreciation. No emotional expression or moral evaluation is present.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6477,13 +6350,11 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "lacquered with bugs"
-  ],
-  "explanation": "The phrase 'lacquered with bugs' evaluates the visual and material transformation of the painting, focusing on its aesthetic and physical state. This aligns with Appreciation, as it assesses the outcome's quality and appearance. No clear emotional reaction or moral evaluation of people is present, ruling out Affect and Judgment."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["By the morning it was lacquered with bugs."],
+  "explanation": "The phrase describes a transformation in quality and appearance of the painting, focusing on its emergent aesthetic and material state. This reflects an evaluation of the phenomenon's value and quality, fitting appreciation. No emotional expression or moral evaluation is present."
 }</t>
         </is>
       </c>
@@ -6499,7 +6370,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>The phrase 'I didn't care' expresses a personal emotional stance, indicating a lack of concern or emotional response, which reflects an evaluative attitude toward the situation.</t>
+          <t>The phrase 'I didn't care' expresses a personal emotional stance, indicating a lack of concern or emotional response, which constitutes an evaluative judgment of the situation.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -6513,22 +6384,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H105" t="n">
         <v>0.05</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>I didn't care</t>
+          <t>But I didn't care. ||| It didn't matter.</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>The phrase 'I didn't care' expresses a personal emotional state, indicating indifference or lack of emotional reaction. This aligns with Affect, as it reflects the speaker's internal emotional disposition toward the situation. No evaluation of character (Judgment) or object quality (Appreciation) is present.</t>
+          <t>The phrases express emotional indifference, reflecting internal feelings or emotional states. No evaluation of people, behavior, or things is present, so affect is the primary category.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6536,7 +6407,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The phrase 'I didn't care' expresses a personal emotional stance, indicating a lack of concern or emotional response, which reflects an evaluative attitude toward the situation.",
+  "justification": "The phrase 'I didn't care' expresses a personal emotional stance, indicating a lack of concern or emotional response, which constitutes an evaluative judgment of the situation.",
   "evidence_span": "I didn't care"
 }</t>
         </is>
@@ -6548,13 +6419,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "I didn't care"
-  ],
-  "explanation": "The phrase 'I didn't care' expresses a personal emotional state, indicating indifference or lack of emotional reaction. This aligns with Affect, as it reflects the speaker's internal emotional disposition toward the situation. No evaluation of character (Judgment) or object quality (Appreciation) is present."
+  "top_spans": ["But I didn't care.", "It didn't matter."],
+  "explanation": "The phrases express emotional indifference, reflecting internal feelings or emotional states. No evaluation of people, behavior, or things is present, so affect is the primary category."
 }</t>
         </is>
       </c>
@@ -6570,7 +6439,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>The phrase 'It didn't matter' is a neutral statement expressing indifference or lack of significance, without emotional tone, judgment, or evaluation of quality or value.</t>
+          <t>The phrase 'It didn't matter' is a neutral statement expressing lack of significance, with no explicit emotion, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -6585,7 +6454,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The phrase 'It didn't matter' is a neutral statement expressing indifference or lack of significance, without emotional tone, judgment, or evaluation of quality or value.",
+  "justification": "The phrase 'It didn't matter' is a neutral statement expressing lack of significance, with no explicit emotion, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -6603,10 +6472,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>The phrase 'It didn't matter' is a neutral statement expressing indifference without evaluating people, behavior, or quality. No emotional, judgmental, or aesthetic content is present.</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>The phrase 'It didn't matter' is a neutral statement expressing indifference or lack of significance, without emotional tone, judgment, or evaluation of quality or value.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>It didn't matter.</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -6618,8 +6491,8 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The phrase 'It didn't matter' is a neutral statement expressing indifference without evaluating people, behavior, or quality. No emotional, judgmental, or aesthetic content is present.",
-  "evidence_span": ""
+  "justification": "The phrase 'It didn't matter' is a neutral statement expressing indifference or lack of significance, without emotional tone, judgment, or evaluation of quality or value.",
+  "evidence_span": "It didn't matter."
 }</t>
         </is>
       </c>
@@ -6636,7 +6509,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>The TARGET describes a series of physical actions on paintings without expressing emotion, judgment, or evaluation of quality, behavior, or aesthetic value.</t>
+          <t>The TARGET describes a series of physical actions without expressing emotion, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -6651,7 +6524,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET describes a series of physical actions on paintings without expressing emotion, judgment, or evaluation of quality, behavior, or aesthetic value.",
+  "justification": "The TARGET describes a series of physical actions without expressing emotion, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -6702,7 +6575,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>The phrase 'all the bugs in it' implies a negative evaluation of the subject, suggesting poor quality or flaws, which constitutes a value judgment.</t>
+          <t>The phrase 'all the bugs in it' implies a negative evaluation of quality or functionality, suggesting criticism of the system or product.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -6716,22 +6589,22 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H110" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>the one with all the bugs in it</t>
+          <t>This is the one with all the bugs in it.</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>The TARGET evaluates a system or product (likely software) as flawed, focusing on its quality and design. 'All the bugs in it' reflects a negative assessment of the object's functionality, fitting Appreciation (evaluation of a thing). No emotional reaction (Affect) or moral judgment of people (Judgment) is evident.</t>
+          <t>The statement evaluates a thing (a system or project) based on its quality and flaws, focusing on its inherent characteristics. This aligns with appreciation, as it assesses value and quality without emotional expression or moral evaluation of people.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6739,7 +6612,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The phrase 'all the bugs in it' implies a negative evaluation of the subject, suggesting poor quality or flaws, which constitutes a value judgment.",
+  "justification": "The phrase 'all the bugs in it' implies a negative evaluation of quality or functionality, suggesting criticism of the system or product.",
   "evidence_span": "This is the one with all the bugs in it."
 }</t>
         </is>
@@ -6751,13 +6624,11 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "the one with all the bugs in it"
-  ],
-  "explanation": "The TARGET evaluates a system or product (likely software) as flawed, focusing on its quality and design. 'All the bugs in it' reflects a negative assessment of the object's functionality, fitting Appreciation (evaluation of a thing). No emotional reaction (Affect) or moral judgment of people (Judgment) is evident."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["This is the one with all the bugs in it."],
+  "explanation": "The statement evaluates a thing (a system or project) based on its quality and flaws, focusing on its inherent characteristics. This aligns with appreciation, as it assesses value and quality without emotional expression or moral evaluation of people."
 }</t>
         </is>
       </c>
@@ -6773,7 +6644,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>The statement expresses a personal intention and implicitly values the non-representational quality, indicating a subjective stance on artistic purpose.</t>
+          <t>The statement expresses a personal intention and implicitly evaluates the artistic value of imperfection, indicating a subjective stance on creative purpose.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -6787,22 +6658,22 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H111" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>fascinating me</t>
+          <t>It was the chaos and the imperfections that were fascinating me</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>The phrase 'fascinating me' expresses an emotional reaction (Affect) to the chaos and imperfections. It reflects the speaker's personal emotional engagement, aligning with the definition of Affect as emotional states or reactions. No clear evaluation of character (Judgment) or object quality (Appreciation) is present.</t>
+          <t>The phrase expresses a personal emotional response to chaos and imperfections, indicating fascination. This reflects an internal feeling, aligning with 'affect' as the primary category.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -6810,7 +6681,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement expresses a personal intention and implicitly values the non-representational quality, indicating a subjective stance on artistic purpose.",
+  "justification": "The statement expresses a personal intention and implicitly evaluates the artistic value of imperfection, indicating a subjective stance on creative purpose.",
   "evidence_span": "I wasn't trying to represent a real space."
 }</t>
         </is>
@@ -6822,13 +6693,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.1,
-  "top_spans": [
-    "fascinating me"
-  ],
-  "explanation": "The phrase 'fascinating me' expresses an emotional reaction (Affect) to the chaos and imperfections. It reflects the speaker's personal emotional engagement, aligning with the definition of Affect as emotional states or reactions. No clear evaluation of character (Judgment) or object quality (Appreciation) is present."
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
+  "top_spans": ["It was the chaos and the imperfections that were fascinating me"],
+  "explanation": "The phrase expresses a personal emotional response to chaos and imperfections, indicating fascination. This reflects an internal feeling, aligning with 'affect' as the primary category."
 }</t>
         </is>
       </c>
@@ -6858,22 +6727,22 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>fascinating me ||| something started to happen</t>
+          <t>It was the chaos and the imperfections that were fascinating me ||| something started to happen ||| I got curious again</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>The phrase 'fascinating me' expresses an emotional reaction (Affect), aligning with the definition of feelings or emotions. 'Something started to happen' suggests an internal emotional or psychological shift, reinforcing affective engagement. No clear evaluation of character (Judgment) or object quality (Appreciation) is present.</t>
+          <t>The text expresses personal emotional engagement and inner experience—'fascinating me' and 'got curious' indicate affective states. No evaluation of people (judgment) or things (appreciation) against norms or value is present. Thus, affect is dominant.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -6893,14 +6762,15 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
   "top_spans": [
-    "fascinating me",
-    "something started to happen"
+    "It was the chaos and the imperfections that were fascinating me",
+    "something started to happen",
+    "I got curious again"
   ],
-  "explanation": "The phrase 'fascinating me' expresses an emotional reaction (Affect), aligning with the definition of feelings or emotions. 'Something started to happen' suggests an internal emotional or psychological shift, reinforcing affective engagement. No clear evaluation of character (Judgment) or object quality (Appreciation) is present."
+  "explanation": "The text expresses personal emotional engagement and inner experience—'fascinating me' and 'got curious' indicate affective states. No evaluation of people (judgment) or things (appreciation) against norms or value is present. Thus, affect is dominant."
 }</t>
         </is>
       </c>
@@ -6930,22 +6800,22 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H113" t="n">
         <v>0.05</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>I got curious again</t>
+          <t>I got curious again.</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>The phrase 'I got curious again' expresses an emotional state (curiosity), which falls under Affect as it reflects a personal feeling or mental reaction. It does not evaluate behavior (Judgment), nor objects/events (Appreciation). The context supports this as a shift in internal emotional state, consistent with the prior mention of fascination.</t>
+          <t>The phrase expresses a personal emotional state—renewed curiosity—indicating an internal feeling. This aligns with 'affect' as it reflects a subjective emotional response, not evaluation of behavior (judgment) or quality (appreciation).</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -6965,13 +6835,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "I got curious again"
-  ],
-  "explanation": "The phrase 'I got curious again' expresses an emotional state (curiosity), which falls under Affect as it reflects a personal feeling or mental reaction. It does not evaluate behavior (Judgment), nor objects/events (Appreciation). The context supports this as a shift in internal emotional state, consistent with the prior mention of fascination."
+  "top_spans": ["I got curious again."],
+  "explanation": "The phrase expresses a personal emotional state—renewed curiosity—indicating an internal feeling. This aligns with 'affect' as it reflects a subjective emotional response, not evaluation of behavior (judgment) or quality (appreciation)."
 }</t>
         </is>
       </c>
@@ -6987,7 +6855,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>The sentence is a neutral, descriptive statement about the origin of an object, with no emotional tone, judgment, or value evaluation.</t>
+          <t>The sentence is a neutral, descriptive statement about the origin of an object, with no emotional stance, judgment, or value evaluation.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -7002,7 +6870,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The sentence is a neutral, descriptive statement about the origin of an object, with no emotional tone, judgment, or value evaluation.",
+  "justification": "The sentence is a neutral, descriptive statement about the origin of an object, with no emotional stance, judgment, or value evaluation.",
   "evidence_span": ""
 }</t>
         </is>
@@ -7023,7 +6891,11 @@
           <t>The phrase 'There was a caveat now, though' is a neutral statement indicating a reservation or condition. It does not express emotion, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>There was a caveat now, though.</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
@@ -7036,7 +6908,7 @@
   "binary": 0,
   "label": "no_eval",
   "justification": "The phrase 'There was a caveat now, though' is a neutral statement indicating a reservation or condition. It does not express emotion, judgment, or evaluation of quality or value.",
-  "evidence_span": ""
+  "evidence_span": "There was a caveat now, though."
 }</t>
         </is>
       </c>
@@ -7053,7 +6925,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>The statement expresses personal frustration and self-judgment about a decline in skill, indicating a negative evaluation of one's own ability.</t>
+          <t>The statement expresses a personal sense of loss or inadequacy in controlling paint, indicating a subjective evaluation of one's own ability.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -7063,413 +6935,406 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>I couldn't be controlling the paint like I used to. ||| It had to be about implying and suggesting, not explaining or describing.</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>The text evaluates the quality and value of artistic process and expression, focusing on technique and intent. This reflects appreciation of creative methods and their effectiveness, not emotions or moral evaluations.</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The statement expresses a personal sense of loss or inadequacy in controlling paint, indicating a subjective evaluation of one's own ability.",
+  "evidence_span": "I couldn't be controlling the paint like I used to."
+}</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>{
+  "label": "appreciation",
+  "affect": 0,
+  "judgment": 0,
+  "appreciation": 1,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["I couldn't be controlling the paint like I used to.", "It had to be about implying and suggesting, not explaining or describing."],
+  "explanation": "The text evaluates the quality and value of artistic process and expression, focusing on technique and intent. This reflects appreciation of creative methods and their effectiveness, not emotions or moral evaluations."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>It had to be about implying and suggesting, not explaining or describing.</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>The TARGET expresses a value judgment about artistic approach, favoring implication and suggestion over explanation, indicating an evaluative stance on creative methods.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>It had to be about implying and suggesting, not explaining or describing.</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>imperfect, chaotic, turbulent surface is what told the story ||| It had to be about implying and suggesting, not explaining or describing</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>The text evaluates the artistic quality and value of a surface and style, focusing on its expressive power and effectiveness in storytelling. This aligns with appreciation, as it assesses phenomena based on aesthetic and functional value, not emotions or social norms.</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The TARGET expresses a value judgment about artistic approach, favoring implication and suggestion over explanation, indicating an evaluative stance on creative methods.",
+  "evidence_span": "It had to be about implying and suggesting, not explaining or describing."
+}</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>{
+  "label": "appreciation",
+  "affect": 0,
+  "judgment": 0,
+  "appreciation": 1,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": [
+    "imperfect, chaotic, turbulent surface is what told the story",
+    "It had to be about implying and suggesting, not explaining or describing"
+  ],
+  "explanation": "The text evaluates the artistic quality and value of a surface and style, focusing on its expressive power and effectiveness in storytelling. This aligns with appreciation, as it assesses phenomena based on aesthetic and functional value, not emotions or social norms."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>And that imperfect, chaotic, turbulent surface is what told the story.</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>The phrase 'imperfect, chaotic, turbulent surface' carries a value-laden description, implying a positive evaluation of these qualities as meaningful for storytelling.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>imperfect, chaotic, turbulent surface is what told the story</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>imperfect, chaotic, turbulent surface is what told the story</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>The phrase evaluates the surface's qualities as meaningful and effective in storytelling, reflecting a value judgment on a phenomenon's aesthetic or functional worth—core to appreciation.</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The phrase 'imperfect, chaotic, turbulent surface' carries a value-laden description, implying a positive evaluation of these qualities as meaningful for storytelling.",
+  "evidence_span": "imperfect, chaotic, turbulent surface is what told the story"
+}</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>{
+  "label": "appreciation",
+  "affect": 0,
+  "judgment": 0,
+  "appreciation": 1,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["imperfect, chaotic, turbulent surface is what told the story"],
+  "explanation": "The phrase evaluates the surface's qualities as meaningful and effective in storytelling, reflecting a value judgment on a phenomenon's aesthetic or functional worth—core to appreciation."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>I started to be as curious as I was when I was a student.</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>The TARGET expresses a personal emotional state ('curious') and reflects on a past self, indicating an evaluative stance toward one's own experience and feelings.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>I started to be as curious as I was when I was a student.</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
           <t>affect</t>
         </is>
       </c>
-      <c r="F116" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>I couldn't be controlling the paint like I used to</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>The statement expresses personal emotional distress or frustration about a loss of skill, aligning with Affect as it reflects an internal emotional reaction to a perceived inability. No clear evaluation of character (Judgment) or object quality (Appreciation) is present. The focus is on the speaker's emotional state regarding their own capability.</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses personal frustration and self-judgment about a decline in skill, indicating a negative evaluation of one's own ability.",
-  "evidence_span": "I couldn't be controlling the paint like I used to."
-}</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="F119" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>I started to be as curious as I was when I was a student. ||| I loved this new environment</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>The text expresses personal emotional states—curiosity and love—indicating internal feelings. These are affective responses, not evaluations of behavior (judgment) or qualities (appreciation). Thus, affect is the primary category.</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The TARGET expresses a personal emotional state ('curious') and reflects on a past self, indicating an evaluative stance toward one's own experience and feelings.",
+  "evidence_span": "I started to be as curious as I was when I was a student."
+}</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>{
   "label": "affect",
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "I couldn't be controlling the paint like I used to"
-  ],
-  "explanation": "The statement expresses personal emotional distress or frustration about a loss of skill, aligning with Affect as it reflects an internal emotional reaction to a perceived inability. No clear evaluation of character (Judgment) or object quality (Appreciation) is present. The focus is on the speaker's emotional state regarding their own capability."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>It had to be about implying and suggesting, not explaining or describing.</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>The TARGET expresses a value judgment about artistic approach, favoring implication and suggestion over explanation, indicating an evaluative stance on creative methods.</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>It had to be about implying and suggesting, not explaining or describing.</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>appreciation</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>implying and suggesting ||| not explaining or describing ||| imperfect, chaotic, turbulent surface is what told the story</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>The TARGET evaluates artistic technique and outcome in terms of quality and effectiveness. Phrases like 'implying and suggesting' and 'told the story' reflect appreciation of aesthetic and expressive value, aligning with Appreciation (evaluation of artistic process and result). No clear emotional reaction (Affect) or moral judgment (Judgment) is present.</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The TARGET expresses a value judgment about artistic approach, favoring implication and suggestion over explanation, indicating an evaluative stance on creative methods.",
-  "evidence_span": "It had to be about implying and suggesting, not explaining or describing."
-}</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>{
-  "label": "appreciation",
-  "affect": 0,
-  "judgment": 0,
-  "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "implying and suggesting",
-    "not explaining or describing",
-    "imperfect, chaotic, turbulent surface is what told the story"
-  ],
-  "explanation": "The TARGET evaluates artistic technique and outcome in terms of quality and effectiveness. Phrases like 'implying and suggesting' and 'told the story' reflect appreciation of aesthetic and expressive value, aligning with Appreciation (evaluation of artistic process and result). No clear emotional reaction (Affect) or moral judgment (Judgment) is present."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>And that imperfect, chaotic, turbulent surface is what told the story.</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>The phrase 'imperfect, chaotic, turbulent surface' carries a value-laden description, implying a positive evaluation of these qualities as meaningful for storytelling.</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>imperfect, chaotic, turbulent surface is what told the story</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>appreciation</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>imperfect, chaotic, turbulent surface ||| told the story</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>The TARGET evaluates the surface's qualities (imperfect, chaotic, turbulent) as meaningful and effective in conveying narrative, aligning with Appreciation's focus on evaluation of phenomena, processes, or compositions. No clear emotional reaction (Affect) or judgment of character (Judgment) is expressed. The phrase 'told the story' suggests aesthetic or functional value, fitting Appreciation.</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The phrase 'imperfect, chaotic, turbulent surface' carries a value-laden description, implying a positive evaluation of these qualities as meaningful for storytelling.",
-  "evidence_span": "imperfect, chaotic, turbulent surface is what told the story"
-}</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>{
-  "label": "appreciation",
-  "affect": 0,
-  "judgment": 0,
-  "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "imperfect, chaotic, turbulent surface",
-    "told the story"
-  ],
-  "explanation": "The TARGET evaluates the surface's qualities (imperfect, chaotic, turbulent) as meaningful and effective in conveying narrative, aligning with Appreciation's focus on evaluation of phenomena, processes, or compositions. No clear emotional reaction (Affect) or judgment of character (Judgment) is expressed. The phrase 'told the story' suggests aesthetic or functional value, fitting Appreciation."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>I started to be as curious as I was when I was a student.</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>1</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>The statement expresses a personal emotional state and a reflective judgment about curiosity, indicating an evaluative stance toward one's own mental state.</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>I started to be as curious as I was when I was a student.</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
+  "top_spans": ["I started to be as curious as I was when I was a student.", "I loved this new environment"],
+  "explanation": "The text expresses personal emotional states—curiosity and love—indicating internal feelings. These are affective responses, not evaluations of behavior (judgment) or qualities (appreciation). Thus, affect is the primary category."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>So the next thing was I wanted to put figures in these paintings, people, and I loved this new environment, so I wanted to have both people and this atmosphere.</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>The TARGET expresses a positive emotional reaction ('I loved this new environment') and personal preference, indicating evaluative sentiment toward the artistic environment.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>I loved this new environment</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>affect</t>
         </is>
       </c>
-      <c r="F119" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>I started to be as curious as I was when I was a student</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>The TARGET expresses an emotional state—curiosity—comparing present feelings to those of being a student. This aligns with Affect, as it reflects a personal emotional reaction or disposition. No evaluation of character (Judgment) or object quality (Appreciation) is evident. The focus is on internal emotional experience.</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The statement expresses a personal emotional state and a reflective judgment about curiosity, indicating an evaluative stance toward one's own mental state.",
-  "evidence_span": "I started to be as curious as I was when I was a student."
-}</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="F120" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>I got kind of nauseous and dizzy ||| which is really just adrenaline, probably ||| but for me it's a really good sign</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>The text expresses physical and emotional reactions (nausea, dizziness) linked to excitement and adrenaline, aligning with affect. The interpretation of the sensation as a 'good sign' reflects personal emotional response, not evaluation of behavior (judgment) or quality (appreciation).</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The TARGET expresses a positive emotional reaction ('I loved this new environment') and personal preference, indicating evaluative sentiment toward the artistic environment.",
+  "evidence_span": "I loved this new environment"
+}</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>{
   "label": "affect",
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
   "top_spans": [
-    "I started to be as curious as I was when I was a student"
+    "I got kind of nauseous and dizzy",
+    "which is really just adrenaline, probably",
+    "but for me it's a really good sign"
   ],
-  "explanation": "The TARGET expresses an emotional state—curiosity—comparing present feelings to those of being a student. This aligns with Affect, as it reflects a personal emotional reaction or disposition. No evaluation of character (Judgment) or object quality (Appreciation) is evident. The focus is on internal emotional experience."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>So the next thing was I wanted to put figures in these paintings, people, and I loved this new environment, so I wanted to have both people and this atmosphere.</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>1</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>The TARGET expresses a positive emotional reaction ('I loved this new environment') and a personal preference ('I wanted to have both people and this atmosphere'), indicating evaluative content.</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>I loved this new environment</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
+  "explanation": "The text expresses physical and emotional reactions (nausea, dizziness) linked to excitement and adrenaline, aligning with affect. The interpretation of the sensation as a 'good sign' reflects personal emotional response, not evaluation of behavior (judgment) or quality (appreciation)."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>When the idea hit me of how to do this, I got kind of nauseous and dizzy, which is really just adrenaline, probably, but for me it's a really good sign.</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>The TARGET expresses a personal emotional reaction (nauseous, dizzy) and interprets it as a positive sign, indicating an evaluative stance toward the creative process.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>which is really just adrenaline, probably, but for me it's a really good sign</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>affect</t>
         </is>
       </c>
-      <c r="F120" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>I loved this new environment ||| I wanted to have both people and this atmosphere</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>The TARGET expresses emotional reaction ('I loved this new environment') and desire linked to emotional state ('I wanted...'), aligning with Affect as defined. No evaluation of character (Judgment) or quality of things/events (Appreciation) is present. The focus is on personal emotional engagement with the environment and creative impulse.</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The TARGET expresses a positive emotional reaction ('I loved this new environment') and a personal preference ('I wanted to have both people and this atmosphere'), indicating evaluative content.",
-  "evidence_span": "I loved this new environment"
-}</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="F121" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>I got kind of nauseous and dizzy ||| which is really just adrenaline ||| but for me it's a really good sign</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>The text expresses physical and emotional reactions (nausea, dizziness) linked to excitement, interpreted as a personal emotional response. This aligns with 'affect' as the primary category, as it centers on internal feelings rather than evaluation of people, behavior, or things.</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The TARGET expresses a personal emotional reaction (nauseous, dizzy) and interprets it as a positive sign, indicating an evaluative stance toward the creative process.",
+  "evidence_span": "which is really just adrenaline, probably, but for me it's a really good sign"
+}</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>{
   "label": "affect",
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
-  "probability_appreciation": 0.05,
-  "top_spans": [
-    "I loved this new environment",
-    "I wanted to have both people and this atmosphere"
-  ],
-  "explanation": "The TARGET expresses emotional reaction ('I loved this new environment') and desire linked to emotional state ('I wanted...'), aligning with Affect as defined. No evaluation of character (Judgment) or quality of things/events (Appreciation) is present. The focus is on personal emotional engagement with the environment and creative impulse."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>When the idea hit me of how to do this, I got kind of nauseous and dizzy, which is really just adrenaline, probably, but for me it's a really good sign.</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>1</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>The TARGET expresses a personal emotional reaction (nauseous, dizzy) and interprets it as a positive sign, indicating an evaluative stance toward the creative experience.</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>I got kind of nauseous and dizzy, which is really just adrenaline, probably, but for me it's a really good sign.</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>I got kind of nauseous and dizzy ||| which is really just adrenaline ||| for me it's a really good sign</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>The TARGET expresses physical and emotional reactions (nausea, dizziness) linked to excitement, aligning with Affect. The speaker interprets these sensations as adrenaline, a bodily response, and frames them positively as a 'good sign,' indicating emotional evaluation. No clear judgment of character or appreciation of an object/event is present.</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The TARGET expresses a personal emotional reaction (nauseous, dizzy) and interprets it as a positive sign, indicating an evaluative stance toward the creative experience.",
-  "evidence_span": "I got kind of nauseous and dizzy, which is really just adrenaline, probably, but for me it's a really good sign."
-}</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>{
-  "label": "affect",
-  "affect": 1,
-  "judgment": 0,
-  "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
   "top_spans": [
     "I got kind of nauseous and dizzy",
     "which is really just adrenaline",
-    "for me it's a really good sign"
+    "but for me it's a really good sign"
   ],
-  "explanation": "The TARGET expresses physical and emotional reactions (nausea, dizziness) linked to excitement, aligning with Affect. The speaker interprets these sensations as adrenaline, a bodily response, and frames them positively as a 'good sign,' indicating emotional evaluation. No clear judgment of character or appreciation of an object/event is present."
+  "explanation": "The text expresses physical and emotional reactions (nausea, dizziness) linked to excitement, interpreted as a personal emotional response. This aligns with 'affect' as the primary category, as it centers on internal feelings rather than evaluation of people, behavior, or things."
 }</t>
         </is>
       </c>
@@ -7485,7 +7350,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>The TARGET text is a neutral statement expressing an intention to display work. It contains no emotional stance, judgment, or quality evaluation.</t>
+          <t>The TARGET text is a neutral statement expressing an intention to display work. It contains no emotional stance, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -7500,7 +7365,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET text is a neutral statement expressing an intention to display work. It contains no emotional stance, judgment, or quality evaluation.",
+  "justification": "The TARGET text is a neutral statement expressing an intention to display work. It contains no emotional stance, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -7518,7 +7383,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>The TARGET describes the nature of the content being shown without expressing emotion, judgment, or value evaluation. It is purely descriptive and factual.</t>
+          <t>The TARGET describes the nature of the content being shown without expressing emotion, judgment, or value evaluation. It is purely descriptive and neutral.</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -7533,7 +7398,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET describes the nature of the content being shown without expressing emotion, judgment, or value evaluation. It is purely descriptive and factual.",
+  "justification": "The TARGET describes the nature of the content being shown without expressing emotion, judgment, or value evaluation. It is purely descriptive and neutral.",
   "evidence_span": ""
 }</t>
         </is>
@@ -7565,22 +7430,22 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H124" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Expansive space ||| isolated bathtub ||| instead of</t>
+          <t>Expansive space instead of the isolated bathtub.</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>The TARGET evaluates the spatial design contrast between 'expansive space' and 'isolated bathtub', focusing on spatial quality and composition. This aligns with Appreciation, as it assesses the environment's structure and aesthetic impact. No emotional reaction (Affect) or evaluation of character (Judgment) is present. The contrast implies a judgment of spatial value, but the focus is on the physical and experiential qualities of the setting.</t>
+          <t>The phrase evaluates the quality and value of a spatial design, focusing on the contrast between openness and isolation. This reflects an assessment of a phenomenon's aesthetic or functional merit, aligning with appreciation.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -7600,15 +7465,11 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "Expansive space",
-    "isolated bathtub",
-    "instead of"
-  ],
-  "explanation": "The TARGET evaluates the spatial design contrast between 'expansive space' and 'isolated bathtub', focusing on spatial quality and composition. This aligns with Appreciation, as it assesses the environment's structure and aesthetic impact. No emotional reaction (Affect) or evaluation of character (Judgment) is present. The contrast implies a judgment of spatial value, but the focus is on the physical and experiential qualities of the setting."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["Expansive space instead of the isolated bathtub."],
+  "explanation": "The phrase evaluates the quality and value of a spatial design, focusing on the contrast between openness and isolation. This reflects an assessment of a phenomenon's aesthetic or functional merit, aligning with appreciation."
 }</t>
         </is>
       </c>
@@ -7624,7 +7485,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>The statement expresses a personal choice of location without emotional tone, judgment, or evaluation of quality or behavior.</t>
+          <t>The TARGET expresses a simple personal action choice without emotional tone, judgment, or evaluation of quality, behavior, or aesthetics.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -7639,7 +7500,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The statement expresses a personal choice of location without emotional tone, judgment, or evaluation of quality or behavior.",
+  "justification": "The TARGET expresses a simple personal action choice without emotional tone, judgment, or evaluation of quality, behavior, or aesthetics.",
   "evidence_span": ""
 }</t>
         </is>
@@ -7657,12 +7518,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>The TARGET expresses a positive evaluation of imperfections, suggesting value in them through 'savoring' and 'allowing', indicating an aesthetic or emotional judgment.</t>
+          <t>The TARGET expresses a positive valuation of imperfections, indicating aesthetic or emotional appreciation, which constitutes an evaluative stance.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>savoring the imperfections, allowing the -- allowing the imperfections</t>
+          <t>savoring the imperfections</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -7674,19 +7535,19 @@
         <v>0.1</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>savoring the imperfections ||| allowing the imperfections</t>
+          <t>savoring the imperfections ||| allowing the imperfections ||| in that imperfection, you can find a vulnerability</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>The TARGET evaluates the state of imperfection positively, emphasizing its value and desirability through 'savoring' and 'allowing'. This aligns with Appreciation, as it assesses the quality and worth of imperfection as a phenomenon, not emotional states or character. No clear affect or judgment is expressed.</t>
+          <t>The text evaluates the quality and value of imperfections, framing them as meaningful and worth embracing. This reflects appreciation of phenomena based on intrinsic worth, not emotion or social evaluation. Thus, appreciation is dominant.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -7694,8 +7555,8 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses a positive evaluation of imperfections, suggesting value in them through 'savoring' and 'allowing', indicating an aesthetic or emotional judgment.",
-  "evidence_span": "savoring the imperfections, allowing the -- allowing the imperfections"
+  "justification": "The TARGET expresses a positive valuation of imperfections, indicating aesthetic or emotional appreciation, which constitutes an evaluative stance.",
+  "evidence_span": "savoring the imperfections"
 }</t>
         </is>
       </c>
@@ -7706,14 +7567,15 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
+  "probability_affect": 0.10,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.85,
   "top_spans": [
     "savoring the imperfections",
-    "allowing the imperfections"
+    "allowing the imperfections",
+    "in that imperfection, you can find a vulnerability"
   ],
-  "explanation": "The TARGET evaluates the state of imperfection positively, emphasizing its value and desirability through 'savoring' and 'allowing'. This aligns with Appreciation, as it assesses the quality and worth of imperfection as a phenomenon, not emotional states or character. No clear affect or judgment is expressed."
+  "explanation": "The text evaluates the quality and value of imperfections, framing them as meaningful and worth embracing. This reflects appreciation of phenomena based on intrinsic worth, not emotion or social evaluation. Thus, appreciation is dominant."
 }</t>
         </is>
       </c>
@@ -7729,7 +7591,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>The phrase 'you can find a vulnerability' implies a value-laden interpretation of imperfection, suggesting emotional or relational significance, thus expressing an evaluative stance.</t>
+          <t>The phrase 'you can find a vulnerability' implies a value-laden interpretation of imperfection, suggesting emotional or relational significance, thus expressing evaluation.</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -7739,125 +7601,123 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>in that imperfection, you can find a vulnerability ||| human connection that can happen in a space where there's no resisting or controlling</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>The text evaluates the quality and value of imperfection and uncontrolled space, highlighting their significance in fostering human connection. This reflects appreciation of phenomena and their intrinsic worth, not emotional expression or moral evaluation.</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The phrase 'you can find a vulnerability' implies a value-laden interpretation of imperfection, suggesting emotional or relational significance, thus expressing evaluation.",
+  "evidence_span": "you can find a vulnerability"
+}</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>{
+  "label": "appreciation",
+  "affect": 0,
+  "judgment": 0,
+  "appreciation": 1,
+  "probability_affect": 0.10,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.85,
+  "top_spans": ["in that imperfection, you can find a vulnerability", "human connection that can happen in a space where there's no resisting or controlling"],
+  "explanation": "The text evaluates the quality and value of imperfection and uncontrolled space, highlighting their significance in fostering human connection. This reflects appreciation of phenomena and their intrinsic worth, not emotional expression or moral evaluation."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>I could feel my deepest intention, what matters most to me, that human connection that can happen in a space where there's no resisting or controlling.</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>The TARGET expresses a personal, emotional value judgment about human connection, describing it as deeply meaningful and significant, indicating an evaluative stance.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>what matters most to me, that human connection</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
           <t>affect</t>
         </is>
       </c>
-      <c r="F127" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>vulnerability</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>The phrase 'vulnerability' expresses an emotional state tied to personal exposure and feeling, aligning with Affect (emotional reaction). It reflects a subjective inner experience rather than judgment of character or evaluation of a thing's quality. Context from NEXT reinforces emotional depth, supporting affective interpretation.</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The phrase 'you can find a vulnerability' implies a value-laden interpretation of imperfection, suggesting emotional or relational significance, thus expressing an evaluative stance.",
-  "evidence_span": "you can find a vulnerability"
-}</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="F128" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>I could feel my deepest intention ||| what matters most to me ||| human connection that can happen in a space where there's no resisting or controlling</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>The text expresses personal emotional experience and inner feelings, particularly about intention and human connection. These reflect internal emotional states, aligning with 'affect' as the primary category.</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The TARGET expresses a personal, emotional value judgment about human connection, describing it as deeply meaningful and significant, indicating an evaluative stance.",
+  "evidence_span": "what matters most to me, that human connection"
+}</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>{
   "label": "affect",
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
-  "probability_appreciation": 0.15,
-  "top_spans": [
-    "vulnerability"
-  ],
-  "explanation": "The phrase 'vulnerability' expresses an emotional state tied to personal exposure and feeling, aligning with Affect (emotional reaction). It reflects a subjective inner experience rather than judgment of character or evaluation of a thing's quality. Context from NEXT reinforces emotional depth, supporting affective interpretation."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>I could feel my deepest intention, what matters most to me, that human connection that can happen in a space where there's no resisting or controlling.</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>The TARGET expresses a personal, emotional value judgment about human connection, describing it as deeply meaningful and significant, indicating a qualitative evaluation of a human experience.</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>what matters most to me, that human connection that can happen in a space where there's no resisting or controlling</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>I could feel my deepest intention ||| what matters most to me ||| human connection that can happen</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>The TARGET expresses an emotional experience and inner feeling ('I could feel') centered on personal values and emotional connection. This aligns with Affect, as it reflects internal emotional states and significance of human connection, consistent with the definition of affect as emotional reactions and dispositions. No clear evaluation of behavior (judgment) or objects/events (appreciation) is present.</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The TARGET expresses a personal, emotional value judgment about human connection, describing it as deeply meaningful and significant, indicating a qualitative evaluation of a human experience.",
-  "evidence_span": "what matters most to me, that human connection that can happen in a space where there's no resisting or controlling"
-}</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>{
-  "label": "affect",
-  "affect": 1,
-  "judgment": 0,
-  "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
   "top_spans": [
     "I could feel my deepest intention",
     "what matters most to me",
-    "human connection that can happen"
+    "human connection that can happen in a space where there's no resisting or controlling"
   ],
-  "explanation": "The TARGET expresses an emotional experience and inner feeling ('I could feel') centered on personal values and emotional connection. This aligns with Affect, as it reflects internal emotional states and significance of human connection, consistent with the definition of affect as emotional reactions and dispositions. No clear evaluation of behavior (judgment) or objects/events (appreciation) is present."
+  "explanation": "The text expresses personal emotional experience and inner feelings, particularly about intention and human connection. These reflect internal emotional states, aligning with 'affect' as the primary category."
 }</t>
         </is>
       </c>
@@ -7873,7 +7733,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>The statement expresses a personal desire to create art about a meaningful human connection, indicating a value judgment and emotional significance attached to the subject.</t>
+          <t>The statement expresses a personal desire and values artistic creation as a means to explore meaningful human connection, indicating a subjective evaluation of purpose and significance.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -7890,19 +7750,19 @@
         <v>0.1</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H129" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>make paintings about that</t>
+          <t>I want to make paintings about that.</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>The TARGET expresses a desire to create art focused on a meaningful human connection. This reflects an evaluation of the concept (human connection) as worthy of artistic representation, aligning with Appreciation—evaluating a phenomenon's value and significance. No clear emotional state (Affect) or judgment of character (Judgment) is expressed.</t>
+          <t>The statement expresses value and significance toward an abstract concept (human connection), indicating appreciation for its quality and worth. No emotional expression or moral evaluation is present, making appreciation the primary category.</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -7910,7 +7770,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The statement expresses a personal desire to create art about a meaningful human connection, indicating a value judgment and emotional significance attached to the subject.",
+  "justification": "The statement expresses a personal desire and values artistic creation as a means to explore meaningful human connection, indicating a subjective evaluation of purpose and significance.",
   "evidence_span": "I want to make paintings about that."
 }</t>
         </is>
@@ -7922,13 +7782,11 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "make paintings about that"
-  ],
-  "explanation": "The TARGET expresses a desire to create art focused on a meaningful human connection. This reflects an evaluation of the concept (human connection) as worthy of artistic representation, aligning with Appreciation—evaluating a phenomenon's value and significance. No clear emotional state (Affect) or judgment of character (Judgment) is expressed."
+  "probability_affect": 0.10,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.85,
+  "top_spans": ["I want to make paintings about that."],
+  "explanation": "The statement expresses value and significance toward an abstract concept (human connection), indicating appreciation for its quality and worth. No emotional expression or moral evaluation is present, making appreciation the primary category."
 }</t>
         </is>
       </c>
@@ -7944,7 +7802,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>The TARGET text states a neutral observation about learning, without expressing emotion, judgment, or evaluation of quality or value.</t>
+          <t>The TARGET text states a general observation about learning without expressing emotion, judgment, or evaluation of quality or value.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -7959,7 +7817,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The TARGET text states a neutral observation about learning, without expressing emotion, judgment, or evaluation of quality or value.",
+  "justification": "The TARGET text states a general observation about learning without expressing emotion, judgment, or evaluation of quality or value.",
   "evidence_span": ""
 }</t>
         </is>
@@ -7991,22 +7849,22 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H131" t="n">
         <v>0.05</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>big losses ||| relationships, love, our youth</t>
+          <t>We're all going to have big losses in our lives ||| relationships, love, our youth ||| We're going to lose our health, people we love</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>The TARGET expresses emotional weight through references to inevitable personal losses, evoking sadness and vulnerability. The language conveys a felt emotional response to life's hardships, aligning with Affect (emotional states). No explicit evaluation of character (Judgment) or quality of things (Appreciation) is present.</t>
+          <t>The text expresses emotional weight around inevitable personal losses, evoking sadness and vulnerability. While it describes events, the tone and focus on personal experience align with affect, not evaluation of behavior (judgment) or quality (appreciation).</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -8026,14 +7884,15 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
   "top_spans": [
-    "big losses",
-    "relationships, love, our youth"
+    "We're all going to have big losses in our lives",
+    "relationships, love, our youth",
+    "We're going to lose our health, people we love"
   ],
-  "explanation": "The TARGET expresses emotional weight through references to inevitable personal losses, evoking sadness and vulnerability. The language conveys a felt emotional response to life's hardships, aligning with Affect (emotional states). No explicit evaluation of character (Judgment) or quality of things (Appreciation) is present."
+  "explanation": "The text expresses emotional weight around inevitable personal losses, evoking sadness and vulnerability. While it describes events, the tone and focus on personal experience align with affect, not evaluation of behavior (judgment) or quality (appreciation)."
 }</t>
         </is>
       </c>
@@ -8049,7 +7908,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>The TARGET expresses a negative emotional anticipation about losing health and loved ones, indicating a value judgment on the significance of these losses.</t>
+          <t>The TARGET expresses a negative emotional anticipation about losing health and loved ones, indicating evaluative concern about significant personal losses.</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -8063,10 +7922,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H132" t="n">
         <v>0.05</v>
@@ -8078,7 +7937,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>The TARGET expresses emotional anticipation of personal loss, aligning with Affect as it conveys a sense of sorrow and vulnerability. The phrases 'lose our health' and 'people we love' evoke emotional reactions tied to fear and grief, consistent with the definition of Affect. No clear evaluation of character (Judgment) or quality of things (Appreciation) is present.</t>
+          <t>The TARGET expresses emotional anticipation of personal loss, particularly of health and loved ones, which evokes sorrow and fear. This aligns with 'affect' as it reflects feelings about inevitable emotional pain, not evaluation of behavior (judgment) or quality (appreciation).</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -8086,7 +7945,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses a negative emotional anticipation about losing health and loved ones, indicating a value judgment on the significance of these losses.",
+  "justification": "The TARGET expresses a negative emotional anticipation about losing health and loved ones, indicating evaluative concern about significant personal losses.",
   "evidence_span": "We're going to lose our health, people we love."
 }</t>
         </is>
@@ -8098,14 +7957,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.1,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "We're going to lose our health",
-    "people we love"
-  ],
-  "explanation": "The TARGET expresses emotional anticipation of personal loss, aligning with Affect as it conveys a sense of sorrow and vulnerability. The phrases 'lose our health' and 'people we love' evoke emotional reactions tied to fear and grief, consistent with the definition of Affect. No clear evaluation of character (Judgment) or quality of things (Appreciation) is present."
+  "top_spans": ["We're going to lose our health", "people we love"],
+  "explanation": "The TARGET expresses emotional anticipation of personal loss, particularly of health and loved ones, which evokes sorrow and fear. This aligns with 'affect' as it reflects feelings about inevitable emotional pain, not evaluation of behavior (judgment) or quality (appreciation)."
 }</t>
         </is>
       </c>
@@ -8121,7 +7977,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>The phrase 'out of our control' implies a negative evaluation of the situation, suggesting helplessness and lack of agency, which reflects a judgment about the nature of these losses.</t>
+          <t>The phrase 'out of our control' implies a negative evaluation of the situation, suggesting helplessness and lack of agency, which reflects a judgment about the nature of the losses.</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -8135,22 +7991,22 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H133" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>These kinds of losses are out of our control</t>
+          <t>These kinds of losses are out of our control. ||| They're unpredictable, and they bring us to our knees.</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>The sentence evaluates the nature of losses as uncontrollable, focusing on their inherent characteristics (unpredictability, power). This aligns with Appreciation, which assesses phenomena based on their qualities. No clear emotional reaction (Affect) or moral evaluation of people (Judgment) is present. The focus is on the structural and experiential quality of the event.</t>
+          <t>The text evaluates the nature and quality of losses—emphasizing their uncontrollability and intensity—focusing on the inherent characteristics of phenomena, which aligns with appreciation. No emotional expression or moral evaluation of people is present.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -8158,7 +8014,7 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The phrase 'out of our control' implies a negative evaluation of the situation, suggesting helplessness and lack of agency, which reflects a judgment about the nature of these losses.",
+  "justification": "The phrase 'out of our control' implies a negative evaluation of the situation, suggesting helplessness and lack of agency, which reflects a judgment about the nature of the losses.",
   "evidence_span": "These kinds of losses are out of our control."
 }</t>
         </is>
@@ -8170,13 +8026,11 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "These kinds of losses are out of our control"
-  ],
-  "explanation": "The sentence evaluates the nature of losses as uncontrollable, focusing on their inherent characteristics (unpredictability, power). This aligns with Appreciation, which assesses phenomena based on their qualities. No clear emotional reaction (Affect) or moral evaluation of people (Judgment) is present. The focus is on the structural and experiential quality of the event."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["These kinds of losses are out of our control.", "They're unpredictable, and they bring us to our knees."],
+  "explanation": "The text evaluates the nature and quality of losses—emphasizing their uncontrollability and intensity—focusing on the inherent characteristics of phenomena, which aligns with appreciation. No emotional expression or moral evaluation of people is present."
 }</t>
         </is>
       </c>
@@ -8206,22 +8060,22 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H134" t="n">
         <v>0.05</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>unpredictable ||| bring us to our knees</t>
+          <t>They're unpredictable, and they bring us to our knees.</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>The phrase 'bring us to our knees' expresses a strong emotional reaction, aligning with Affect (emotional state). 'Unpredictable' reflects a perception of emotional threat, reinforcing affective response. No clear evaluation of character (Judgment) or object quality (Appreciation) is present. The focus is on the emotional impact of events.</t>
+          <t>The phrase 'bring us to our knees' expresses a strong emotional response, indicating distress or overwhelming feeling. This aligns with affect, as it conveys personal emotional reaction rather than evaluation of behavior (judgment) or quality (appreciation).</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -8241,14 +8095,11 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
   "probability_appreciation": 0.05,
-  "top_spans": [
-    "unpredictable",
-    "bring us to our knees"
-  ],
-  "explanation": "The phrase 'bring us to our knees' expresses a strong emotional reaction, aligning with Affect (emotional state). 'Unpredictable' reflects a perception of emotional threat, reinforcing affective response. No clear evaluation of character (Judgment) or object quality (Appreciation) is present. The focus is on the emotional impact of events."
+  "top_spans": ["They're unpredictable, and they bring us to our knees."],
+  "explanation": "The phrase 'bring us to our knees' expresses a strong emotional response, indicating distress or overwhelming feeling. This aligns with affect, as it conveys personal emotional reaction rather than evaluation of behavior (judgment) or quality (appreciation)."
 }</t>
         </is>
       </c>
@@ -8264,7 +8115,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>The phrase 'let them' expresses a judgmental stance, implying acceptance or encouragement of a potentially negative outcome, reflecting a value-laden attitude toward the situation.</t>
+          <t>The phrase 'let them' expresses a judgmental stance, endorsing or accepting a state of being brought to one's knees, implying a value-laden response to the situation.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -8274,26 +8125,26 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ambiguous</t>
+          <t>appreciation</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="G135" t="n">
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
       <c r="H135" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>let them ||| I say ||| Fall to your knees</t>
+          <t>let them. ||| Be humbled.</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>The phrase 'let them' expresses emotional acceptance (affect) and implies a moral stance (judgment) toward submission. 'Fall to your knees' evokes emotional surrender and judgment of humility. No clear evaluation of things or events (appreciation) is present. Both affect and judgment are plausible, with judgment slightly dominant, but the emotional and evaluative layers are intertwined, warranting ambiguity.</t>
+          <t>The text evaluates the state of being brought low as meaningful or valuable, suggesting a positive assessment of humility. This reflects appreciation of a phenomenon (humble submission) rather than emotion, moral evaluation, or personal judgment.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -8301,172 +8152,161 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The phrase 'let them' expresses a judgmental stance, implying acceptance or encouragement of a potentially negative outcome, reflecting a value-laden attitude toward the situation.",
+  "justification": "The phrase 'let them' expresses a judgmental stance, endorsing or accepting a state of being brought to one's knees, implying a value-laden response to the situation.",
   "evidence_span": "let them"
 }</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
-        <is>
-          <t>{
-  "label": "ambiguous",
-  "affect": 1,
-  "judgment": 1,
-  "appreciation": 0,
-  "probability_affect": 0.6,
-  "probability_judgment": 0.7,
-  "probability_appreciation": 0.1,
-  "top_spans": [
-    "let them",
-    "I say",
-    "Fall to your knees"
-  ],
-  "explanation": "The phrase 'let them' expresses emotional acceptance (affect) and implies a moral stance (judgment) toward submission. 'Fall to your knees' evokes emotional surrender and judgment of humility. No clear evaluation of things or events (appreciation) is present. Both affect and judgment are plausible, with judgment slightly dominant, but the emotional and evaluative layers are intertwined, warranting ambiguity."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Fall to your knees. Be humbled.</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>1</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>The command 'Fall to your knees. Be humbled.' expresses a strong emotional and evaluative stance, implying moral or spiritual judgment and a call for submission.</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Fall to your knees. Be humbled.</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>judgment</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>Fall to your knees ||| Be humbled</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>The TARGET evaluates behavior in relation to social norms, urging submission and humility. 'Fall to your knees' and 'Be humbled' imply a moral or social expectation, aligning with Judgment (evaluation of conduct). No emotional state or evaluation of things is expressed, ruling out Affect and Appreciation. The command reflects a normative stance, not personal feeling or aesthetic value.</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The command 'Fall to your knees. Be humbled.' expresses a strong emotional and evaluative stance, implying moral or spiritual judgment and a call for submission.",
-  "evidence_span": "Fall to your knees. Be humbled."
-}</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>{
-  "label": "judgment",
-  "affect": 0,
-  "judgment": 1,
-  "appreciation": 0,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.9,
-  "probability_appreciation": 0.1,
-  "top_spans": [
-    "Fall to your knees",
-    "Be humbled"
-  ],
-  "explanation": "The TARGET evaluates behavior in relation to social norms, urging submission and humility. 'Fall to your knees' and 'Be humbled' imply a moral or social expectation, aligning with Judgment (evaluation of conduct). No emotional state or evaluation of things is expressed, ruling out Affect and Appreciation. The command reflects a normative stance, not personal feeling or aesthetic value."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Let go of trying to change it or even wanting it to be different.</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>1</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>The TARGET expresses a value judgment about accepting reality, implying a moral or emotional stance on the desirability of resisting change, which constitutes evaluative content.</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Let go of trying to change it or even wanting it to be different.</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>appreciation</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>Let go of trying to change it ||| wanting it to be different ||| It just is</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>The TARGET evaluates the state of affairs as something to be accepted without alteration, reflecting a judgment on the nature of reality. This aligns with Appreciation—evaluating a situation's inherent quality or value. The focus is on the acceptance of existence as it is, not on emotions (Affect) or moral character (Judgment).</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>{
-  "binary": 1,
-  "label": "eval",
-  "justification": "The TARGET expresses a value judgment about accepting reality, implying a moral or emotional stance on the desirability of resisting change, which constitutes evaluative content.",
-  "evidence_span": "Let go of trying to change it or even wanting it to be different."
-}</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
         <is>
           <t>{
   "label": "appreciation",
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
-  "top_spans": [
-    "Let go of trying to change it",
-    "wanting it to be different",
-    "It just is"
-  ],
-  "explanation": "The TARGET evaluates the state of affairs as something to be accepted without alteration, reflecting a judgment on the nature of reality. This aligns with Appreciation—evaluating a situation's inherent quality or value. The focus is on the acceptance of existence as it is, not on emotions (Affect) or moral character (Judgment)."
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["let them.", "Be humbled."],
+  "explanation": "The text evaluates the state of being brought low as meaningful or valuable, suggesting a positive assessment of humility. This reflects appreciation of a phenomenon (humble submission) rather than emotion, moral evaluation, or personal judgment."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Fall to your knees. Be humbled.</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>The TARGET expresses a directive with emotional and evaluative force, urging submission and humility, which reflects a judgment of attitude and moral stance.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Fall to your knees. Be humbled.</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>affect</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Fall to your knees ||| Be humbled</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>The phrases express intense emotional states—submission and humility—indicating internal feelings. No evaluation of behavior (judgment) or quality (appreciation) is present. Thus, affect is dominant.</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The TARGET expresses a directive with emotional and evaluative force, urging submission and humility, which reflects a judgment of attitude and moral stance.",
+  "evidence_span": "Fall to your knees. Be humbled."
+}</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>{
+  "label": "affect",
+  "affect": 1,
+  "judgment": 0,
+  "appreciation": 0,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
+  "top_spans": ["Fall to your knees", "Be humbled"],
+  "explanation": "The phrases express intense emotional states—submission and humility—indicating internal feelings. No evaluation of behavior (judgment) or quality (appreciation) is present. Thus, affect is dominant."
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Let go of trying to change it or even wanting it to be different.</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>The TARGET expresses a value judgment about accepting reality, implying a moral or emotional stance on the desirability of change versus acceptance.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Let go of trying to change it or even wanting it to be different.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Let go of trying to change it or even wanting it to be different. ||| It just is.</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>The text evaluates the state of affairs as inherently valid or acceptable, emphasizing acceptance of reality. This reflects appreciation of existence or state, not emotional reaction or moral evaluation. No affect or judgment is expressed.</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>{
+  "binary": 1,
+  "label": "eval",
+  "justification": "The TARGET expresses a value judgment about accepting reality, implying a moral or emotional stance on the desirability of change versus acceptance.",
+  "evidence_span": "Let go of trying to change it or even wanting it to be different."
+}</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>{
+  "label": "appreciation",
+  "affect": 0,
+  "judgment": 0,
+  "appreciation": 1,
+  "probability_affect": 0.05,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.90,
+  "top_spans": ["Let go of trying to change it or even wanting it to be different.", "It just is."],
+  "explanation": "The text evaluates the state of affairs as inherently valid or acceptable, emphasizing acceptance of reality. This reflects appreciation of existence or state, not emotional reaction or moral evaluation. No affect or judgment is expressed."
 }</t>
         </is>
       </c>
@@ -8482,10 +8322,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>The phrase 'It just is.' is a neutral statement asserting existence or state without expressing emotion, judgment, or evaluation of quality or value.</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>The phrase 'It just is.' is a neutral statement asserting existence or reality without expressing emotion, judgment, or evaluation of quality or value.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>It just is.</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
@@ -8497,8 +8341,8 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The phrase 'It just is.' is a neutral statement asserting existence or state without expressing emotion, judgment, or evaluation of quality or value.",
-  "evidence_span": ""
+  "justification": "The phrase 'It just is.' is a neutral statement asserting existence or reality without expressing emotion, judgment, or evaluation of quality or value.",
+  "evidence_span": "It just is."
 }</t>
         </is>
       </c>
@@ -8529,13 +8373,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H139" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -8544,7 +8388,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>The TARGET expresses emotional states (vulnerability) and introspective feelings tied to personal significance (what matters most, deepest intention), aligning with Affect. No evaluation of character (Judgment) or objects/events (Appreciation) is present. The focus is on internal emotional experience, fitting the Affect category.</t>
+          <t>The text expresses internal emotional states and personal feelings, such as vulnerability and deep intention, which align with affect. There is no evaluation of behavior (judgment) or quality/value of things (appreciation), making affect the primary category.</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -8564,15 +8408,15 @@
   "affect": 1,
   "judgment": 0,
   "appreciation": 0,
-  "probability_affect": 0.95,
-  "probability_judgment": 0.10,
-  "probability_appreciation": 0.15,
+  "probability_affect": 0.90,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.05,
   "top_spans": [
     "feel your vulnerability",
     "what matters most to you",
     "your deepest intention"
   ],
-  "explanation": "The TARGET expresses emotional states (vulnerability) and introspective feelings tied to personal significance (what matters most, deepest intention), aligning with Affect. No evaluation of character (Judgment) or objects/events (Appreciation) is present. The focus is on internal emotional experience, fitting the Affect category."
+  "explanation": "The text expresses internal emotional states and personal feelings, such as vulnerability and deep intention, which align with affect. There is no evaluation of behavior (judgment) or quality/value of things (appreciation), making affect the primary category."
 }</t>
         </is>
       </c>
@@ -8588,36 +8432,36 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>The TARGET expresses a value-laden suggestion to connect with what is 'really here, awake and alive,' implying a positive evaluation of presence and authenticity.</t>
+          <t>The phrase expresses a value-laden recommendation to connect with authenticity and presence, implying a positive evaluation of being 'awake and alive' and 'really here'.</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>And be curious to connect to what and who is really here, awake and alive.</t>
+          <t>be curious to connect to what and who is really here, awake and alive</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ambiguous</t>
+          <t>appreciation</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="G140" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="H140" t="n">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>be curious ||| what and who is really here ||| awake and alive</t>
+          <t>be curious to connect to what and who is really here ||| awake and alive</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>The phrase expresses emotional disposition (curiosity) and a positive emotional state (awake and alive), aligning with Affect. It implicitly judges the value of being present and aware, suggesting social or moral worth. It also appreciates the quality of being truly present, evaluating the state of being 'here, awake and alive' as meaningful. No single category dominates, hence ambiguous.</t>
+          <t>The text evaluates the quality and value of being present and aware, emphasizing the significance of authentic connection and vitality. This reflects appreciation of phenomena and states of being, not emotions or social evaluations.</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -8625,27 +8469,26 @@
           <t>{
   "binary": 1,
   "label": "eval",
-  "justification": "The TARGET expresses a value-laden suggestion to connect with what is 'really here, awake and alive,' implying a positive evaluation of presence and authenticity.",
-  "evidence_span": "And be curious to connect to what and who is really here, awake and alive."
+  "justification": "The phrase expresses a value-laden recommendation to connect with authenticity and presence, implying a positive evaluation of being 'awake and alive' and 'really here'.",
+  "evidence_span": "be curious to connect to what and who is really here, awake and alive"
 }</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>{
-  "label": "ambiguous",
-  "affect": 1,
-  "judgment": 1,
+  "label": "appreciation",
+  "affect": 0,
+  "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.6,
-  "probability_judgment": 0.55,
-  "probability_appreciation": 0.5,
+  "probability_affect": 0.10,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.85,
   "top_spans": [
-    "be curious",
-    "what and who is really here",
+    "be curious to connect to what and who is really here",
     "awake and alive"
   ],
-  "explanation": "The phrase expresses emotional disposition (curiosity) and a positive emotional state (awake and alive), aligning with Affect. It implicitly judges the value of being present and aware, suggesting social or moral worth. It also appreciates the quality of being truly present, evaluating the state of being 'here, awake and alive' as meaningful. No single category dominates, hence ambiguous."
+  "explanation": "The text evaluates the quality and value of being present and aware, emphasizing the significance of authentic connection and vitality. This reflects appreciation of phenomena and states of being, not emotions or social evaluations."
 }</t>
         </is>
       </c>
@@ -8661,7 +8504,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>The statement 'It's what we all want.' is a general assertion about shared desire without expressing emotion, judgment, or evaluation of quality or value.</t>
+          <t>The sentence expresses a general statement about shared desire without evaluating emotions, behavior, or qualities. It lacks explicit judgment or emotional stance.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -8676,7 +8519,7 @@
           <t>{
   "binary": 0,
   "label": "no_eval",
-  "justification": "The statement 'It's what we all want.' is a general assertion about shared desire without expressing emotion, judgment, or evaluation of quality or value.",
+  "justification": "The sentence expresses a general statement about shared desire without evaluating emotions, behavior, or qualities. It lacks explicit judgment or emotional stance.",
   "evidence_span": ""
 }</t>
         </is>
@@ -8711,19 +8554,19 @@
         <v>0.1</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H142" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>something beautiful in the unknown ||| in the unpredictable ||| even in the awful</t>
+          <t>find something beautiful in the unknown ||| in the unpredictable ||| even in the awful</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>The TARGET evaluates experiences and states (unknown, unpredictable, awful) as potentially containing beauty, reflecting an appreciation of value and aesthetic quality in diverse conditions. This aligns with Appreciation, as it assesses the worth and appeal of phenomena, not emotions or character. No clear affect or judgment is expressed.</t>
+          <t>The text evaluates qualities of experiences (unknown, unpredictable, awful) as potentially containing beauty, which aligns with appreciation—judging the value or quality of phenomena. No emotional expression or moral evaluation of people is present.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -8743,15 +8586,15 @@
   "affect": 0,
   "judgment": 0,
   "appreciation": 1,
-  "probability_affect": 0.1,
-  "probability_judgment": 0.1,
-  "probability_appreciation": 0.8,
+  "probability_affect": 0.10,
+  "probability_judgment": 0.05,
+  "probability_appreciation": 0.85,
   "top_spans": [
-    "something beautiful in the unknown",
+    "find something beautiful in the unknown",
     "in the unpredictable",
     "even in the awful"
   ],
-  "explanation": "The TARGET evaluates experiences and states (unknown, unpredictable, awful) as potentially containing beauty, reflecting an appreciation of value and aesthetic quality in diverse conditions. This aligns with Appreciation, as it assesses the worth and appeal of phenomena, not emotions or character. No clear affect or judgment is expressed."
+  "explanation": "The text evaluates qualities of experiences (unknown, unpredictable, awful) as potentially containing beauty, which aligns with appreciation—judging the value or quality of phenomena. No emotional expression or moral evaluation of people is present."
 }</t>
         </is>
       </c>
